--- a/sputnik/personal/ee/253ee.xlsx
+++ b/sputnik/personal/ee/253ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Мама\Desktop\ЭЭ по 22.03.2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\новое ee 03.06.2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="12">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -67,7 +67,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.00&quot; ₽&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -85,6 +85,13 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -164,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -197,6 +204,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -565,10 +573,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="G6" sqref="G6:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -653,14 +661,14 @@
         <v>1800</v>
       </c>
       <c r="D4" s="2">
-        <f>C4-C2</f>
+        <f t="shared" ref="D4:D9" si="0">C4-C2</f>
         <v>414</v>
       </c>
       <c r="E4" s="6">
         <v>4.5</v>
       </c>
       <c r="F4" s="9">
-        <f t="shared" ref="F2:F5" si="0">D4*E4</f>
+        <f t="shared" ref="F4:F5" si="1">D4*E4</f>
         <v>1863</v>
       </c>
       <c r="G4" s="12">
@@ -680,14 +688,14 @@
         <v>1100</v>
       </c>
       <c r="D5" s="2">
-        <f>C5-C3</f>
+        <f t="shared" si="0"/>
         <v>270</v>
       </c>
       <c r="E5" s="2">
         <v>2.35</v>
       </c>
       <c r="F5" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>634.5</v>
       </c>
       <c r="G5" s="12"/>
@@ -704,7 +712,7 @@
         <v>2170</v>
       </c>
       <c r="D6" s="2">
-        <f>C6-C4</f>
+        <f t="shared" si="0"/>
         <v>370</v>
       </c>
       <c r="E6" s="6">
@@ -714,11 +722,11 @@
         <f>D6*E6</f>
         <v>1690.9</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="14">
         <f>SUM(F6,F7)</f>
         <v>2283.62</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="14">
         <v>2402</v>
       </c>
     </row>
@@ -731,7 +739,7 @@
         <v>1348</v>
       </c>
       <c r="D7" s="2">
-        <f>C7-C5</f>
+        <f t="shared" si="0"/>
         <v>248</v>
       </c>
       <c r="E7" s="2">
@@ -755,14 +763,14 @@
         <v>2417</v>
       </c>
       <c r="D8" s="2">
-        <f>C8-C6</f>
+        <f t="shared" si="0"/>
         <v>247</v>
       </c>
       <c r="E8" s="6">
         <v>4.57</v>
       </c>
       <c r="F8" s="9">
-        <f t="shared" ref="F8:F13" si="1">D8*E8</f>
+        <f t="shared" ref="F8:F13" si="2">D8*E8</f>
         <v>1128.79</v>
       </c>
       <c r="G8" s="12">
@@ -782,14 +790,14 @@
         <v>1536</v>
       </c>
       <c r="D9" s="2">
-        <f>C9-C7</f>
+        <f t="shared" si="0"/>
         <v>188</v>
       </c>
       <c r="E9" s="2">
         <v>2.39</v>
       </c>
       <c r="F9" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>449.32000000000005</v>
       </c>
       <c r="G9" s="12"/>
@@ -806,14 +814,14 @@
         <v>2724</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" ref="D10:D17" si="2">C10-C8</f>
+        <f t="shared" ref="D10:D17" si="3">C10-C8</f>
         <v>307</v>
       </c>
       <c r="E10" s="6">
         <v>4.49</v>
       </c>
       <c r="F10" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1378.43</v>
       </c>
       <c r="G10" s="12">
@@ -833,14 +841,14 @@
         <v>1727</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>191</v>
       </c>
       <c r="E11" s="2">
         <v>2.4300000000000002</v>
       </c>
       <c r="F11" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>464.13000000000005</v>
       </c>
       <c r="G11" s="12"/>
@@ -857,14 +865,14 @@
         <v>3099</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>375</v>
       </c>
       <c r="E12" s="6">
         <v>4.49</v>
       </c>
       <c r="F12" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1683.75</v>
       </c>
       <c r="G12" s="12">
@@ -884,14 +892,14 @@
         <v>1973</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>246</v>
       </c>
       <c r="E13" s="2">
         <v>2.4300000000000002</v>
       </c>
       <c r="F13" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>597.78000000000009</v>
       </c>
       <c r="G13" s="12"/>
@@ -908,14 +916,14 @@
         <v>3550</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>451</v>
       </c>
       <c r="E14" s="6">
         <v>4.49</v>
       </c>
       <c r="F14" s="9">
-        <f t="shared" ref="F14:F19" si="3">D14*E14</f>
+        <f t="shared" ref="F14:F19" si="4">D14*E14</f>
         <v>2024.99</v>
       </c>
       <c r="G14" s="12">
@@ -935,14 +943,14 @@
         <v>2297</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>324</v>
       </c>
       <c r="E15" s="2">
         <v>2.4300000000000002</v>
       </c>
       <c r="F15" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>787.32</v>
       </c>
       <c r="G15" s="12"/>
@@ -959,14 +967,14 @@
         <v>3689</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>139</v>
       </c>
       <c r="E16" s="6">
         <v>4.49</v>
       </c>
       <c r="F16" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>624.11</v>
       </c>
       <c r="G16" s="12">
@@ -986,14 +994,14 @@
         <v>2461</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>164</v>
       </c>
       <c r="E17" s="2">
         <v>2.4300000000000002</v>
       </c>
       <c r="F17" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>398.52000000000004</v>
       </c>
       <c r="G17" s="12"/>
@@ -1010,14 +1018,14 @@
         <v>3698</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" ref="D18:D23" si="4">C18-C16</f>
+        <f t="shared" ref="D18:D23" si="5">C18-C16</f>
         <v>9</v>
       </c>
       <c r="E18" s="6">
         <v>4.49</v>
       </c>
       <c r="F18" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>40.410000000000004</v>
       </c>
       <c r="G18" s="12">
@@ -1037,14 +1045,14 @@
         <v>2461</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E19" s="2">
         <v>2.4300000000000002</v>
       </c>
       <c r="F19" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G19" s="12"/>
@@ -1061,14 +1069,14 @@
         <v>3776</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>78</v>
       </c>
       <c r="E20" s="6">
         <v>4.49</v>
       </c>
       <c r="F20" s="9">
-        <f>D20*E20</f>
+        <f t="shared" ref="F20:F25" si="6">D20*E20</f>
         <v>350.22</v>
       </c>
       <c r="G20" s="12">
@@ -1088,14 +1096,14 @@
         <v>2532</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>71</v>
       </c>
       <c r="E21" s="2">
         <v>2.4300000000000002</v>
       </c>
       <c r="F21" s="9">
-        <f>D21*E21</f>
+        <f t="shared" si="6"/>
         <v>172.53</v>
       </c>
       <c r="G21" s="12"/>
@@ -1112,14 +1120,14 @@
         <v>3790</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="E22" s="6">
         <v>4.49</v>
       </c>
       <c r="F22" s="9">
-        <f>D22*E22</f>
+        <f t="shared" si="6"/>
         <v>62.86</v>
       </c>
       <c r="G22" s="12">
@@ -1139,39 +1147,192 @@
         <v>2532</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E23" s="2">
         <v>2.4300000000000002</v>
       </c>
       <c r="F23" s="13">
-        <f>D23*E23</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F24" s="11" t="s">
+      <c r="A24" s="5">
+        <v>43963</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="2">
+        <v>3971</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" ref="D24:D25" si="7">C24-C22</f>
+        <v>181</v>
+      </c>
+      <c r="E24" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F24" s="9">
+        <f t="shared" si="6"/>
+        <v>812.69</v>
+      </c>
+      <c r="G24" s="12">
+        <f>SUM(F24,F25)</f>
+        <v>1169.9000000000001</v>
+      </c>
+      <c r="H24" s="12">
+        <v>1169.9000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="2">
+        <v>2679</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="7"/>
+        <v>147</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F25" s="13">
+        <f t="shared" si="6"/>
+        <v>357.21000000000004</v>
+      </c>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>43970</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="2">
+        <v>4110</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" ref="D26:D27" si="8">C26-C24</f>
+        <v>139</v>
+      </c>
+      <c r="E26" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F26" s="9">
+        <f t="shared" ref="F26:F27" si="9">D26*E26</f>
+        <v>624.11</v>
+      </c>
+      <c r="G26" s="12">
+        <f>SUM(F26,F27)</f>
+        <v>1010.48</v>
+      </c>
+      <c r="H26" s="12">
+        <v>1010.48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="2">
+        <v>2838</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="8"/>
+        <v>159</v>
+      </c>
+      <c r="E27" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F27" s="13">
+        <f t="shared" si="9"/>
+        <v>386.37</v>
+      </c>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>43979</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="2">
+        <v>4427</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" ref="D28:D29" si="10">C28-C26</f>
+        <v>317</v>
+      </c>
+      <c r="E28" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F28" s="9">
+        <f t="shared" ref="F28:F29" si="11">D28*E28</f>
+        <v>1423.3300000000002</v>
+      </c>
+      <c r="G28" s="12">
+        <f>SUM(F28,F29)</f>
+        <v>1877.7400000000002</v>
+      </c>
+      <c r="H28" s="12">
+        <v>1877.74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="2">
+        <v>3025</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="10"/>
+        <v>187</v>
+      </c>
+      <c r="E29" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F29" s="13">
+        <f t="shared" si="11"/>
+        <v>454.41</v>
+      </c>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F30" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="12">
-        <f>SUM(G2:G23)</f>
-        <v>14944.279999999999</v>
-      </c>
-      <c r="H24" s="12">
-        <f>SUM(H2:H23)</f>
-        <v>15062.66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F25" s="11" t="s">
+      <c r="G30" s="12">
+        <f>SUM(G2:G29)</f>
+        <v>19002.400000000001</v>
+      </c>
+      <c r="H30" s="12">
+        <f>SUM(H2:H29)</f>
+        <v>19120.780000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F31" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12">
-        <f>SUM(H24,-G24)</f>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12">
+        <f>SUM(H30,-G30)</f>
         <v>118.38000000000102</v>
       </c>
     </row>

--- a/sputnik/personal/ee/253ee.xlsx
+++ b/sputnik/personal/ee/253ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\новое ee 03.06.2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\30.06.2020.ОБНОВЛЕНИЕ САЙТА\новое ee 05.06.2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="12">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -573,10 +573,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:H6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1314,26 +1314,179 @@
       <c r="H29" s="12"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F30" s="11" t="s">
+      <c r="A30" s="5">
+        <v>43997</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="2">
+        <v>4614</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" ref="D30:D31" si="12">C30-C28</f>
+        <v>187</v>
+      </c>
+      <c r="E30" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F30" s="9">
+        <f t="shared" ref="F30:F31" si="13">D30*E30</f>
+        <v>839.63</v>
+      </c>
+      <c r="G30" s="12">
+        <f>SUM(F30,F31)</f>
+        <v>1179.83</v>
+      </c>
+      <c r="H30" s="12">
+        <v>1179.83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="2">
+        <v>3165</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" si="12"/>
+        <v>140</v>
+      </c>
+      <c r="E31" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F31" s="13">
+        <f t="shared" si="13"/>
+        <v>340.20000000000005</v>
+      </c>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>44007</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="2">
+        <v>4695</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" ref="D32:D33" si="14">C32-C30</f>
+        <v>81</v>
+      </c>
+      <c r="E32" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F32" s="9">
+        <f t="shared" ref="F32:F33" si="15">D32*E32</f>
+        <v>363.69</v>
+      </c>
+      <c r="G32" s="12">
+        <f>SUM(F32,F33)</f>
+        <v>465.75</v>
+      </c>
+      <c r="H32" s="12">
+        <v>465.75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="2">
+        <v>3207</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" si="14"/>
+        <v>42</v>
+      </c>
+      <c r="E33" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F33" s="13">
+        <f t="shared" si="15"/>
+        <v>102.06</v>
+      </c>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>44014</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="2">
+        <v>4740</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" ref="D34:D35" si="16">C34-C32</f>
+        <v>45</v>
+      </c>
+      <c r="E34" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F34" s="9">
+        <f t="shared" ref="F34:F35" si="17">D34*E34</f>
+        <v>202.05</v>
+      </c>
+      <c r="G34" s="12">
+        <f>SUM(F34,F35)</f>
+        <v>248.22000000000003</v>
+      </c>
+      <c r="H34" s="12">
+        <v>248.22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="2">
+        <v>3226</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" si="16"/>
+        <v>19</v>
+      </c>
+      <c r="E35" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F35" s="13">
+        <f t="shared" si="17"/>
+        <v>46.17</v>
+      </c>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F36" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G30" s="12">
-        <f>SUM(G2:G29)</f>
-        <v>19002.400000000001</v>
-      </c>
-      <c r="H30" s="12">
-        <f>SUM(H2:H29)</f>
-        <v>19120.780000000002</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F31" s="11" t="s">
+      <c r="G36" s="12">
+        <f>SUM(G2:G33)</f>
+        <v>20647.980000000003</v>
+      </c>
+      <c r="H36" s="12">
+        <f>SUM(H2:H33)</f>
+        <v>20766.36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F37" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12">
-        <f>SUM(H30,-G30)</f>
-        <v>118.38000000000102</v>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12">
+        <f>SUM(H36,-G36)</f>
+        <v>118.37999999999738</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/253ee.xlsx
+++ b/sputnik/personal/ee/253ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\30.06.2020.ОБНОВЛЕНИЕ САЙТА\новое ee 05.06.2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\30.06.2020.ОБНОВЛЕНИЕ САЙТА\новое ee 30.06.2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="12">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -573,10 +573,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1467,25 +1467,127 @@
       <c r="H35" s="12"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F36" s="11" t="s">
+      <c r="A36" s="5">
+        <v>44027</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="2">
+        <v>4873</v>
+      </c>
+      <c r="D36" s="2">
+        <f t="shared" ref="D36:D37" si="18">C36-C34</f>
+        <v>133</v>
+      </c>
+      <c r="E36" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F36" s="9">
+        <f t="shared" ref="F36:F37" si="19">D36*E36</f>
+        <v>626.42999999999995</v>
+      </c>
+      <c r="G36" s="12">
+        <f>SUM(F36,F37)</f>
+        <v>746.28</v>
+      </c>
+      <c r="H36" s="12">
+        <v>746.28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="2">
+        <v>3273</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" si="18"/>
+        <v>47</v>
+      </c>
+      <c r="E37" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F37" s="13">
+        <f t="shared" si="19"/>
+        <v>119.85</v>
+      </c>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>44039</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="2">
+        <v>4974</v>
+      </c>
+      <c r="D38" s="2">
+        <f t="shared" ref="D38:D39" si="20">C38-C36</f>
+        <v>101</v>
+      </c>
+      <c r="E38" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F38" s="9">
+        <f t="shared" ref="F38:F39" si="21">D38*E38</f>
+        <v>475.71</v>
+      </c>
+      <c r="G38" s="12">
+        <f>SUM(F38,F39)</f>
+        <v>621.05999999999995</v>
+      </c>
+      <c r="H38" s="12">
+        <v>621.05999999999995</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="2">
+        <v>3330</v>
+      </c>
+      <c r="D39" s="2">
+        <f t="shared" si="20"/>
+        <v>57</v>
+      </c>
+      <c r="E39" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F39" s="13">
+        <f t="shared" si="21"/>
+        <v>145.35</v>
+      </c>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F40" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G36" s="12">
-        <f>SUM(G2:G33)</f>
-        <v>20647.980000000003</v>
-      </c>
-      <c r="H36" s="12">
-        <f>SUM(H2:H33)</f>
-        <v>20766.36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F37" s="11" t="s">
+      <c r="G40" s="12">
+        <f>SUM(G2:G39)</f>
+        <v>22263.540000000005</v>
+      </c>
+      <c r="H40" s="12">
+        <f>SUM(H2:H39)</f>
+        <v>22381.920000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F41" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12">
-        <f>SUM(H36,-G36)</f>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12">
+        <f>SUM(H40,-G40)</f>
         <v>118.37999999999738</v>
       </c>
     </row>

--- a/sputnik/personal/ee/253ee.xlsx
+++ b/sputnik/personal/ee/253ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\30.06.2020.ОБНОВЛЕНИЕ САЙТА\новое ee 30.06.2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\30.06.2020.ОБНОВЛЕНИЕ САЙТА\новое ee 31.07.2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="12">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -573,10 +573,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1569,25 +1569,178 @@
       <c r="H39" s="12"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F40" s="11" t="s">
+      <c r="A40" s="5">
+        <v>44048</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="2">
+        <v>5081</v>
+      </c>
+      <c r="D40" s="2">
+        <f t="shared" ref="D40:D41" si="22">C40-C38</f>
+        <v>107</v>
+      </c>
+      <c r="E40" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F40" s="9">
+        <f t="shared" ref="F40:F41" si="23">D40*E40</f>
+        <v>503.96999999999997</v>
+      </c>
+      <c r="G40" s="12">
+        <f>SUM(F40,F41)</f>
+        <v>595.77</v>
+      </c>
+      <c r="H40" s="12">
+        <v>595.77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="2">
+        <v>3366</v>
+      </c>
+      <c r="D41" s="2">
+        <f t="shared" si="22"/>
+        <v>36</v>
+      </c>
+      <c r="E41" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F41" s="13">
+        <f t="shared" si="23"/>
+        <v>91.8</v>
+      </c>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>44060</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="2">
+        <v>5188</v>
+      </c>
+      <c r="D42" s="2">
+        <f t="shared" ref="D42:D43" si="24">C42-C40</f>
+        <v>107</v>
+      </c>
+      <c r="E42" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F42" s="9">
+        <f t="shared" ref="F42:F43" si="25">D42*E42</f>
+        <v>503.96999999999997</v>
+      </c>
+      <c r="G42" s="12">
+        <f>SUM(F42,F43)</f>
+        <v>590.66999999999996</v>
+      </c>
+      <c r="H42" s="12">
+        <v>590.66999999999996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="2">
+        <v>3400</v>
+      </c>
+      <c r="D43" s="2">
+        <f t="shared" si="24"/>
+        <v>34</v>
+      </c>
+      <c r="E43" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F43" s="13">
+        <f t="shared" si="25"/>
+        <v>86.699999999999989</v>
+      </c>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>44074</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="2">
+        <v>5352</v>
+      </c>
+      <c r="D44" s="2">
+        <f>C44-C42</f>
+        <v>164</v>
+      </c>
+      <c r="E44" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F44" s="9">
+        <f t="shared" ref="F44:F45" si="26">D44*E44</f>
+        <v>772.43999999999994</v>
+      </c>
+      <c r="G44" s="12">
+        <f>SUM(F44,F45)</f>
+        <v>1050.3899999999999</v>
+      </c>
+      <c r="H44" s="12">
+        <v>1050.3900000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="2">
+        <v>3509</v>
+      </c>
+      <c r="D45" s="2">
+        <f>C45-C43</f>
+        <v>109</v>
+      </c>
+      <c r="E45" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F45" s="13">
+        <f t="shared" si="26"/>
+        <v>277.95</v>
+      </c>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F46" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G40" s="12">
-        <f>SUM(G2:G39)</f>
-        <v>22263.540000000005</v>
-      </c>
-      <c r="H40" s="12">
-        <f>SUM(H2:H39)</f>
-        <v>22381.920000000002</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F41" s="11" t="s">
+      <c r="G46" s="12">
+        <f>SUM(G2:G45)</f>
+        <v>24500.370000000003</v>
+      </c>
+      <c r="H46" s="12">
+        <f>SUM(H2:H45)</f>
+        <v>24618.75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F47" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12">
-        <f>SUM(H40,-G40)</f>
+      <c r="G47" s="12"/>
+      <c r="H47" s="14">
+        <f>SUM(H46,-G46)</f>
         <v>118.37999999999738</v>
       </c>
     </row>

--- a/sputnik/personal/ee/253ee.xlsx
+++ b/sputnik/personal/ee/253ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\30.06.2020.ОБНОВЛЕНИЕ САЙТА\новое ee 31.07.2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\30.09.2020.ОБНОВЛЕНИЕ САЙТА\новое ee 15.09.2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="12">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -573,10 +573,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1722,25 +1722,127 @@
       <c r="H45" s="12"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F46" s="11" t="s">
+      <c r="A46" s="5">
+        <v>44088</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="2">
+        <v>5564</v>
+      </c>
+      <c r="D46" s="2">
+        <f>C46-C44</f>
+        <v>212</v>
+      </c>
+      <c r="E46" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F46" s="9">
+        <f t="shared" ref="F46:F47" si="27">D46*E46</f>
+        <v>998.52</v>
+      </c>
+      <c r="G46" s="12">
+        <f>SUM(F46,F47)</f>
+        <v>1358.07</v>
+      </c>
+      <c r="H46" s="12">
+        <v>1358.07</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="2">
+        <v>3650</v>
+      </c>
+      <c r="D47" s="2">
+        <f>C47-C45</f>
+        <v>141</v>
+      </c>
+      <c r="E47" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F47" s="13">
+        <f t="shared" si="27"/>
+        <v>359.54999999999995</v>
+      </c>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <v>44102</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="2">
+        <v>5857</v>
+      </c>
+      <c r="D48" s="2">
+        <f>C48-C46</f>
+        <v>293</v>
+      </c>
+      <c r="E48" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F48" s="9">
+        <f t="shared" ref="F48:F49" si="28">D48*E48</f>
+        <v>1380.03</v>
+      </c>
+      <c r="G48" s="12">
+        <f>SUM(F48,F49)</f>
+        <v>1864.53</v>
+      </c>
+      <c r="H48" s="12">
+        <v>1864.53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="2">
+        <v>3840</v>
+      </c>
+      <c r="D49" s="2">
+        <f>C49-C47</f>
+        <v>190</v>
+      </c>
+      <c r="E49" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F49" s="13">
+        <f t="shared" si="28"/>
+        <v>484.49999999999994</v>
+      </c>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F50" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G46" s="12">
-        <f>SUM(G2:G45)</f>
-        <v>24500.370000000003</v>
-      </c>
-      <c r="H46" s="12">
-        <f>SUM(H2:H45)</f>
-        <v>24618.75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F47" s="11" t="s">
+      <c r="G50" s="12">
+        <f>SUM(G2:G47)</f>
+        <v>25858.440000000002</v>
+      </c>
+      <c r="H50" s="12">
+        <f>SUM(H2:H47)</f>
+        <v>25976.82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F51" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G47" s="12"/>
-      <c r="H47" s="14">
-        <f>SUM(H46,-G46)</f>
+      <c r="G51" s="12"/>
+      <c r="H51" s="14">
+        <f>SUM(H50,-G50)</f>
         <v>118.37999999999738</v>
       </c>
     </row>

--- a/sputnik/personal/ee/253ee.xlsx
+++ b/sputnik/personal/ee/253ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\30.09.2020.ОБНОВЛЕНИЕ САЙТА\новое ee 15.09.2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\31.10.2020.ОБНОВЛЕНИЕ САЙТА\новое ee 31.10.2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -51,12 +51,6 @@
   </si>
   <si>
     <t>оплачено</t>
-  </si>
-  <si>
-    <t>итого за период</t>
-  </si>
-  <si>
-    <t>остаток</t>
   </si>
 </sst>
 </file>
@@ -105,7 +99,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -167,11 +161,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -205,6 +214,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -573,10 +585,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1681,14 +1693,14 @@
         <v>5352</v>
       </c>
       <c r="D44" s="2">
-        <f>C44-C42</f>
+        <f t="shared" ref="D44:D51" si="26">C44-C42</f>
         <v>164</v>
       </c>
       <c r="E44" s="6">
         <v>4.71</v>
       </c>
       <c r="F44" s="9">
-        <f t="shared" ref="F44:F45" si="26">D44*E44</f>
+        <f t="shared" ref="F44:F45" si="27">D44*E44</f>
         <v>772.43999999999994</v>
       </c>
       <c r="G44" s="12">
@@ -1708,14 +1720,14 @@
         <v>3509</v>
       </c>
       <c r="D45" s="2">
-        <f>C45-C43</f>
+        <f t="shared" si="26"/>
         <v>109</v>
       </c>
       <c r="E45" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F45" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>277.95</v>
       </c>
       <c r="G45" s="12"/>
@@ -1732,14 +1744,14 @@
         <v>5564</v>
       </c>
       <c r="D46" s="2">
-        <f>C46-C44</f>
+        <f t="shared" si="26"/>
         <v>212</v>
       </c>
       <c r="E46" s="6">
         <v>4.71</v>
       </c>
       <c r="F46" s="9">
-        <f t="shared" ref="F46:F47" si="27">D46*E46</f>
+        <f t="shared" ref="F46:F47" si="28">D46*E46</f>
         <v>998.52</v>
       </c>
       <c r="G46" s="12">
@@ -1759,14 +1771,14 @@
         <v>3650</v>
       </c>
       <c r="D47" s="2">
-        <f>C47-C45</f>
+        <f t="shared" si="26"/>
         <v>141</v>
       </c>
       <c r="E47" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F47" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>359.54999999999995</v>
       </c>
       <c r="G47" s="12"/>
@@ -1783,14 +1795,14 @@
         <v>5857</v>
       </c>
       <c r="D48" s="2">
-        <f>C48-C46</f>
+        <f t="shared" si="26"/>
         <v>293</v>
       </c>
       <c r="E48" s="6">
         <v>4.71</v>
       </c>
       <c r="F48" s="9">
-        <f t="shared" ref="F48:F49" si="28">D48*E48</f>
+        <f t="shared" ref="F48:F49" si="29">D48*E48</f>
         <v>1380.03</v>
       </c>
       <c r="G48" s="12">
@@ -1810,39 +1822,135 @@
         <v>3840</v>
       </c>
       <c r="D49" s="2">
-        <f>C49-C47</f>
+        <f t="shared" si="26"/>
         <v>190</v>
       </c>
       <c r="E49" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F49" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>484.49999999999994</v>
       </c>
       <c r="G49" s="12"/>
       <c r="H49" s="12"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F50" s="11" t="s">
-        <v>10</v>
+      <c r="A50" s="5">
+        <v>44116</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="2">
+        <v>6186</v>
+      </c>
+      <c r="D50" s="2">
+        <f t="shared" si="26"/>
+        <v>329</v>
+      </c>
+      <c r="E50" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F50" s="9">
+        <f t="shared" ref="F50:F51" si="30">D50*E50</f>
+        <v>1549.59</v>
       </c>
       <c r="G50" s="12">
-        <f>SUM(G2:G47)</f>
-        <v>25858.440000000002</v>
+        <f>SUM(F50,F51)</f>
+        <v>2189.64</v>
       </c>
       <c r="H50" s="12">
-        <f>SUM(H2:H47)</f>
-        <v>25976.82</v>
+        <v>2189.64</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F51" s="11" t="s">
-        <v>11</v>
+      <c r="A51" s="2"/>
+      <c r="B51" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="2">
+        <v>4091</v>
+      </c>
+      <c r="D51" s="2">
+        <f t="shared" si="26"/>
+        <v>251</v>
+      </c>
+      <c r="E51" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F51" s="15">
+        <f t="shared" si="30"/>
+        <v>640.04999999999995</v>
       </c>
       <c r="G51" s="12"/>
-      <c r="H51" s="14">
-        <f>SUM(H50,-G50)</f>
+      <c r="H51" s="12"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <v>44126</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="2">
+        <v>6624</v>
+      </c>
+      <c r="D52" s="2">
+        <f t="shared" ref="D52:D53" si="31">C52-C50</f>
+        <v>438</v>
+      </c>
+      <c r="E52" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F52" s="9">
+        <f t="shared" ref="F52:F53" si="32">D52*E52</f>
+        <v>2062.98</v>
+      </c>
+      <c r="G52" s="12">
+        <f>SUM(F52,F53)</f>
+        <v>2774.43</v>
+      </c>
+      <c r="H52" s="12">
+        <v>2774.43</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="2">
+        <v>4370</v>
+      </c>
+      <c r="D53" s="2">
+        <f t="shared" si="31"/>
+        <v>279</v>
+      </c>
+      <c r="E53" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F53" s="15">
+        <f t="shared" si="32"/>
+        <v>711.44999999999993</v>
+      </c>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G54" s="12">
+        <f>SUM(G2:G51)</f>
+        <v>29912.61</v>
+      </c>
+      <c r="H54" s="12">
+        <f>SUM(H2:H51)</f>
+        <v>30030.989999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G55" s="11"/>
+      <c r="H55" s="12">
+        <f>SUM(H54,-G54)</f>
         <v>118.37999999999738</v>
       </c>
     </row>

--- a/sputnik/personal/ee/253ee.xlsx
+++ b/sputnik/personal/ee/253ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\31.10.2020.ОБНОВЛЕНИЕ САЙТА\новое ee 31.10.2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\31.10.2020.ОБНОВЛЕНИЕ САЙТА\новое ee 15.11.2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -585,10 +585,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="L58" sqref="L58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1938,19 +1938,223 @@
       <c r="H53" s="12"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
+        <v>44137</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="2">
+        <v>6813</v>
+      </c>
+      <c r="D54" s="2">
+        <f t="shared" ref="D54:D55" si="33">C54-C52</f>
+        <v>189</v>
+      </c>
+      <c r="E54" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F54" s="9">
+        <f t="shared" ref="F54:F55" si="34">D54*E54</f>
+        <v>890.18999999999994</v>
+      </c>
       <c r="G54" s="12">
-        <f>SUM(G2:G51)</f>
-        <v>29912.61</v>
+        <f>SUM(F54,F55)</f>
+        <v>1295.6399999999999</v>
       </c>
       <c r="H54" s="12">
-        <f>SUM(H2:H51)</f>
-        <v>30030.989999999998</v>
+        <v>1295.6400000000001</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G55" s="11"/>
-      <c r="H55" s="12">
-        <f>SUM(H54,-G54)</f>
+      <c r="A55" s="2"/>
+      <c r="B55" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="2">
+        <v>4529</v>
+      </c>
+      <c r="D55" s="2">
+        <f t="shared" si="33"/>
+        <v>159</v>
+      </c>
+      <c r="E55" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F55" s="15">
+        <f t="shared" si="34"/>
+        <v>405.45</v>
+      </c>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
+        <v>44144</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="2">
+        <v>7006</v>
+      </c>
+      <c r="D56" s="2">
+        <f t="shared" ref="D56:D57" si="35">C56-C54</f>
+        <v>193</v>
+      </c>
+      <c r="E56" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F56" s="9">
+        <f t="shared" ref="F56:F57" si="36">D56*E56</f>
+        <v>909.03</v>
+      </c>
+      <c r="G56" s="12">
+        <f>SUM(F56,F57)</f>
+        <v>1248.1799999999998</v>
+      </c>
+      <c r="H56" s="12">
+        <v>1248.18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="2">
+        <v>4662</v>
+      </c>
+      <c r="D57" s="2">
+        <f t="shared" si="35"/>
+        <v>133</v>
+      </c>
+      <c r="E57" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F57" s="15">
+        <f t="shared" si="36"/>
+        <v>339.15</v>
+      </c>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
+        <v>44158</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" s="2">
+        <v>7235</v>
+      </c>
+      <c r="D58" s="2">
+        <f t="shared" ref="D58:D59" si="37">C58-C56</f>
+        <v>229</v>
+      </c>
+      <c r="E58" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F58" s="9">
+        <f t="shared" ref="F58:F59" si="38">D58*E58</f>
+        <v>1078.5899999999999</v>
+      </c>
+      <c r="G58" s="12">
+        <f>SUM(F58,F59)</f>
+        <v>1812.9899999999998</v>
+      </c>
+      <c r="H58" s="12">
+        <v>1812.99</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" s="2">
+        <v>4950</v>
+      </c>
+      <c r="D59" s="2">
+        <f t="shared" si="37"/>
+        <v>288</v>
+      </c>
+      <c r="E59" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F59" s="15">
+        <f t="shared" si="38"/>
+        <v>734.4</v>
+      </c>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
+        <v>44165</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" s="2">
+        <v>7385</v>
+      </c>
+      <c r="D60" s="2">
+        <f t="shared" ref="D60:D61" si="39">C60-C58</f>
+        <v>150</v>
+      </c>
+      <c r="E60" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F60" s="9">
+        <f t="shared" ref="F60:F61" si="40">D60*E60</f>
+        <v>706.5</v>
+      </c>
+      <c r="G60" s="12">
+        <f>SUM(F60,F61)</f>
+        <v>1211.4000000000001</v>
+      </c>
+      <c r="H60" s="12">
+        <v>1211.4000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" s="2">
+        <v>5148</v>
+      </c>
+      <c r="D61" s="2">
+        <f t="shared" si="39"/>
+        <v>198</v>
+      </c>
+      <c r="E61" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F61" s="15">
+        <f t="shared" si="40"/>
+        <v>504.9</v>
+      </c>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G62" s="12">
+        <f>SUM(G2:G61)</f>
+        <v>38255.25</v>
+      </c>
+      <c r="H62" s="12">
+        <f>SUM(H2:H61)</f>
+        <v>38373.629999999997</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G63" s="11"/>
+      <c r="H63" s="12">
+        <f>SUM(H62,-G62)</f>
         <v>118.37999999999738</v>
       </c>
     </row>

--- a/sputnik/personal/ee/253ee.xlsx
+++ b/sputnik/personal/ee/253ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\31.10.2020.ОБНОВЛЕНИЕ САЙТА\новое ee 15.11.2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\31.12.2020.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 20.11.2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -180,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -208,7 +208,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -585,10 +584,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H63"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="L58" sqref="L58"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -645,8 +644,8 @@
       <c r="D2" s="2"/>
       <c r="E2" s="6"/>
       <c r="F2" s="9"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
@@ -659,8 +658,8 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
@@ -683,11 +682,11 @@
         <f t="shared" ref="F4:F5" si="1">D4*E4</f>
         <v>1863</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="11">
         <f>SUM(F4,F5)</f>
         <v>2497.5</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="11">
         <v>2497.5</v>
       </c>
     </row>
@@ -710,8 +709,8 @@
         <f t="shared" si="1"/>
         <v>634.5</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
@@ -734,11 +733,11 @@
         <f>D6*E6</f>
         <v>1690.9</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="13">
         <f>SUM(F6,F7)</f>
         <v>2283.62</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="13">
         <v>2402</v>
       </c>
     </row>
@@ -761,8 +760,8 @@
         <f>D7*E7</f>
         <v>592.72</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
@@ -785,11 +784,11 @@
         <f t="shared" ref="F8:F13" si="2">D8*E8</f>
         <v>1128.79</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="11">
         <f>SUM(F8,F9)</f>
         <v>1578.1100000000001</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="11">
         <v>1578.11</v>
       </c>
     </row>
@@ -812,8 +811,8 @@
         <f t="shared" si="2"/>
         <v>449.32000000000005</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
@@ -836,11 +835,11 @@
         <f t="shared" si="2"/>
         <v>1378.43</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="11">
         <f>SUM(F10,F11)</f>
         <v>1842.5600000000002</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="11">
         <v>1842.56</v>
       </c>
     </row>
@@ -863,8 +862,8 @@
         <f t="shared" si="2"/>
         <v>464.13000000000005</v>
       </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
@@ -887,11 +886,11 @@
         <f t="shared" si="2"/>
         <v>1683.75</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="11">
         <f>SUM(F12,F13)</f>
         <v>2281.5300000000002</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="11">
         <v>2281.5300000000002</v>
       </c>
     </row>
@@ -914,8 +913,8 @@
         <f t="shared" si="2"/>
         <v>597.78000000000009</v>
       </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
@@ -938,11 +937,11 @@
         <f t="shared" ref="F14:F19" si="4">D14*E14</f>
         <v>2024.99</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="11">
         <f>SUM(F14,F15)</f>
         <v>2812.31</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="11">
         <v>2812.31</v>
       </c>
     </row>
@@ -965,8 +964,8 @@
         <f t="shared" si="4"/>
         <v>787.32</v>
       </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
@@ -989,11 +988,11 @@
         <f t="shared" si="4"/>
         <v>624.11</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="11">
         <f>SUM(F16,F17)</f>
         <v>1022.6300000000001</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="11">
         <v>1022.63</v>
       </c>
     </row>
@@ -1016,8 +1015,8 @@
         <f t="shared" si="4"/>
         <v>398.52000000000004</v>
       </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
@@ -1040,11 +1039,11 @@
         <f t="shared" si="4"/>
         <v>40.410000000000004</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="11">
         <f>SUM(F18,F19)</f>
         <v>40.410000000000004</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H18" s="11">
         <v>40.409999999999997</v>
       </c>
     </row>
@@ -1067,8 +1066,8 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
@@ -1091,11 +1090,11 @@
         <f t="shared" ref="F20:F25" si="6">D20*E20</f>
         <v>350.22</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="11">
         <f>SUM(F20,F21)</f>
         <v>522.75</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20" s="11">
         <v>522.75</v>
       </c>
     </row>
@@ -1118,8 +1117,8 @@
         <f t="shared" si="6"/>
         <v>172.53</v>
       </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
@@ -1142,11 +1141,11 @@
         <f t="shared" si="6"/>
         <v>62.86</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="11">
         <f>SUM(F22,F23)</f>
         <v>62.86</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H22" s="11">
         <v>62.86</v>
       </c>
     </row>
@@ -1165,12 +1164,12 @@
       <c r="E23" s="2">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="12">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
@@ -1193,11 +1192,11 @@
         <f t="shared" si="6"/>
         <v>812.69</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="11">
         <f>SUM(F24,F25)</f>
         <v>1169.9000000000001</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H24" s="11">
         <v>1169.9000000000001</v>
       </c>
     </row>
@@ -1216,12 +1215,12 @@
       <c r="E25" s="2">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="12">
         <f t="shared" si="6"/>
         <v>357.21000000000004</v>
       </c>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
@@ -1244,11 +1243,11 @@
         <f t="shared" ref="F26:F27" si="9">D26*E26</f>
         <v>624.11</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="11">
         <f>SUM(F26,F27)</f>
         <v>1010.48</v>
       </c>
-      <c r="H26" s="12">
+      <c r="H26" s="11">
         <v>1010.48</v>
       </c>
     </row>
@@ -1267,12 +1266,12 @@
       <c r="E27" s="2">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F27" s="12">
         <f t="shared" si="9"/>
         <v>386.37</v>
       </c>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
@@ -1295,11 +1294,11 @@
         <f t="shared" ref="F28:F29" si="11">D28*E28</f>
         <v>1423.3300000000002</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G28" s="11">
         <f>SUM(F28,F29)</f>
         <v>1877.7400000000002</v>
       </c>
-      <c r="H28" s="12">
+      <c r="H28" s="11">
         <v>1877.74</v>
       </c>
     </row>
@@ -1318,12 +1317,12 @@
       <c r="E29" s="2">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F29" s="12">
         <f t="shared" si="11"/>
         <v>454.41</v>
       </c>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
@@ -1346,11 +1345,11 @@
         <f t="shared" ref="F30:F31" si="13">D30*E30</f>
         <v>839.63</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G30" s="11">
         <f>SUM(F30,F31)</f>
         <v>1179.83</v>
       </c>
-      <c r="H30" s="12">
+      <c r="H30" s="11">
         <v>1179.83</v>
       </c>
     </row>
@@ -1369,12 +1368,12 @@
       <c r="E31" s="2">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F31" s="12">
         <f t="shared" si="13"/>
         <v>340.20000000000005</v>
       </c>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
@@ -1397,11 +1396,11 @@
         <f t="shared" ref="F32:F33" si="15">D32*E32</f>
         <v>363.69</v>
       </c>
-      <c r="G32" s="12">
+      <c r="G32" s="11">
         <f>SUM(F32,F33)</f>
         <v>465.75</v>
       </c>
-      <c r="H32" s="12">
+      <c r="H32" s="11">
         <v>465.75</v>
       </c>
     </row>
@@ -1420,12 +1419,12 @@
       <c r="E33" s="2">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F33" s="12">
         <f t="shared" si="15"/>
         <v>102.06</v>
       </c>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
@@ -1448,11 +1447,11 @@
         <f t="shared" ref="F34:F35" si="17">D34*E34</f>
         <v>202.05</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="11">
         <f>SUM(F34,F35)</f>
         <v>248.22000000000003</v>
       </c>
-      <c r="H34" s="12">
+      <c r="H34" s="11">
         <v>248.22</v>
       </c>
     </row>
@@ -1471,12 +1470,12 @@
       <c r="E35" s="2">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F35" s="12">
         <f t="shared" si="17"/>
         <v>46.17</v>
       </c>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
@@ -1499,11 +1498,11 @@
         <f t="shared" ref="F36:F37" si="19">D36*E36</f>
         <v>626.42999999999995</v>
       </c>
-      <c r="G36" s="12">
+      <c r="G36" s="11">
         <f>SUM(F36,F37)</f>
         <v>746.28</v>
       </c>
-      <c r="H36" s="12">
+      <c r="H36" s="11">
         <v>746.28</v>
       </c>
     </row>
@@ -1522,12 +1521,12 @@
       <c r="E37" s="2">
         <v>2.5499999999999998</v>
       </c>
-      <c r="F37" s="13">
+      <c r="F37" s="12">
         <f t="shared" si="19"/>
         <v>119.85</v>
       </c>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
@@ -1550,11 +1549,11 @@
         <f t="shared" ref="F38:F39" si="21">D38*E38</f>
         <v>475.71</v>
       </c>
-      <c r="G38" s="12">
+      <c r="G38" s="11">
         <f>SUM(F38,F39)</f>
         <v>621.05999999999995</v>
       </c>
-      <c r="H38" s="12">
+      <c r="H38" s="11">
         <v>621.05999999999995</v>
       </c>
     </row>
@@ -1573,12 +1572,12 @@
       <c r="E39" s="2">
         <v>2.5499999999999998</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F39" s="12">
         <f t="shared" si="21"/>
         <v>145.35</v>
       </c>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
@@ -1601,11 +1600,11 @@
         <f t="shared" ref="F40:F41" si="23">D40*E40</f>
         <v>503.96999999999997</v>
       </c>
-      <c r="G40" s="12">
+      <c r="G40" s="11">
         <f>SUM(F40,F41)</f>
         <v>595.77</v>
       </c>
-      <c r="H40" s="12">
+      <c r="H40" s="11">
         <v>595.77</v>
       </c>
     </row>
@@ -1624,12 +1623,12 @@
       <c r="E41" s="2">
         <v>2.5499999999999998</v>
       </c>
-      <c r="F41" s="13">
+      <c r="F41" s="12">
         <f t="shared" si="23"/>
         <v>91.8</v>
       </c>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
@@ -1652,11 +1651,11 @@
         <f t="shared" ref="F42:F43" si="25">D42*E42</f>
         <v>503.96999999999997</v>
       </c>
-      <c r="G42" s="12">
+      <c r="G42" s="11">
         <f>SUM(F42,F43)</f>
         <v>590.66999999999996</v>
       </c>
-      <c r="H42" s="12">
+      <c r="H42" s="11">
         <v>590.66999999999996</v>
       </c>
     </row>
@@ -1675,12 +1674,12 @@
       <c r="E43" s="2">
         <v>2.5499999999999998</v>
       </c>
-      <c r="F43" s="13">
+      <c r="F43" s="12">
         <f t="shared" si="25"/>
         <v>86.699999999999989</v>
       </c>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
@@ -1703,11 +1702,11 @@
         <f t="shared" ref="F44:F45" si="27">D44*E44</f>
         <v>772.43999999999994</v>
       </c>
-      <c r="G44" s="12">
+      <c r="G44" s="11">
         <f>SUM(F44,F45)</f>
         <v>1050.3899999999999</v>
       </c>
-      <c r="H44" s="12">
+      <c r="H44" s="11">
         <v>1050.3900000000001</v>
       </c>
     </row>
@@ -1726,12 +1725,12 @@
       <c r="E45" s="2">
         <v>2.5499999999999998</v>
       </c>
-      <c r="F45" s="13">
+      <c r="F45" s="12">
         <f t="shared" si="27"/>
         <v>277.95</v>
       </c>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
@@ -1754,11 +1753,11 @@
         <f t="shared" ref="F46:F47" si="28">D46*E46</f>
         <v>998.52</v>
       </c>
-      <c r="G46" s="12">
+      <c r="G46" s="11">
         <f>SUM(F46,F47)</f>
         <v>1358.07</v>
       </c>
-      <c r="H46" s="12">
+      <c r="H46" s="11">
         <v>1358.07</v>
       </c>
     </row>
@@ -1777,12 +1776,12 @@
       <c r="E47" s="2">
         <v>2.5499999999999998</v>
       </c>
-      <c r="F47" s="13">
+      <c r="F47" s="12">
         <f t="shared" si="28"/>
         <v>359.54999999999995</v>
       </c>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
@@ -1805,11 +1804,11 @@
         <f t="shared" ref="F48:F49" si="29">D48*E48</f>
         <v>1380.03</v>
       </c>
-      <c r="G48" s="12">
+      <c r="G48" s="11">
         <f>SUM(F48,F49)</f>
         <v>1864.53</v>
       </c>
-      <c r="H48" s="12">
+      <c r="H48" s="11">
         <v>1864.53</v>
       </c>
     </row>
@@ -1828,12 +1827,12 @@
       <c r="E49" s="2">
         <v>2.5499999999999998</v>
       </c>
-      <c r="F49" s="13">
+      <c r="F49" s="12">
         <f t="shared" si="29"/>
         <v>484.49999999999994</v>
       </c>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
@@ -1856,11 +1855,11 @@
         <f t="shared" ref="F50:F51" si="30">D50*E50</f>
         <v>1549.59</v>
       </c>
-      <c r="G50" s="12">
+      <c r="G50" s="11">
         <f>SUM(F50,F51)</f>
         <v>2189.64</v>
       </c>
-      <c r="H50" s="12">
+      <c r="H50" s="11">
         <v>2189.64</v>
       </c>
     </row>
@@ -1879,12 +1878,12 @@
       <c r="E51" s="2">
         <v>2.5499999999999998</v>
       </c>
-      <c r="F51" s="15">
+      <c r="F51" s="14">
         <f t="shared" si="30"/>
         <v>640.04999999999995</v>
       </c>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
@@ -1907,11 +1906,11 @@
         <f t="shared" ref="F52:F53" si="32">D52*E52</f>
         <v>2062.98</v>
       </c>
-      <c r="G52" s="12">
+      <c r="G52" s="11">
         <f>SUM(F52,F53)</f>
         <v>2774.43</v>
       </c>
-      <c r="H52" s="12">
+      <c r="H52" s="11">
         <v>2774.43</v>
       </c>
     </row>
@@ -1930,12 +1929,12 @@
       <c r="E53" s="2">
         <v>2.5499999999999998</v>
       </c>
-      <c r="F53" s="15">
+      <c r="F53" s="14">
         <f t="shared" si="32"/>
         <v>711.44999999999993</v>
       </c>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
@@ -1958,11 +1957,11 @@
         <f t="shared" ref="F54:F55" si="34">D54*E54</f>
         <v>890.18999999999994</v>
       </c>
-      <c r="G54" s="12">
+      <c r="G54" s="11">
         <f>SUM(F54,F55)</f>
         <v>1295.6399999999999</v>
       </c>
-      <c r="H54" s="12">
+      <c r="H54" s="11">
         <v>1295.6400000000001</v>
       </c>
     </row>
@@ -1981,12 +1980,12 @@
       <c r="E55" s="2">
         <v>2.5499999999999998</v>
       </c>
-      <c r="F55" s="15">
+      <c r="F55" s="14">
         <f t="shared" si="34"/>
         <v>405.45</v>
       </c>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
@@ -2009,11 +2008,11 @@
         <f t="shared" ref="F56:F57" si="36">D56*E56</f>
         <v>909.03</v>
       </c>
-      <c r="G56" s="12">
+      <c r="G56" s="11">
         <f>SUM(F56,F57)</f>
         <v>1248.1799999999998</v>
       </c>
-      <c r="H56" s="12">
+      <c r="H56" s="11">
         <v>1248.18</v>
       </c>
     </row>
@@ -2032,12 +2031,12 @@
       <c r="E57" s="2">
         <v>2.5499999999999998</v>
       </c>
-      <c r="F57" s="15">
+      <c r="F57" s="14">
         <f t="shared" si="36"/>
         <v>339.15</v>
       </c>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
@@ -2060,11 +2059,11 @@
         <f t="shared" ref="F58:F59" si="38">D58*E58</f>
         <v>1078.5899999999999</v>
       </c>
-      <c r="G58" s="12">
+      <c r="G58" s="11">
         <f>SUM(F58,F59)</f>
         <v>1812.9899999999998</v>
       </c>
-      <c r="H58" s="12">
+      <c r="H58" s="11">
         <v>1812.99</v>
       </c>
     </row>
@@ -2083,12 +2082,12 @@
       <c r="E59" s="2">
         <v>2.5499999999999998</v>
       </c>
-      <c r="F59" s="15">
+      <c r="F59" s="14">
         <f t="shared" si="38"/>
         <v>734.4</v>
       </c>
-      <c r="G59" s="12"/>
-      <c r="H59" s="12"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
@@ -2111,11 +2110,11 @@
         <f t="shared" ref="F60:F61" si="40">D60*E60</f>
         <v>706.5</v>
       </c>
-      <c r="G60" s="12">
+      <c r="G60" s="11">
         <f>SUM(F60,F61)</f>
         <v>1211.4000000000001</v>
       </c>
-      <c r="H60" s="12">
+      <c r="H60" s="11">
         <v>1211.4000000000001</v>
       </c>
     </row>
@@ -2134,29 +2133,216 @@
       <c r="E61" s="2">
         <v>2.5499999999999998</v>
       </c>
-      <c r="F61" s="15">
+      <c r="F61" s="14">
         <f t="shared" si="40"/>
         <v>504.9</v>
       </c>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G62" s="12">
-        <f>SUM(G2:G61)</f>
-        <v>38255.25</v>
-      </c>
-      <c r="H62" s="12">
-        <f>SUM(H2:H61)</f>
-        <v>38373.629999999997</v>
+      <c r="A62" s="5">
+        <v>44172</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" s="2">
+        <v>7553</v>
+      </c>
+      <c r="D62" s="2">
+        <f t="shared" ref="D62:D63" si="41">C62-C60</f>
+        <v>168</v>
+      </c>
+      <c r="E62" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F62" s="9">
+        <f t="shared" ref="F62:F63" si="42">D62*E62</f>
+        <v>791.28</v>
+      </c>
+      <c r="G62" s="11">
+        <f>SUM(F62,F63)</f>
+        <v>1204.3799999999999</v>
+      </c>
+      <c r="H62" s="11">
+        <v>1204.3800000000001</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" s="2">
+        <v>5310</v>
+      </c>
+      <c r="D63" s="2">
+        <f t="shared" si="41"/>
+        <v>162</v>
+      </c>
+      <c r="E63" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F63" s="14">
+        <f t="shared" si="42"/>
+        <v>413.09999999999997</v>
+      </c>
       <c r="G63" s="11"/>
-      <c r="H63" s="12">
-        <f>SUM(H62,-G62)</f>
-        <v>118.37999999999738</v>
-      </c>
+      <c r="H63" s="11"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="5">
+        <v>44179</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" s="2">
+        <v>7710</v>
+      </c>
+      <c r="D64" s="2">
+        <f t="shared" ref="D64:D65" si="43">C64-C62</f>
+        <v>157</v>
+      </c>
+      <c r="E64" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F64" s="9">
+        <f t="shared" ref="F64:F65" si="44">D64*E64</f>
+        <v>739.47</v>
+      </c>
+      <c r="G64" s="11">
+        <f>SUM(F64,F65)</f>
+        <v>1180.6199999999999</v>
+      </c>
+      <c r="H64" s="11">
+        <v>1180.6199999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" s="2">
+        <v>5483</v>
+      </c>
+      <c r="D65" s="2">
+        <f t="shared" si="43"/>
+        <v>173</v>
+      </c>
+      <c r="E65" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F65" s="14">
+        <f t="shared" si="44"/>
+        <v>441.15</v>
+      </c>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="5">
+        <v>44186</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" s="2">
+        <v>7931</v>
+      </c>
+      <c r="D66" s="2">
+        <f t="shared" ref="D66:D67" si="45">C66-C64</f>
+        <v>221</v>
+      </c>
+      <c r="E66" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F66" s="9">
+        <f t="shared" ref="F66:F67" si="46">D66*E66</f>
+        <v>1040.9100000000001</v>
+      </c>
+      <c r="G66" s="11">
+        <f>SUM(F66,F67)</f>
+        <v>1525.41</v>
+      </c>
+      <c r="H66" s="11">
+        <v>1525.41</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" s="2">
+        <v>5673</v>
+      </c>
+      <c r="D67" s="2">
+        <f t="shared" si="45"/>
+        <v>190</v>
+      </c>
+      <c r="E67" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F67" s="14">
+        <f t="shared" si="46"/>
+        <v>484.49999999999994</v>
+      </c>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="5">
+        <v>44193</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" s="2">
+        <v>8162</v>
+      </c>
+      <c r="D68" s="2">
+        <f t="shared" ref="D68:D69" si="47">C68-C66</f>
+        <v>231</v>
+      </c>
+      <c r="E68" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F68" s="9">
+        <f t="shared" ref="F68:F69" si="48">D68*E68</f>
+        <v>1088.01</v>
+      </c>
+      <c r="G68" s="11">
+        <f>SUM(F68,F69)</f>
+        <v>1608.21</v>
+      </c>
+      <c r="H68" s="11">
+        <v>1608.21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" s="2">
+        <v>5877</v>
+      </c>
+      <c r="D69" s="2">
+        <f t="shared" si="47"/>
+        <v>204</v>
+      </c>
+      <c r="E69" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F69" s="14">
+        <f t="shared" si="48"/>
+        <v>520.19999999999993</v>
+      </c>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>

--- a/sputnik/personal/ee/253ee.xlsx
+++ b/sputnik/personal/ee/253ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\23.01.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 25.01.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\14.03.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.03.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -185,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -225,6 +225,13 @@
     <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -593,10 +600,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -640,135 +647,135 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
-        <v>44207</v>
+        <v>44305</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="2">
-        <v>8873</v>
+        <v>9124</v>
       </c>
       <c r="D2" s="2">
         <f>C2-C4</f>
-        <v>401</v>
+        <v>134</v>
       </c>
       <c r="E2" s="6">
         <v>4.71</v>
       </c>
       <c r="F2" s="8">
         <f t="shared" ref="F2:F3" si="0">D2*E2</f>
-        <v>1888.71</v>
+        <v>631.14</v>
       </c>
       <c r="G2" s="10">
         <f>SUM(F2,F3)</f>
-        <v>2419.11</v>
+        <v>886.14</v>
       </c>
       <c r="H2" s="10">
-        <v>2419.11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>886.14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2">
-        <v>6268</v>
+        <v>6368</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" ref="D3" si="1">C3-C5</f>
-        <v>208</v>
+        <v>100</v>
       </c>
       <c r="E3" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F3" s="12">
         <f t="shared" si="0"/>
-        <v>530.4</v>
+        <v>254.99999999999997</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
-        <v>44200</v>
+        <v>44270</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="2">
-        <v>8472</v>
+        <v>8990</v>
       </c>
       <c r="D4" s="2">
         <f>C4-C6</f>
-        <v>310</v>
+        <v>17</v>
       </c>
       <c r="E4" s="6">
         <v>4.71</v>
       </c>
       <c r="F4" s="8">
         <f t="shared" ref="F4:F5" si="2">D4*E4</f>
-        <v>1460.1</v>
+        <v>80.069999999999993</v>
       </c>
       <c r="G4" s="10">
         <f>SUM(F4,F5)</f>
-        <v>1926.75</v>
+        <v>80.069999999999993</v>
       </c>
       <c r="H4" s="10">
-        <v>1926.75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>83.47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="2">
-        <v>6060</v>
+        <v>6268</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" ref="D5:D25" si="3">C5-C7</f>
-        <v>183</v>
+        <f t="shared" ref="D5" si="3">C5-C7</f>
+        <v>0</v>
       </c>
       <c r="E5" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="12">
         <f t="shared" si="2"/>
-        <v>466.65</v>
+        <v>0</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
-        <v>44193</v>
+        <v>44256</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="2">
-        <v>8162</v>
+        <v>8973</v>
       </c>
       <c r="D6" s="2">
         <f>C6-C8</f>
-        <v>231</v>
+        <v>100</v>
       </c>
       <c r="E6" s="6">
         <v>4.71</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" ref="F6:F25" si="4">D6*E6</f>
-        <v>1088.01</v>
+        <f t="shared" ref="F6:F7" si="4">D6*E6</f>
+        <v>471</v>
       </c>
       <c r="G6" s="10">
         <f>SUM(F6,F7)</f>
-        <v>1608.21</v>
+        <v>471</v>
       </c>
       <c r="H6" s="10">
-        <v>1608.21</v>
+        <v>471</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -777,49 +784,49 @@
         <v>5</v>
       </c>
       <c r="C7" s="2">
-        <v>5877</v>
+        <v>6268</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="3"/>
-        <v>204</v>
+        <f t="shared" ref="D7" si="5">C7-C9</f>
+        <v>0</v>
       </c>
       <c r="E7" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="12">
         <f t="shared" si="4"/>
-        <v>520.19999999999993</v>
+        <v>0</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>44186</v>
+      <c r="A8" s="14">
+        <v>44207</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="2">
-        <v>7931</v>
+        <v>8873</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="3"/>
-        <v>221</v>
+        <f>C8-C10</f>
+        <v>401</v>
       </c>
       <c r="E8" s="6">
         <v>4.71</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" si="4"/>
-        <v>1040.9100000000001</v>
+        <f t="shared" ref="F8:F9" si="6">D8*E8</f>
+        <v>1888.71</v>
       </c>
       <c r="G8" s="10">
         <f>SUM(F8,F9)</f>
-        <v>1525.41</v>
+        <v>2419.11</v>
       </c>
       <c r="H8" s="10">
-        <v>1525.41</v>
+        <v>2419.11</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -828,49 +835,49 @@
         <v>5</v>
       </c>
       <c r="C9" s="2">
-        <v>5673</v>
+        <v>6268</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="3"/>
-        <v>190</v>
+        <f t="shared" ref="D9" si="7">C9-C11</f>
+        <v>208</v>
       </c>
       <c r="E9" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="12">
-        <f t="shared" si="4"/>
-        <v>484.49999999999994</v>
+        <f t="shared" si="6"/>
+        <v>530.4</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>44179</v>
+      <c r="A10" s="14">
+        <v>44200</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="2">
-        <v>7710</v>
+        <v>8472</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="3"/>
-        <v>157</v>
+        <f>C10-C12</f>
+        <v>310</v>
       </c>
       <c r="E10" s="6">
         <v>4.71</v>
       </c>
       <c r="F10" s="8">
-        <f t="shared" si="4"/>
-        <v>739.47</v>
+        <f t="shared" ref="F10:F11" si="8">D10*E10</f>
+        <v>1460.1</v>
       </c>
       <c r="G10" s="10">
         <f>SUM(F10,F11)</f>
-        <v>1180.6199999999999</v>
+        <v>1926.75</v>
       </c>
       <c r="H10" s="10">
-        <v>1180.6199999999999</v>
+        <v>1926.75</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -879,49 +886,49 @@
         <v>5</v>
       </c>
       <c r="C11" s="2">
-        <v>5483</v>
+        <v>6060</v>
       </c>
       <c r="D11" s="2">
-        <f>C11-C13</f>
-        <v>173</v>
+        <f t="shared" ref="D11:D31" si="9">C11-C13</f>
+        <v>183</v>
       </c>
       <c r="E11" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="12">
-        <f t="shared" si="4"/>
-        <v>441.15</v>
+        <f t="shared" si="8"/>
+        <v>466.65</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>44172</v>
+      <c r="A12" s="14">
+        <v>44193</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="2">
-        <v>7553</v>
+        <v>8162</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="3"/>
-        <v>168</v>
+        <f>C12-C14</f>
+        <v>231</v>
       </c>
       <c r="E12" s="6">
         <v>4.71</v>
       </c>
       <c r="F12" s="8">
-        <f t="shared" si="4"/>
-        <v>791.28</v>
+        <f t="shared" ref="F12:F31" si="10">D12*E12</f>
+        <v>1088.01</v>
       </c>
       <c r="G12" s="10">
         <f>SUM(F12,F13)</f>
-        <v>1204.3799999999999</v>
+        <v>1608.21</v>
       </c>
       <c r="H12" s="10">
-        <v>1204.3800000000001</v>
+        <v>1608.21</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -930,49 +937,49 @@
         <v>5</v>
       </c>
       <c r="C13" s="2">
-        <v>5310</v>
+        <v>5877</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="3"/>
-        <v>162</v>
+        <f t="shared" si="9"/>
+        <v>204</v>
       </c>
       <c r="E13" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="12">
-        <f t="shared" si="4"/>
-        <v>413.09999999999997</v>
+        <f t="shared" si="10"/>
+        <v>520.19999999999993</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
-        <v>44165</v>
+        <v>44186</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="2">
-        <v>7385</v>
+        <v>7931</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="3"/>
-        <v>150</v>
+        <f t="shared" si="9"/>
+        <v>221</v>
       </c>
       <c r="E14" s="6">
         <v>4.71</v>
       </c>
       <c r="F14" s="8">
-        <f t="shared" si="4"/>
-        <v>706.5</v>
+        <f t="shared" si="10"/>
+        <v>1040.9100000000001</v>
       </c>
       <c r="G14" s="10">
         <f>SUM(F14,F15)</f>
-        <v>1211.4000000000001</v>
+        <v>1525.41</v>
       </c>
       <c r="H14" s="10">
-        <v>1211.4000000000001</v>
+        <v>1525.41</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -981,49 +988,49 @@
         <v>5</v>
       </c>
       <c r="C15" s="2">
-        <v>5148</v>
+        <v>5673</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="3"/>
-        <v>198</v>
+        <f t="shared" si="9"/>
+        <v>190</v>
       </c>
       <c r="E15" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="12">
-        <f t="shared" si="4"/>
-        <v>504.9</v>
+        <f t="shared" si="10"/>
+        <v>484.49999999999994</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
-        <v>44158</v>
+        <v>44179</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="2">
-        <v>7235</v>
+        <v>7710</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="3"/>
-        <v>229</v>
+        <f t="shared" si="9"/>
+        <v>157</v>
       </c>
       <c r="E16" s="6">
         <v>4.71</v>
       </c>
       <c r="F16" s="8">
-        <f t="shared" si="4"/>
-        <v>1078.5899999999999</v>
+        <f t="shared" si="10"/>
+        <v>739.47</v>
       </c>
       <c r="G16" s="10">
         <f>SUM(F16,F17)</f>
-        <v>1812.9899999999998</v>
+        <v>1180.6199999999999</v>
       </c>
       <c r="H16" s="10">
-        <v>1812.99</v>
+        <v>1180.6199999999999</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1032,49 +1039,49 @@
         <v>5</v>
       </c>
       <c r="C17" s="2">
-        <v>4950</v>
+        <v>5483</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="3"/>
-        <v>288</v>
+        <f>C17-C19</f>
+        <v>173</v>
       </c>
       <c r="E17" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="12">
-        <f t="shared" si="4"/>
-        <v>734.4</v>
+        <f t="shared" si="10"/>
+        <v>441.15</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
-        <v>44144</v>
+        <v>44172</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="2">
-        <v>7006</v>
+        <v>7553</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="3"/>
-        <v>193</v>
+        <f t="shared" si="9"/>
+        <v>168</v>
       </c>
       <c r="E18" s="6">
         <v>4.71</v>
       </c>
       <c r="F18" s="8">
-        <f t="shared" si="4"/>
-        <v>909.03</v>
+        <f t="shared" si="10"/>
+        <v>791.28</v>
       </c>
       <c r="G18" s="10">
         <f>SUM(F18,F19)</f>
-        <v>1248.1799999999998</v>
+        <v>1204.3799999999999</v>
       </c>
       <c r="H18" s="10">
-        <v>1248.18</v>
+        <v>1204.3800000000001</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1083,49 +1090,49 @@
         <v>5</v>
       </c>
       <c r="C19" s="2">
-        <v>4662</v>
+        <v>5310</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="3"/>
-        <v>133</v>
+        <f t="shared" si="9"/>
+        <v>162</v>
       </c>
       <c r="E19" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F19" s="12">
-        <f t="shared" si="4"/>
-        <v>339.15</v>
+        <f t="shared" si="10"/>
+        <v>413.09999999999997</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
-        <v>44137</v>
+        <v>44165</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="2">
-        <v>6813</v>
+        <v>7385</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="3"/>
-        <v>189</v>
+        <f t="shared" si="9"/>
+        <v>150</v>
       </c>
       <c r="E20" s="6">
         <v>4.71</v>
       </c>
       <c r="F20" s="8">
-        <f t="shared" si="4"/>
-        <v>890.18999999999994</v>
+        <f t="shared" si="10"/>
+        <v>706.5</v>
       </c>
       <c r="G20" s="10">
         <f>SUM(F20,F21)</f>
-        <v>1295.6399999999999</v>
+        <v>1211.4000000000001</v>
       </c>
       <c r="H20" s="10">
-        <v>1295.6400000000001</v>
+        <v>1211.4000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1134,49 +1141,49 @@
         <v>5</v>
       </c>
       <c r="C21" s="2">
-        <v>4529</v>
+        <v>5148</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="3"/>
-        <v>159</v>
+        <f t="shared" si="9"/>
+        <v>198</v>
       </c>
       <c r="E21" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F21" s="12">
-        <f t="shared" si="4"/>
-        <v>405.45</v>
+        <f t="shared" si="10"/>
+        <v>504.9</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
-        <v>44126</v>
+        <v>44158</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="2">
-        <v>6624</v>
+        <v>7235</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="3"/>
-        <v>438</v>
+        <f t="shared" si="9"/>
+        <v>229</v>
       </c>
       <c r="E22" s="6">
         <v>4.71</v>
       </c>
       <c r="F22" s="8">
-        <f t="shared" si="4"/>
-        <v>2062.98</v>
+        <f t="shared" si="10"/>
+        <v>1078.5899999999999</v>
       </c>
       <c r="G22" s="10">
         <f>SUM(F22,F23)</f>
-        <v>2774.43</v>
+        <v>1812.9899999999998</v>
       </c>
       <c r="H22" s="10">
-        <v>2774.43</v>
+        <v>1812.99</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1185,49 +1192,49 @@
         <v>5</v>
       </c>
       <c r="C23" s="2">
-        <v>4370</v>
+        <v>4950</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" si="3"/>
-        <v>279</v>
+        <f t="shared" si="9"/>
+        <v>288</v>
       </c>
       <c r="E23" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F23" s="12">
-        <f t="shared" si="4"/>
-        <v>711.44999999999993</v>
+        <f t="shared" si="10"/>
+        <v>734.4</v>
       </c>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <v>44116</v>
+        <v>44144</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="2">
-        <v>6186</v>
+        <v>7006</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="3"/>
-        <v>329</v>
+        <f t="shared" si="9"/>
+        <v>193</v>
       </c>
       <c r="E24" s="6">
         <v>4.71</v>
       </c>
       <c r="F24" s="8">
-        <f t="shared" si="4"/>
-        <v>1549.59</v>
+        <f t="shared" si="10"/>
+        <v>909.03</v>
       </c>
       <c r="G24" s="10">
         <f>SUM(F24,F25)</f>
-        <v>2189.64</v>
+        <v>1248.1799999999998</v>
       </c>
       <c r="H24" s="10">
-        <v>2189.64</v>
+        <v>1248.18</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1236,37 +1243,50 @@
         <v>5</v>
       </c>
       <c r="C25" s="2">
-        <v>4091</v>
+        <v>4662</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="3"/>
-        <v>251</v>
+        <f t="shared" si="9"/>
+        <v>133</v>
       </c>
       <c r="E25" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F25" s="12">
-        <f t="shared" si="4"/>
-        <v>640.04999999999995</v>
+        <f t="shared" si="10"/>
+        <v>339.15</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <v>44102</v>
+        <v>44137</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C26" s="2">
-        <v>5857</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
+        <v>6813</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="9"/>
+        <v>189</v>
+      </c>
+      <c r="E26" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F26" s="8">
+        <f t="shared" si="10"/>
+        <v>890.18999999999994</v>
+      </c>
+      <c r="G26" s="10">
+        <f>SUM(F26,F27)</f>
+        <v>1295.6399999999999</v>
+      </c>
+      <c r="H26" s="10">
+        <v>1295.6400000000001</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
@@ -1274,13 +1294,170 @@
         <v>5</v>
       </c>
       <c r="C27" s="2">
-        <v>3840</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="11"/>
+        <v>4529</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="9"/>
+        <v>159</v>
+      </c>
+      <c r="E27" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F27" s="12">
+        <f t="shared" si="10"/>
+        <v>405.45</v>
+      </c>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>44126</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="2">
+        <v>6624</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" si="9"/>
+        <v>438</v>
+      </c>
+      <c r="E28" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F28" s="8">
+        <f t="shared" si="10"/>
+        <v>2062.98</v>
+      </c>
+      <c r="G28" s="10">
+        <f>SUM(F28,F29)</f>
+        <v>2774.43</v>
+      </c>
+      <c r="H28" s="10">
+        <v>2774.43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="2">
+        <v>4370</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="9"/>
+        <v>279</v>
+      </c>
+      <c r="E29" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F29" s="12">
+        <f t="shared" si="10"/>
+        <v>711.44999999999993</v>
+      </c>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>44116</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="2">
+        <v>6186</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" si="9"/>
+        <v>329</v>
+      </c>
+      <c r="E30" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F30" s="8">
+        <f t="shared" si="10"/>
+        <v>1549.59</v>
+      </c>
+      <c r="G30" s="10">
+        <f>SUM(F30,F31)</f>
+        <v>2189.64</v>
+      </c>
+      <c r="H30" s="10">
+        <v>2189.64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="2">
+        <v>4091</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" si="9"/>
+        <v>251</v>
+      </c>
+      <c r="E31" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F31" s="12">
+        <f t="shared" si="10"/>
+        <v>640.04999999999995</v>
+      </c>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>44102</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="2">
+        <v>5857</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="2">
+        <v>3840</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G34" s="10">
+        <f>SUM(G2:G33)</f>
+        <v>21833.97</v>
+      </c>
+      <c r="H34" s="10">
+        <f>SUM(H2:H33)</f>
+        <v>21837.37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G35" s="17"/>
+      <c r="H35" s="10">
+        <f>SUM(H34,-G34)</f>
+        <v>3.3999999999978172</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>

--- a/sputnik/personal/ee/253ee.xlsx
+++ b/sputnik/personal/ee/253ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\14.03.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.03.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\30.04.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.05.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -600,10 +600,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -649,31 +649,31 @@
     </row>
     <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
-        <v>44305</v>
+        <v>44322</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="2">
-        <v>9124</v>
+        <v>9351</v>
       </c>
       <c r="D2" s="2">
         <f>C2-C4</f>
-        <v>134</v>
+        <v>227</v>
       </c>
       <c r="E2" s="6">
         <v>4.71</v>
       </c>
       <c r="F2" s="8">
         <f t="shared" ref="F2:F3" si="0">D2*E2</f>
-        <v>631.14</v>
+        <v>1069.17</v>
       </c>
       <c r="G2" s="10">
         <f>SUM(F2,F3)</f>
-        <v>886.14</v>
+        <v>1405.77</v>
       </c>
       <c r="H2" s="10">
-        <v>886.14</v>
+        <v>1405.77</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -682,49 +682,49 @@
         <v>5</v>
       </c>
       <c r="C3" s="2">
-        <v>6368</v>
+        <v>6500</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" ref="D3" si="1">C3-C5</f>
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="E3" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F3" s="12">
         <f t="shared" si="0"/>
-        <v>254.99999999999997</v>
+        <v>336.59999999999997</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
-        <v>44270</v>
+        <v>44305</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="2">
-        <v>8990</v>
+        <v>9124</v>
       </c>
       <c r="D4" s="2">
         <f>C4-C6</f>
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="E4" s="6">
         <v>4.71</v>
       </c>
       <c r="F4" s="8">
         <f t="shared" ref="F4:F5" si="2">D4*E4</f>
-        <v>80.069999999999993</v>
+        <v>631.14</v>
       </c>
       <c r="G4" s="10">
         <f>SUM(F4,F5)</f>
-        <v>80.069999999999993</v>
+        <v>886.14</v>
       </c>
       <c r="H4" s="10">
-        <v>83.47</v>
+        <v>886.14</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -733,49 +733,49 @@
         <v>5</v>
       </c>
       <c r="C5" s="2">
-        <v>6268</v>
+        <v>6368</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" ref="D5" si="3">C5-C7</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E5" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>254.99999999999997</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
-        <v>44256</v>
+        <v>44270</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="2">
-        <v>8973</v>
+        <v>8990</v>
       </c>
       <c r="D6" s="2">
         <f>C6-C8</f>
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="E6" s="6">
         <v>4.71</v>
       </c>
       <c r="F6" s="8">
         <f t="shared" ref="F6:F7" si="4">D6*E6</f>
-        <v>471</v>
+        <v>80.069999999999993</v>
       </c>
       <c r="G6" s="10">
         <f>SUM(F6,F7)</f>
-        <v>471</v>
+        <v>80.069999999999993</v>
       </c>
       <c r="H6" s="10">
-        <v>471</v>
+        <v>83.47</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -802,31 +802,31 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
-        <v>44207</v>
+        <v>44256</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="2">
-        <v>8873</v>
+        <v>8973</v>
       </c>
       <c r="D8" s="2">
         <f>C8-C10</f>
-        <v>401</v>
+        <v>100</v>
       </c>
       <c r="E8" s="6">
         <v>4.71</v>
       </c>
       <c r="F8" s="8">
         <f t="shared" ref="F8:F9" si="6">D8*E8</f>
-        <v>1888.71</v>
+        <v>471</v>
       </c>
       <c r="G8" s="10">
         <f>SUM(F8,F9)</f>
-        <v>2419.11</v>
+        <v>471</v>
       </c>
       <c r="H8" s="10">
-        <v>2419.11</v>
+        <v>471</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -839,45 +839,45 @@
       </c>
       <c r="D9" s="2">
         <f t="shared" ref="D9" si="7">C9-C11</f>
-        <v>208</v>
+        <v>0</v>
       </c>
       <c r="E9" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="12">
         <f t="shared" si="6"/>
-        <v>530.4</v>
+        <v>0</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
-        <v>44200</v>
+        <v>44207</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="2">
-        <v>8472</v>
+        <v>8873</v>
       </c>
       <c r="D10" s="2">
         <f>C10-C12</f>
-        <v>310</v>
+        <v>401</v>
       </c>
       <c r="E10" s="6">
         <v>4.71</v>
       </c>
       <c r="F10" s="8">
         <f t="shared" ref="F10:F11" si="8">D10*E10</f>
-        <v>1460.1</v>
+        <v>1888.71</v>
       </c>
       <c r="G10" s="10">
         <f>SUM(F10,F11)</f>
-        <v>1926.75</v>
+        <v>2419.11</v>
       </c>
       <c r="H10" s="10">
-        <v>1926.75</v>
+        <v>2419.11</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -886,49 +886,49 @@
         <v>5</v>
       </c>
       <c r="C11" s="2">
-        <v>6060</v>
+        <v>6268</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" ref="D11:D31" si="9">C11-C13</f>
-        <v>183</v>
+        <f t="shared" ref="D11" si="9">C11-C13</f>
+        <v>208</v>
       </c>
       <c r="E11" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="12">
         <f t="shared" si="8"/>
-        <v>466.65</v>
+        <v>530.4</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
-        <v>44193</v>
+        <v>44200</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="2">
-        <v>8162</v>
+        <v>8472</v>
       </c>
       <c r="D12" s="2">
         <f>C12-C14</f>
-        <v>231</v>
+        <v>310</v>
       </c>
       <c r="E12" s="6">
         <v>4.71</v>
       </c>
       <c r="F12" s="8">
-        <f t="shared" ref="F12:F31" si="10">D12*E12</f>
-        <v>1088.01</v>
+        <f t="shared" ref="F12:F13" si="10">D12*E12</f>
+        <v>1460.1</v>
       </c>
       <c r="G12" s="10">
         <f>SUM(F12,F13)</f>
-        <v>1608.21</v>
+        <v>1926.75</v>
       </c>
       <c r="H12" s="10">
-        <v>1608.21</v>
+        <v>1926.75</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -937,49 +937,49 @@
         <v>5</v>
       </c>
       <c r="C13" s="2">
-        <v>5877</v>
+        <v>6060</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="9"/>
-        <v>204</v>
+        <f t="shared" ref="D13:D33" si="11">C13-C15</f>
+        <v>183</v>
       </c>
       <c r="E13" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="12">
         <f t="shared" si="10"/>
-        <v>520.19999999999993</v>
+        <v>466.65</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>44186</v>
+      <c r="A14" s="14">
+        <v>44193</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="2">
-        <v>7931</v>
+        <v>8162</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="9"/>
-        <v>221</v>
+        <f>C14-C16</f>
+        <v>231</v>
       </c>
       <c r="E14" s="6">
         <v>4.71</v>
       </c>
       <c r="F14" s="8">
-        <f t="shared" si="10"/>
-        <v>1040.9100000000001</v>
+        <f t="shared" ref="F14:F33" si="12">D14*E14</f>
+        <v>1088.01</v>
       </c>
       <c r="G14" s="10">
         <f>SUM(F14,F15)</f>
-        <v>1525.41</v>
+        <v>1608.21</v>
       </c>
       <c r="H14" s="10">
-        <v>1525.41</v>
+        <v>1608.21</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -988,49 +988,49 @@
         <v>5</v>
       </c>
       <c r="C15" s="2">
-        <v>5673</v>
+        <v>5877</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="9"/>
-        <v>190</v>
+        <f t="shared" si="11"/>
+        <v>204</v>
       </c>
       <c r="E15" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="12">
-        <f t="shared" si="10"/>
-        <v>484.49999999999994</v>
+        <f t="shared" si="12"/>
+        <v>520.19999999999993</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
-        <v>44179</v>
+        <v>44186</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="2">
-        <v>7710</v>
+        <v>7931</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="9"/>
-        <v>157</v>
+        <f t="shared" si="11"/>
+        <v>221</v>
       </c>
       <c r="E16" s="6">
         <v>4.71</v>
       </c>
       <c r="F16" s="8">
-        <f t="shared" si="10"/>
-        <v>739.47</v>
+        <f t="shared" si="12"/>
+        <v>1040.9100000000001</v>
       </c>
       <c r="G16" s="10">
         <f>SUM(F16,F17)</f>
-        <v>1180.6199999999999</v>
+        <v>1525.41</v>
       </c>
       <c r="H16" s="10">
-        <v>1180.6199999999999</v>
+        <v>1525.41</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1039,49 +1039,49 @@
         <v>5</v>
       </c>
       <c r="C17" s="2">
-        <v>5483</v>
+        <v>5673</v>
       </c>
       <c r="D17" s="2">
-        <f>C17-C19</f>
-        <v>173</v>
+        <f t="shared" si="11"/>
+        <v>190</v>
       </c>
       <c r="E17" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="12">
-        <f t="shared" si="10"/>
-        <v>441.15</v>
+        <f t="shared" si="12"/>
+        <v>484.49999999999994</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
-        <v>44172</v>
+        <v>44179</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="2">
-        <v>7553</v>
+        <v>7710</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="9"/>
-        <v>168</v>
+        <f t="shared" si="11"/>
+        <v>157</v>
       </c>
       <c r="E18" s="6">
         <v>4.71</v>
       </c>
       <c r="F18" s="8">
-        <f t="shared" si="10"/>
-        <v>791.28</v>
+        <f t="shared" si="12"/>
+        <v>739.47</v>
       </c>
       <c r="G18" s="10">
         <f>SUM(F18,F19)</f>
-        <v>1204.3799999999999</v>
+        <v>1180.6199999999999</v>
       </c>
       <c r="H18" s="10">
-        <v>1204.3800000000001</v>
+        <v>1180.6199999999999</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1090,49 +1090,49 @@
         <v>5</v>
       </c>
       <c r="C19" s="2">
-        <v>5310</v>
+        <v>5483</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="9"/>
-        <v>162</v>
+        <f>C19-C21</f>
+        <v>173</v>
       </c>
       <c r="E19" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F19" s="12">
-        <f t="shared" si="10"/>
-        <v>413.09999999999997</v>
+        <f t="shared" si="12"/>
+        <v>441.15</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
-        <v>44165</v>
+        <v>44172</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="2">
-        <v>7385</v>
+        <v>7553</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="9"/>
-        <v>150</v>
+        <f t="shared" si="11"/>
+        <v>168</v>
       </c>
       <c r="E20" s="6">
         <v>4.71</v>
       </c>
       <c r="F20" s="8">
-        <f t="shared" si="10"/>
-        <v>706.5</v>
+        <f t="shared" si="12"/>
+        <v>791.28</v>
       </c>
       <c r="G20" s="10">
         <f>SUM(F20,F21)</f>
-        <v>1211.4000000000001</v>
+        <v>1204.3799999999999</v>
       </c>
       <c r="H20" s="10">
-        <v>1211.4000000000001</v>
+        <v>1204.3800000000001</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1141,49 +1141,49 @@
         <v>5</v>
       </c>
       <c r="C21" s="2">
-        <v>5148</v>
+        <v>5310</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="9"/>
-        <v>198</v>
+        <f t="shared" si="11"/>
+        <v>162</v>
       </c>
       <c r="E21" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F21" s="12">
-        <f t="shared" si="10"/>
-        <v>504.9</v>
+        <f t="shared" si="12"/>
+        <v>413.09999999999997</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
-        <v>44158</v>
+        <v>44165</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="2">
-        <v>7235</v>
+        <v>7385</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="9"/>
-        <v>229</v>
+        <f t="shared" si="11"/>
+        <v>150</v>
       </c>
       <c r="E22" s="6">
         <v>4.71</v>
       </c>
       <c r="F22" s="8">
-        <f t="shared" si="10"/>
-        <v>1078.5899999999999</v>
+        <f t="shared" si="12"/>
+        <v>706.5</v>
       </c>
       <c r="G22" s="10">
         <f>SUM(F22,F23)</f>
-        <v>1812.9899999999998</v>
+        <v>1211.4000000000001</v>
       </c>
       <c r="H22" s="10">
-        <v>1812.99</v>
+        <v>1211.4000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1192,49 +1192,49 @@
         <v>5</v>
       </c>
       <c r="C23" s="2">
-        <v>4950</v>
+        <v>5148</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" si="9"/>
-        <v>288</v>
+        <f t="shared" si="11"/>
+        <v>198</v>
       </c>
       <c r="E23" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F23" s="12">
-        <f t="shared" si="10"/>
-        <v>734.4</v>
+        <f t="shared" si="12"/>
+        <v>504.9</v>
       </c>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <v>44144</v>
+        <v>44158</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="2">
-        <v>7006</v>
+        <v>7235</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="9"/>
-        <v>193</v>
+        <f t="shared" si="11"/>
+        <v>229</v>
       </c>
       <c r="E24" s="6">
         <v>4.71</v>
       </c>
       <c r="F24" s="8">
-        <f t="shared" si="10"/>
-        <v>909.03</v>
+        <f t="shared" si="12"/>
+        <v>1078.5899999999999</v>
       </c>
       <c r="G24" s="10">
         <f>SUM(F24,F25)</f>
-        <v>1248.1799999999998</v>
+        <v>1812.9899999999998</v>
       </c>
       <c r="H24" s="10">
-        <v>1248.18</v>
+        <v>1812.99</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1243,49 +1243,49 @@
         <v>5</v>
       </c>
       <c r="C25" s="2">
-        <v>4662</v>
+        <v>4950</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="9"/>
-        <v>133</v>
+        <f t="shared" si="11"/>
+        <v>288</v>
       </c>
       <c r="E25" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F25" s="12">
-        <f t="shared" si="10"/>
-        <v>339.15</v>
+        <f t="shared" si="12"/>
+        <v>734.4</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <v>44137</v>
+        <v>44144</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C26" s="2">
-        <v>6813</v>
+        <v>7006</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" si="9"/>
-        <v>189</v>
+        <f t="shared" si="11"/>
+        <v>193</v>
       </c>
       <c r="E26" s="6">
         <v>4.71</v>
       </c>
       <c r="F26" s="8">
-        <f t="shared" si="10"/>
-        <v>890.18999999999994</v>
+        <f t="shared" si="12"/>
+        <v>909.03</v>
       </c>
       <c r="G26" s="10">
         <f>SUM(F26,F27)</f>
-        <v>1295.6399999999999</v>
+        <v>1248.1799999999998</v>
       </c>
       <c r="H26" s="10">
-        <v>1295.6400000000001</v>
+        <v>1248.18</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1294,49 +1294,49 @@
         <v>5</v>
       </c>
       <c r="C27" s="2">
-        <v>4529</v>
+        <v>4662</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" si="9"/>
-        <v>159</v>
+        <f t="shared" si="11"/>
+        <v>133</v>
       </c>
       <c r="E27" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F27" s="12">
-        <f t="shared" si="10"/>
-        <v>405.45</v>
+        <f t="shared" si="12"/>
+        <v>339.15</v>
       </c>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
-        <v>44126</v>
+        <v>44137</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C28" s="2">
-        <v>6624</v>
+        <v>6813</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" si="9"/>
-        <v>438</v>
+        <f t="shared" si="11"/>
+        <v>189</v>
       </c>
       <c r="E28" s="6">
         <v>4.71</v>
       </c>
       <c r="F28" s="8">
-        <f t="shared" si="10"/>
-        <v>2062.98</v>
+        <f t="shared" si="12"/>
+        <v>890.18999999999994</v>
       </c>
       <c r="G28" s="10">
         <f>SUM(F28,F29)</f>
-        <v>2774.43</v>
+        <v>1295.6399999999999</v>
       </c>
       <c r="H28" s="10">
-        <v>2774.43</v>
+        <v>1295.6400000000001</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1345,49 +1345,49 @@
         <v>5</v>
       </c>
       <c r="C29" s="2">
-        <v>4370</v>
+        <v>4529</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" si="9"/>
-        <v>279</v>
+        <f t="shared" si="11"/>
+        <v>159</v>
       </c>
       <c r="E29" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F29" s="12">
-        <f t="shared" si="10"/>
-        <v>711.44999999999993</v>
+        <f t="shared" si="12"/>
+        <v>405.45</v>
       </c>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
-        <v>44116</v>
+        <v>44126</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C30" s="2">
-        <v>6186</v>
+        <v>6624</v>
       </c>
       <c r="D30" s="2">
-        <f t="shared" si="9"/>
-        <v>329</v>
+        <f t="shared" si="11"/>
+        <v>438</v>
       </c>
       <c r="E30" s="6">
         <v>4.71</v>
       </c>
       <c r="F30" s="8">
-        <f t="shared" si="10"/>
-        <v>1549.59</v>
+        <f t="shared" si="12"/>
+        <v>2062.98</v>
       </c>
       <c r="G30" s="10">
         <f>SUM(F30,F31)</f>
-        <v>2189.64</v>
+        <v>2774.43</v>
       </c>
       <c r="H30" s="10">
-        <v>2189.64</v>
+        <v>2774.43</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1396,37 +1396,50 @@
         <v>5</v>
       </c>
       <c r="C31" s="2">
-        <v>4091</v>
+        <v>4370</v>
       </c>
       <c r="D31" s="2">
-        <f t="shared" si="9"/>
-        <v>251</v>
+        <f t="shared" si="11"/>
+        <v>279</v>
       </c>
       <c r="E31" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F31" s="12">
-        <f t="shared" si="10"/>
-        <v>640.04999999999995</v>
+        <f t="shared" si="12"/>
+        <v>711.44999999999993</v>
       </c>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
-        <v>44102</v>
+        <v>44116</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C32" s="2">
-        <v>5857</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
+        <v>6186</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" si="11"/>
+        <v>329</v>
+      </c>
+      <c r="E32" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F32" s="8">
+        <f t="shared" si="12"/>
+        <v>1549.59</v>
+      </c>
+      <c r="G32" s="10">
+        <f>SUM(F32,F33)</f>
+        <v>2189.64</v>
+      </c>
+      <c r="H32" s="10">
+        <v>2189.64</v>
+      </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
@@ -1434,28 +1447,66 @@
         <v>5</v>
       </c>
       <c r="C33" s="2">
-        <v>3840</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="16"/>
+        <v>4091</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" si="11"/>
+        <v>251</v>
+      </c>
+      <c r="E33" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F33" s="12">
+        <f t="shared" si="12"/>
+        <v>640.04999999999995</v>
+      </c>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G34" s="10">
-        <f>SUM(G2:G33)</f>
+      <c r="A34" s="5">
+        <v>44102</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="2">
+        <v>5857</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="2">
+        <v>3840</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G36" s="10">
+        <f>SUM(G4:G35)</f>
         <v>21833.97</v>
       </c>
-      <c r="H34" s="10">
-        <f>SUM(H2:H33)</f>
+      <c r="H36" s="10">
+        <f>SUM(H4:H35)</f>
         <v>21837.37</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G35" s="17"/>
-      <c r="H35" s="10">
-        <f>SUM(H34,-G34)</f>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G37" s="17"/>
+      <c r="H37" s="10">
+        <f>SUM(H36,-G36)</f>
         <v>3.3999999999978172</v>
       </c>
     </row>

--- a/sputnik/personal/ee/253ee.xlsx
+++ b/sputnik/personal/ee/253ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\30.04.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.05.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\14.06.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.06.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -185,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -232,6 +232,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -600,10 +603,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -649,31 +652,31 @@
     </row>
     <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
-        <v>44322</v>
+        <v>44356</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="2">
-        <v>9351</v>
+        <v>9986</v>
       </c>
       <c r="D2" s="2">
         <f>C2-C4</f>
-        <v>227</v>
+        <v>70</v>
       </c>
       <c r="E2" s="6">
         <v>4.71</v>
       </c>
       <c r="F2" s="8">
         <f t="shared" ref="F2:F3" si="0">D2*E2</f>
-        <v>1069.17</v>
+        <v>329.7</v>
       </c>
       <c r="G2" s="10">
         <f>SUM(F2,F3)</f>
-        <v>1405.77</v>
+        <v>485.25</v>
       </c>
       <c r="H2" s="10">
-        <v>1405.77</v>
+        <v>485.25</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -682,100 +685,100 @@
         <v>5</v>
       </c>
       <c r="C3" s="2">
-        <v>6500</v>
+        <v>6980</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" ref="D3" si="1">C3-C5</f>
-        <v>132</v>
+        <v>61</v>
       </c>
       <c r="E3" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F3" s="12">
         <f t="shared" si="0"/>
-        <v>336.59999999999997</v>
+        <v>155.54999999999998</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
-        <v>44305</v>
+        <v>44350</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="2">
-        <v>9124</v>
+        <v>9916</v>
       </c>
       <c r="D4" s="2">
         <f>C4-C6</f>
-        <v>134</v>
+        <v>192</v>
       </c>
       <c r="E4" s="6">
         <v>4.71</v>
       </c>
       <c r="F4" s="8">
         <f t="shared" ref="F4:F5" si="2">D4*E4</f>
-        <v>631.14</v>
+        <v>904.31999999999994</v>
       </c>
       <c r="G4" s="10">
         <f>SUM(F4,F5)</f>
-        <v>886.14</v>
+        <v>1268.9699999999998</v>
       </c>
       <c r="H4" s="10">
-        <v>886.14</v>
+        <v>1266.42</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="2">
-        <v>6368</v>
+        <v>6919</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" ref="D5" si="3">C5-C7</f>
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="E5" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="12">
         <f t="shared" si="2"/>
-        <v>254.99999999999997</v>
+        <v>364.65</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
-        <v>44270</v>
+        <v>44344</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="2">
-        <v>8990</v>
+        <v>9724</v>
       </c>
       <c r="D6" s="2">
         <f>C6-C8</f>
-        <v>17</v>
+        <v>145</v>
       </c>
       <c r="E6" s="6">
         <v>4.71</v>
       </c>
       <c r="F6" s="8">
         <f t="shared" ref="F6:F7" si="4">D6*E6</f>
-        <v>80.069999999999993</v>
+        <v>682.95</v>
       </c>
       <c r="G6" s="10">
         <f>SUM(F6,F7)</f>
-        <v>80.069999999999993</v>
+        <v>966</v>
       </c>
       <c r="H6" s="10">
-        <v>83.47</v>
+        <v>966</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -784,49 +787,49 @@
         <v>5</v>
       </c>
       <c r="C7" s="2">
-        <v>6268</v>
+        <v>6776</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" ref="D7" si="5">C7-C9</f>
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="E7" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>283.04999999999995</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
-        <v>44256</v>
+        <v>44333</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="2">
-        <v>8973</v>
+        <v>9579</v>
       </c>
       <c r="D8" s="2">
         <f>C8-C10</f>
-        <v>100</v>
+        <v>228</v>
       </c>
       <c r="E8" s="6">
         <v>4.71</v>
       </c>
       <c r="F8" s="8">
         <f t="shared" ref="F8:F9" si="6">D8*E8</f>
-        <v>471</v>
+        <v>1073.8799999999999</v>
       </c>
       <c r="G8" s="10">
         <f>SUM(F8,F9)</f>
-        <v>471</v>
+        <v>1494.6299999999999</v>
       </c>
       <c r="H8" s="10">
-        <v>471</v>
+        <v>1494.63</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -835,49 +838,49 @@
         <v>5</v>
       </c>
       <c r="C9" s="2">
-        <v>6268</v>
+        <v>6665</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" ref="D9" si="7">C9-C11</f>
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="E9" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="12">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>420.74999999999994</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
-        <v>44207</v>
+        <v>44322</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="2">
-        <v>8873</v>
+        <v>9351</v>
       </c>
       <c r="D10" s="2">
         <f>C10-C12</f>
-        <v>401</v>
+        <v>227</v>
       </c>
       <c r="E10" s="6">
         <v>4.71</v>
       </c>
       <c r="F10" s="8">
         <f t="shared" ref="F10:F11" si="8">D10*E10</f>
-        <v>1888.71</v>
+        <v>1069.17</v>
       </c>
       <c r="G10" s="10">
         <f>SUM(F10,F11)</f>
-        <v>2419.11</v>
+        <v>1405.77</v>
       </c>
       <c r="H10" s="10">
-        <v>2419.11</v>
+        <v>1405.77</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -886,49 +889,49 @@
         <v>5</v>
       </c>
       <c r="C11" s="2">
-        <v>6268</v>
+        <v>6500</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" ref="D11" si="9">C11-C13</f>
-        <v>208</v>
+        <v>132</v>
       </c>
       <c r="E11" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="12">
         <f t="shared" si="8"/>
-        <v>530.4</v>
+        <v>336.59999999999997</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
-        <v>44200</v>
+        <v>44305</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="2">
-        <v>8472</v>
+        <v>9124</v>
       </c>
       <c r="D12" s="2">
         <f>C12-C14</f>
-        <v>310</v>
+        <v>134</v>
       </c>
       <c r="E12" s="6">
         <v>4.71</v>
       </c>
       <c r="F12" s="8">
         <f t="shared" ref="F12:F13" si="10">D12*E12</f>
-        <v>1460.1</v>
+        <v>631.14</v>
       </c>
       <c r="G12" s="10">
         <f>SUM(F12,F13)</f>
-        <v>1926.75</v>
+        <v>886.14</v>
       </c>
       <c r="H12" s="10">
-        <v>1926.75</v>
+        <v>886.14</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -937,49 +940,49 @@
         <v>5</v>
       </c>
       <c r="C13" s="2">
-        <v>6060</v>
+        <v>6368</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" ref="D13:D33" si="11">C13-C15</f>
-        <v>183</v>
+        <f t="shared" ref="D13" si="11">C13-C15</f>
+        <v>100</v>
       </c>
       <c r="E13" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="12">
         <f t="shared" si="10"/>
-        <v>466.65</v>
+        <v>254.99999999999997</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
-        <v>44193</v>
+        <v>44270</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="2">
-        <v>8162</v>
+        <v>8990</v>
       </c>
       <c r="D14" s="2">
         <f>C14-C16</f>
-        <v>231</v>
+        <v>17</v>
       </c>
       <c r="E14" s="6">
         <v>4.71</v>
       </c>
       <c r="F14" s="8">
-        <f t="shared" ref="F14:F33" si="12">D14*E14</f>
-        <v>1088.01</v>
+        <f t="shared" ref="F14:F15" si="12">D14*E14</f>
+        <v>80.069999999999993</v>
       </c>
       <c r="G14" s="10">
         <f>SUM(F14,F15)</f>
-        <v>1608.21</v>
+        <v>80.069999999999993</v>
       </c>
       <c r="H14" s="10">
-        <v>1608.21</v>
+        <v>83.47</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -988,49 +991,49 @@
         <v>5</v>
       </c>
       <c r="C15" s="2">
-        <v>5877</v>
+        <v>6268</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="11"/>
-        <v>204</v>
+        <f t="shared" ref="D15" si="13">C15-C17</f>
+        <v>0</v>
       </c>
       <c r="E15" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="12">
         <f t="shared" si="12"/>
-        <v>520.19999999999993</v>
+        <v>0</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>44186</v>
+      <c r="A16" s="14">
+        <v>44256</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="2">
-        <v>7931</v>
+        <v>8973</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="11"/>
-        <v>221</v>
+        <f>C16-C18</f>
+        <v>100</v>
       </c>
       <c r="E16" s="6">
         <v>4.71</v>
       </c>
       <c r="F16" s="8">
-        <f t="shared" si="12"/>
-        <v>1040.9100000000001</v>
+        <f t="shared" ref="F16:F17" si="14">D16*E16</f>
+        <v>471</v>
       </c>
       <c r="G16" s="10">
         <f>SUM(F16,F17)</f>
-        <v>1525.41</v>
+        <v>471</v>
       </c>
       <c r="H16" s="10">
-        <v>1525.41</v>
+        <v>471</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1039,49 +1042,49 @@
         <v>5</v>
       </c>
       <c r="C17" s="2">
-        <v>5673</v>
+        <v>6268</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="11"/>
-        <v>190</v>
+        <f t="shared" ref="D17" si="15">C17-C19</f>
+        <v>0</v>
       </c>
       <c r="E17" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="12">
-        <f t="shared" si="12"/>
-        <v>484.49999999999994</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>44179</v>
+      <c r="A18" s="14">
+        <v>44207</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="2">
-        <v>7710</v>
+        <v>8873</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="11"/>
-        <v>157</v>
+        <f>C18-C20</f>
+        <v>401</v>
       </c>
       <c r="E18" s="6">
         <v>4.71</v>
       </c>
       <c r="F18" s="8">
-        <f t="shared" si="12"/>
-        <v>739.47</v>
+        <f t="shared" ref="F18:F19" si="16">D18*E18</f>
+        <v>1888.71</v>
       </c>
       <c r="G18" s="10">
         <f>SUM(F18,F19)</f>
-        <v>1180.6199999999999</v>
+        <v>2419.11</v>
       </c>
       <c r="H18" s="10">
-        <v>1180.6199999999999</v>
+        <v>2419.11</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1090,49 +1093,49 @@
         <v>5</v>
       </c>
       <c r="C19" s="2">
-        <v>5483</v>
+        <v>6268</v>
       </c>
       <c r="D19" s="2">
-        <f>C19-C21</f>
-        <v>173</v>
+        <f t="shared" ref="D19" si="17">C19-C21</f>
+        <v>208</v>
       </c>
       <c r="E19" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F19" s="12">
-        <f t="shared" si="12"/>
-        <v>441.15</v>
+        <f t="shared" si="16"/>
+        <v>530.4</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>44172</v>
+      <c r="A20" s="14">
+        <v>44200</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="2">
-        <v>7553</v>
+        <v>8472</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="11"/>
-        <v>168</v>
+        <f>C20-C22</f>
+        <v>310</v>
       </c>
       <c r="E20" s="6">
         <v>4.71</v>
       </c>
       <c r="F20" s="8">
-        <f t="shared" si="12"/>
-        <v>791.28</v>
+        <f t="shared" ref="F20:F21" si="18">D20*E20</f>
+        <v>1460.1</v>
       </c>
       <c r="G20" s="10">
         <f>SUM(F20,F21)</f>
-        <v>1204.3799999999999</v>
+        <v>1926.75</v>
       </c>
       <c r="H20" s="10">
-        <v>1204.3800000000001</v>
+        <v>1926.75</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1141,49 +1144,49 @@
         <v>5</v>
       </c>
       <c r="C21" s="2">
-        <v>5310</v>
+        <v>6060</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="11"/>
-        <v>162</v>
+        <f t="shared" ref="D21:D41" si="19">C21-C23</f>
+        <v>183</v>
       </c>
       <c r="E21" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F21" s="12">
-        <f t="shared" si="12"/>
-        <v>413.09999999999997</v>
+        <f t="shared" si="18"/>
+        <v>466.65</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <v>44165</v>
+      <c r="A22" s="14">
+        <v>44193</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="2">
-        <v>7385</v>
+        <v>8162</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="11"/>
-        <v>150</v>
+        <f>C22-C24</f>
+        <v>231</v>
       </c>
       <c r="E22" s="6">
         <v>4.71</v>
       </c>
       <c r="F22" s="8">
-        <f t="shared" si="12"/>
-        <v>706.5</v>
+        <f t="shared" ref="F22:F41" si="20">D22*E22</f>
+        <v>1088.01</v>
       </c>
       <c r="G22" s="10">
         <f>SUM(F22,F23)</f>
-        <v>1211.4000000000001</v>
+        <v>1608.21</v>
       </c>
       <c r="H22" s="10">
-        <v>1211.4000000000001</v>
+        <v>1608.21</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1192,49 +1195,49 @@
         <v>5</v>
       </c>
       <c r="C23" s="2">
-        <v>5148</v>
+        <v>5877</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" si="11"/>
-        <v>198</v>
+        <f t="shared" si="19"/>
+        <v>204</v>
       </c>
       <c r="E23" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F23" s="12">
-        <f t="shared" si="12"/>
-        <v>504.9</v>
+        <f t="shared" si="20"/>
+        <v>520.19999999999993</v>
       </c>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <v>44158</v>
+        <v>44186</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="2">
-        <v>7235</v>
+        <v>7931</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="11"/>
-        <v>229</v>
+        <f t="shared" si="19"/>
+        <v>221</v>
       </c>
       <c r="E24" s="6">
         <v>4.71</v>
       </c>
       <c r="F24" s="8">
-        <f t="shared" si="12"/>
-        <v>1078.5899999999999</v>
+        <f t="shared" si="20"/>
+        <v>1040.9100000000001</v>
       </c>
       <c r="G24" s="10">
         <f>SUM(F24,F25)</f>
-        <v>1812.9899999999998</v>
+        <v>1525.41</v>
       </c>
       <c r="H24" s="10">
-        <v>1812.99</v>
+        <v>1525.41</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1243,49 +1246,49 @@
         <v>5</v>
       </c>
       <c r="C25" s="2">
-        <v>4950</v>
+        <v>5673</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="11"/>
-        <v>288</v>
+        <f t="shared" si="19"/>
+        <v>190</v>
       </c>
       <c r="E25" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F25" s="12">
-        <f t="shared" si="12"/>
-        <v>734.4</v>
+        <f t="shared" si="20"/>
+        <v>484.49999999999994</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <v>44144</v>
+        <v>44179</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C26" s="2">
-        <v>7006</v>
+        <v>7710</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" si="11"/>
-        <v>193</v>
+        <f t="shared" si="19"/>
+        <v>157</v>
       </c>
       <c r="E26" s="6">
         <v>4.71</v>
       </c>
       <c r="F26" s="8">
-        <f t="shared" si="12"/>
-        <v>909.03</v>
+        <f t="shared" si="20"/>
+        <v>739.47</v>
       </c>
       <c r="G26" s="10">
         <f>SUM(F26,F27)</f>
-        <v>1248.1799999999998</v>
+        <v>1180.6199999999999</v>
       </c>
       <c r="H26" s="10">
-        <v>1248.18</v>
+        <v>1180.6199999999999</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1294,49 +1297,49 @@
         <v>5</v>
       </c>
       <c r="C27" s="2">
-        <v>4662</v>
+        <v>5483</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" si="11"/>
-        <v>133</v>
+        <f>C27-C29</f>
+        <v>173</v>
       </c>
       <c r="E27" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F27" s="12">
-        <f t="shared" si="12"/>
-        <v>339.15</v>
+        <f t="shared" si="20"/>
+        <v>441.15</v>
       </c>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
-        <v>44137</v>
+        <v>44172</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C28" s="2">
-        <v>6813</v>
+        <v>7553</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" si="11"/>
-        <v>189</v>
+        <f t="shared" si="19"/>
+        <v>168</v>
       </c>
       <c r="E28" s="6">
         <v>4.71</v>
       </c>
       <c r="F28" s="8">
-        <f t="shared" si="12"/>
-        <v>890.18999999999994</v>
+        <f t="shared" si="20"/>
+        <v>791.28</v>
       </c>
       <c r="G28" s="10">
         <f>SUM(F28,F29)</f>
-        <v>1295.6399999999999</v>
+        <v>1204.3799999999999</v>
       </c>
       <c r="H28" s="10">
-        <v>1295.6400000000001</v>
+        <v>1204.3800000000001</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1345,49 +1348,49 @@
         <v>5</v>
       </c>
       <c r="C29" s="2">
-        <v>4529</v>
+        <v>5310</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" si="11"/>
-        <v>159</v>
+        <f t="shared" si="19"/>
+        <v>162</v>
       </c>
       <c r="E29" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F29" s="12">
-        <f t="shared" si="12"/>
-        <v>405.45</v>
+        <f t="shared" si="20"/>
+        <v>413.09999999999997</v>
       </c>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
-        <v>44126</v>
+        <v>44165</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C30" s="2">
-        <v>6624</v>
+        <v>7385</v>
       </c>
       <c r="D30" s="2">
-        <f t="shared" si="11"/>
-        <v>438</v>
+        <f t="shared" si="19"/>
+        <v>150</v>
       </c>
       <c r="E30" s="6">
         <v>4.71</v>
       </c>
       <c r="F30" s="8">
-        <f t="shared" si="12"/>
-        <v>2062.98</v>
+        <f t="shared" si="20"/>
+        <v>706.5</v>
       </c>
       <c r="G30" s="10">
         <f>SUM(F30,F31)</f>
-        <v>2774.43</v>
+        <v>1211.4000000000001</v>
       </c>
       <c r="H30" s="10">
-        <v>2774.43</v>
+        <v>1211.4000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1396,49 +1399,49 @@
         <v>5</v>
       </c>
       <c r="C31" s="2">
-        <v>4370</v>
+        <v>5148</v>
       </c>
       <c r="D31" s="2">
-        <f t="shared" si="11"/>
-        <v>279</v>
+        <f t="shared" si="19"/>
+        <v>198</v>
       </c>
       <c r="E31" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F31" s="12">
-        <f t="shared" si="12"/>
-        <v>711.44999999999993</v>
+        <f t="shared" si="20"/>
+        <v>504.9</v>
       </c>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
-        <v>44116</v>
+        <v>44158</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C32" s="2">
-        <v>6186</v>
+        <v>7235</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" si="11"/>
-        <v>329</v>
+        <f t="shared" si="19"/>
+        <v>229</v>
       </c>
       <c r="E32" s="6">
         <v>4.71</v>
       </c>
       <c r="F32" s="8">
-        <f t="shared" si="12"/>
-        <v>1549.59</v>
+        <f t="shared" si="20"/>
+        <v>1078.5899999999999</v>
       </c>
       <c r="G32" s="10">
         <f>SUM(F32,F33)</f>
-        <v>2189.64</v>
+        <v>1812.9899999999998</v>
       </c>
       <c r="H32" s="10">
-        <v>2189.64</v>
+        <v>1812.99</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1447,37 +1450,50 @@
         <v>5</v>
       </c>
       <c r="C33" s="2">
-        <v>4091</v>
+        <v>4950</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" si="11"/>
-        <v>251</v>
+        <f t="shared" si="19"/>
+        <v>288</v>
       </c>
       <c r="E33" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F33" s="12">
-        <f t="shared" si="12"/>
-        <v>640.04999999999995</v>
+        <f t="shared" si="20"/>
+        <v>734.4</v>
       </c>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
-        <v>44102</v>
+        <v>44144</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C34" s="2">
-        <v>5857</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
+        <v>7006</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" si="19"/>
+        <v>193</v>
+      </c>
+      <c r="E34" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F34" s="8">
+        <f t="shared" si="20"/>
+        <v>909.03</v>
+      </c>
+      <c r="G34" s="10">
+        <f>SUM(F34,F35)</f>
+        <v>1248.1799999999998</v>
+      </c>
+      <c r="H34" s="10">
+        <v>1248.18</v>
+      </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
@@ -1485,29 +1501,220 @@
         <v>5</v>
       </c>
       <c r="C35" s="2">
-        <v>3840</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="16"/>
+        <v>4662</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" si="19"/>
+        <v>133</v>
+      </c>
+      <c r="E35" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F35" s="12">
+        <f t="shared" si="20"/>
+        <v>339.15</v>
+      </c>
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>44137</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="2">
+        <v>6813</v>
+      </c>
+      <c r="D36" s="2">
+        <f t="shared" si="19"/>
+        <v>189</v>
+      </c>
+      <c r="E36" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F36" s="8">
+        <f t="shared" si="20"/>
+        <v>890.18999999999994</v>
+      </c>
       <c r="G36" s="10">
-        <f>SUM(G4:G35)</f>
-        <v>21833.97</v>
+        <f>SUM(F36,F37)</f>
+        <v>1295.6399999999999</v>
       </c>
       <c r="H36" s="10">
-        <f>SUM(H4:H35)</f>
-        <v>21837.37</v>
+        <v>1295.6400000000001</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G37" s="17"/>
-      <c r="H37" s="10">
-        <f>SUM(H36,-G36)</f>
-        <v>3.3999999999978172</v>
+      <c r="A37" s="2"/>
+      <c r="B37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="2">
+        <v>4529</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" si="19"/>
+        <v>159</v>
+      </c>
+      <c r="E37" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F37" s="12">
+        <f t="shared" si="20"/>
+        <v>405.45</v>
+      </c>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>44126</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="2">
+        <v>6624</v>
+      </c>
+      <c r="D38" s="2">
+        <f t="shared" si="19"/>
+        <v>438</v>
+      </c>
+      <c r="E38" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F38" s="8">
+        <f t="shared" si="20"/>
+        <v>2062.98</v>
+      </c>
+      <c r="G38" s="10">
+        <f>SUM(F38,F39)</f>
+        <v>2774.43</v>
+      </c>
+      <c r="H38" s="10">
+        <v>2774.43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="2">
+        <v>4370</v>
+      </c>
+      <c r="D39" s="2">
+        <f t="shared" si="19"/>
+        <v>279</v>
+      </c>
+      <c r="E39" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F39" s="12">
+        <f t="shared" si="20"/>
+        <v>711.44999999999993</v>
+      </c>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>44116</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="2">
+        <v>6186</v>
+      </c>
+      <c r="D40" s="2">
+        <f t="shared" si="19"/>
+        <v>329</v>
+      </c>
+      <c r="E40" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F40" s="8">
+        <f t="shared" si="20"/>
+        <v>1549.59</v>
+      </c>
+      <c r="G40" s="10">
+        <f>SUM(F40,F41)</f>
+        <v>2189.64</v>
+      </c>
+      <c r="H40" s="10">
+        <v>2189.64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="2">
+        <v>4091</v>
+      </c>
+      <c r="D41" s="2">
+        <f t="shared" si="19"/>
+        <v>251</v>
+      </c>
+      <c r="E41" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F41" s="12">
+        <f t="shared" si="20"/>
+        <v>640.04999999999995</v>
+      </c>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>44102</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="2">
+        <v>5857</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="2">
+        <v>3840</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G44" s="10">
+        <f>SUM(G2:G43)</f>
+        <v>27454.589999999997</v>
+      </c>
+      <c r="H44" s="10">
+        <f>SUM(H2:H43)</f>
+        <v>27455.440000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G45" s="17"/>
+      <c r="H45" s="10">
+        <f>SUM(H44,-G44)</f>
+        <v>0.85000000000582077</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/253ee.xlsx
+++ b/sputnik/personal/ee/253ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\14.06.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.06.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\18.06.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 01.07.2021 вкл-но\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -603,10 +603,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -652,31 +652,31 @@
     </row>
     <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
-        <v>44356</v>
+        <v>44389</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="2">
-        <v>9986</v>
+        <v>10151</v>
       </c>
       <c r="D2" s="2">
         <f>C2-C4</f>
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="E2" s="6">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F2" s="8">
         <f t="shared" ref="F2:F3" si="0">D2*E2</f>
-        <v>329.7</v>
+        <v>178.56</v>
       </c>
       <c r="G2" s="10">
         <f>SUM(F2,F3)</f>
-        <v>485.25</v>
+        <v>232.16</v>
       </c>
       <c r="H2" s="10">
-        <v>485.25</v>
+        <v>232.16</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -685,100 +685,100 @@
         <v>5</v>
       </c>
       <c r="C3" s="2">
-        <v>6980</v>
+        <v>7086</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" ref="D3" si="1">C3-C5</f>
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F3" s="12">
         <f t="shared" si="0"/>
-        <v>155.54999999999998</v>
+        <v>53.6</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
-        <v>44350</v>
+        <v>44378</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="2">
-        <v>9916</v>
+        <v>10115</v>
       </c>
       <c r="D4" s="2">
         <f>C4-C6</f>
-        <v>192</v>
+        <v>43</v>
       </c>
       <c r="E4" s="6">
         <v>4.71</v>
       </c>
       <c r="F4" s="8">
         <f t="shared" ref="F4:F5" si="2">D4*E4</f>
-        <v>904.31999999999994</v>
+        <v>202.53</v>
       </c>
       <c r="G4" s="10">
         <f>SUM(F4,F5)</f>
-        <v>1268.9699999999998</v>
+        <v>250.98</v>
       </c>
       <c r="H4" s="10">
-        <v>1266.42</v>
+        <v>250.98</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
+      <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="2">
-        <v>6919</v>
+        <v>7066</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" ref="D5" si="3">C5-C7</f>
-        <v>143</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="12">
         <f t="shared" si="2"/>
-        <v>364.65</v>
+        <v>48.449999999999996</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
-        <v>44344</v>
+        <v>44368</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="2">
-        <v>9724</v>
+        <v>10072</v>
       </c>
       <c r="D6" s="2">
         <f>C6-C8</f>
-        <v>145</v>
+        <v>86</v>
       </c>
       <c r="E6" s="6">
         <v>4.71</v>
       </c>
       <c r="F6" s="8">
         <f t="shared" ref="F6:F7" si="4">D6*E6</f>
-        <v>682.95</v>
+        <v>405.06</v>
       </c>
       <c r="G6" s="10">
         <f>SUM(F6,F7)</f>
-        <v>966</v>
+        <v>575.91</v>
       </c>
       <c r="H6" s="10">
-        <v>966</v>
+        <v>575.91</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -787,49 +787,49 @@
         <v>5</v>
       </c>
       <c r="C7" s="2">
-        <v>6776</v>
+        <v>7047</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" ref="D7" si="5">C7-C9</f>
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="E7" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="12">
         <f t="shared" si="4"/>
-        <v>283.04999999999995</v>
+        <v>170.85</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
-        <v>44333</v>
+        <v>44356</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="2">
-        <v>9579</v>
+        <v>9986</v>
       </c>
       <c r="D8" s="2">
         <f>C8-C10</f>
-        <v>228</v>
+        <v>70</v>
       </c>
       <c r="E8" s="6">
         <v>4.71</v>
       </c>
       <c r="F8" s="8">
         <f t="shared" ref="F8:F9" si="6">D8*E8</f>
-        <v>1073.8799999999999</v>
+        <v>329.7</v>
       </c>
       <c r="G8" s="10">
         <f>SUM(F8,F9)</f>
-        <v>1494.6299999999999</v>
+        <v>485.25</v>
       </c>
       <c r="H8" s="10">
-        <v>1494.63</v>
+        <v>485.25</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -838,100 +838,100 @@
         <v>5</v>
       </c>
       <c r="C9" s="2">
-        <v>6665</v>
+        <v>6980</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" ref="D9" si="7">C9-C11</f>
-        <v>165</v>
+        <v>61</v>
       </c>
       <c r="E9" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="12">
         <f t="shared" si="6"/>
-        <v>420.74999999999994</v>
+        <v>155.54999999999998</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
-        <v>44322</v>
+        <v>44350</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="2">
-        <v>9351</v>
+        <v>9916</v>
       </c>
       <c r="D10" s="2">
         <f>C10-C12</f>
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="E10" s="6">
         <v>4.71</v>
       </c>
       <c r="F10" s="8">
         <f t="shared" ref="F10:F11" si="8">D10*E10</f>
-        <v>1069.17</v>
+        <v>904.31999999999994</v>
       </c>
       <c r="G10" s="10">
         <f>SUM(F10,F11)</f>
-        <v>1405.77</v>
+        <v>1268.9699999999998</v>
       </c>
       <c r="H10" s="10">
-        <v>1405.77</v>
+        <v>1266.42</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="2">
-        <v>6500</v>
+        <v>6919</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" ref="D11" si="9">C11-C13</f>
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="E11" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="12">
         <f t="shared" si="8"/>
-        <v>336.59999999999997</v>
+        <v>364.65</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
-        <v>44305</v>
+        <v>44344</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="2">
-        <v>9124</v>
+        <v>9724</v>
       </c>
       <c r="D12" s="2">
         <f>C12-C14</f>
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="E12" s="6">
         <v>4.71</v>
       </c>
       <c r="F12" s="8">
         <f t="shared" ref="F12:F13" si="10">D12*E12</f>
-        <v>631.14</v>
+        <v>682.95</v>
       </c>
       <c r="G12" s="10">
         <f>SUM(F12,F13)</f>
-        <v>886.14</v>
+        <v>966</v>
       </c>
       <c r="H12" s="10">
-        <v>886.14</v>
+        <v>966</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -940,49 +940,49 @@
         <v>5</v>
       </c>
       <c r="C13" s="2">
-        <v>6368</v>
+        <v>6776</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" ref="D13" si="11">C13-C15</f>
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="E13" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="12">
         <f t="shared" si="10"/>
-        <v>254.99999999999997</v>
+        <v>283.04999999999995</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
-        <v>44270</v>
+        <v>44333</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="2">
-        <v>8990</v>
+        <v>9579</v>
       </c>
       <c r="D14" s="2">
         <f>C14-C16</f>
-        <v>17</v>
+        <v>228</v>
       </c>
       <c r="E14" s="6">
         <v>4.71</v>
       </c>
       <c r="F14" s="8">
         <f t="shared" ref="F14:F15" si="12">D14*E14</f>
-        <v>80.069999999999993</v>
+        <v>1073.8799999999999</v>
       </c>
       <c r="G14" s="10">
         <f>SUM(F14,F15)</f>
-        <v>80.069999999999993</v>
+        <v>1494.6299999999999</v>
       </c>
       <c r="H14" s="10">
-        <v>83.47</v>
+        <v>1494.63</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -991,49 +991,49 @@
         <v>5</v>
       </c>
       <c r="C15" s="2">
-        <v>6268</v>
+        <v>6665</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" ref="D15" si="13">C15-C17</f>
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="E15" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="12">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>420.74999999999994</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
-        <v>44256</v>
+        <v>44322</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="2">
-        <v>8973</v>
+        <v>9351</v>
       </c>
       <c r="D16" s="2">
         <f>C16-C18</f>
-        <v>100</v>
+        <v>227</v>
       </c>
       <c r="E16" s="6">
         <v>4.71</v>
       </c>
       <c r="F16" s="8">
         <f t="shared" ref="F16:F17" si="14">D16*E16</f>
-        <v>471</v>
+        <v>1069.17</v>
       </c>
       <c r="G16" s="10">
         <f>SUM(F16,F17)</f>
-        <v>471</v>
+        <v>1405.77</v>
       </c>
       <c r="H16" s="10">
-        <v>471</v>
+        <v>1405.77</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1042,49 +1042,49 @@
         <v>5</v>
       </c>
       <c r="C17" s="2">
-        <v>6268</v>
+        <v>6500</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" ref="D17" si="15">C17-C19</f>
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="E17" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="12">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>336.59999999999997</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
-        <v>44207</v>
+        <v>44305</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="2">
-        <v>8873</v>
+        <v>9124</v>
       </c>
       <c r="D18" s="2">
         <f>C18-C20</f>
-        <v>401</v>
+        <v>134</v>
       </c>
       <c r="E18" s="6">
         <v>4.71</v>
       </c>
       <c r="F18" s="8">
         <f t="shared" ref="F18:F19" si="16">D18*E18</f>
-        <v>1888.71</v>
+        <v>631.14</v>
       </c>
       <c r="G18" s="10">
         <f>SUM(F18,F19)</f>
-        <v>2419.11</v>
+        <v>886.14</v>
       </c>
       <c r="H18" s="10">
-        <v>2419.11</v>
+        <v>886.14</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1093,49 +1093,49 @@
         <v>5</v>
       </c>
       <c r="C19" s="2">
-        <v>6268</v>
+        <v>6368</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" ref="D19" si="17">C19-C21</f>
-        <v>208</v>
+        <v>100</v>
       </c>
       <c r="E19" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F19" s="12">
         <f t="shared" si="16"/>
-        <v>530.4</v>
+        <v>254.99999999999997</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
-        <v>44200</v>
+        <v>44270</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="2">
-        <v>8472</v>
+        <v>8990</v>
       </c>
       <c r="D20" s="2">
         <f>C20-C22</f>
-        <v>310</v>
+        <v>17</v>
       </c>
       <c r="E20" s="6">
         <v>4.71</v>
       </c>
       <c r="F20" s="8">
         <f t="shared" ref="F20:F21" si="18">D20*E20</f>
-        <v>1460.1</v>
+        <v>80.069999999999993</v>
       </c>
       <c r="G20" s="10">
         <f>SUM(F20,F21)</f>
-        <v>1926.75</v>
+        <v>80.069999999999993</v>
       </c>
       <c r="H20" s="10">
-        <v>1926.75</v>
+        <v>83.47</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1144,49 +1144,49 @@
         <v>5</v>
       </c>
       <c r="C21" s="2">
-        <v>6060</v>
+        <v>6268</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" ref="D21:D41" si="19">C21-C23</f>
-        <v>183</v>
+        <f t="shared" ref="D21" si="19">C21-C23</f>
+        <v>0</v>
       </c>
       <c r="E21" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F21" s="12">
         <f t="shared" si="18"/>
-        <v>466.65</v>
+        <v>0</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
-        <v>44193</v>
+        <v>44256</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="2">
-        <v>8162</v>
+        <v>8973</v>
       </c>
       <c r="D22" s="2">
         <f>C22-C24</f>
-        <v>231</v>
+        <v>100</v>
       </c>
       <c r="E22" s="6">
         <v>4.71</v>
       </c>
       <c r="F22" s="8">
-        <f t="shared" ref="F22:F41" si="20">D22*E22</f>
-        <v>1088.01</v>
+        <f t="shared" ref="F22:F23" si="20">D22*E22</f>
+        <v>471</v>
       </c>
       <c r="G22" s="10">
         <f>SUM(F22,F23)</f>
-        <v>1608.21</v>
+        <v>471</v>
       </c>
       <c r="H22" s="10">
-        <v>1608.21</v>
+        <v>471</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1195,49 +1195,49 @@
         <v>5</v>
       </c>
       <c r="C23" s="2">
-        <v>5877</v>
+        <v>6268</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" si="19"/>
-        <v>204</v>
+        <f t="shared" ref="D23" si="21">C23-C25</f>
+        <v>0</v>
       </c>
       <c r="E23" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F23" s="12">
         <f t="shared" si="20"/>
-        <v>520.19999999999993</v>
+        <v>0</v>
       </c>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
-        <v>44186</v>
+      <c r="A24" s="14">
+        <v>44207</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="2">
-        <v>7931</v>
+        <v>8873</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="19"/>
-        <v>221</v>
+        <f>C24-C26</f>
+        <v>401</v>
       </c>
       <c r="E24" s="6">
         <v>4.71</v>
       </c>
       <c r="F24" s="8">
-        <f t="shared" si="20"/>
-        <v>1040.9100000000001</v>
+        <f t="shared" ref="F24:F25" si="22">D24*E24</f>
+        <v>1888.71</v>
       </c>
       <c r="G24" s="10">
         <f>SUM(F24,F25)</f>
-        <v>1525.41</v>
+        <v>2419.11</v>
       </c>
       <c r="H24" s="10">
-        <v>1525.41</v>
+        <v>2419.11</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1246,49 +1246,49 @@
         <v>5</v>
       </c>
       <c r="C25" s="2">
-        <v>5673</v>
+        <v>6268</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="19"/>
-        <v>190</v>
+        <f t="shared" ref="D25" si="23">C25-C27</f>
+        <v>208</v>
       </c>
       <c r="E25" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F25" s="12">
-        <f t="shared" si="20"/>
-        <v>484.49999999999994</v>
+        <f t="shared" si="22"/>
+        <v>530.4</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
-        <v>44179</v>
+      <c r="A26" s="14">
+        <v>44200</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C26" s="2">
-        <v>7710</v>
+        <v>8472</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" si="19"/>
-        <v>157</v>
+        <f>C26-C28</f>
+        <v>310</v>
       </c>
       <c r="E26" s="6">
         <v>4.71</v>
       </c>
       <c r="F26" s="8">
-        <f t="shared" si="20"/>
-        <v>739.47</v>
+        <f t="shared" ref="F26:F27" si="24">D26*E26</f>
+        <v>1460.1</v>
       </c>
       <c r="G26" s="10">
         <f>SUM(F26,F27)</f>
-        <v>1180.6199999999999</v>
+        <v>1926.75</v>
       </c>
       <c r="H26" s="10">
-        <v>1180.6199999999999</v>
+        <v>1926.75</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1297,49 +1297,49 @@
         <v>5</v>
       </c>
       <c r="C27" s="2">
-        <v>5483</v>
+        <v>6060</v>
       </c>
       <c r="D27" s="2">
-        <f>C27-C29</f>
-        <v>173</v>
+        <f t="shared" ref="D27:D47" si="25">C27-C29</f>
+        <v>183</v>
       </c>
       <c r="E27" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F27" s="12">
-        <f t="shared" si="20"/>
-        <v>441.15</v>
+        <f t="shared" si="24"/>
+        <v>466.65</v>
       </c>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
-        <v>44172</v>
+      <c r="A28" s="14">
+        <v>44193</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C28" s="2">
-        <v>7553</v>
+        <v>8162</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" si="19"/>
-        <v>168</v>
+        <f>C28-C30</f>
+        <v>231</v>
       </c>
       <c r="E28" s="6">
         <v>4.71</v>
       </c>
       <c r="F28" s="8">
-        <f t="shared" si="20"/>
-        <v>791.28</v>
+        <f t="shared" ref="F28:F47" si="26">D28*E28</f>
+        <v>1088.01</v>
       </c>
       <c r="G28" s="10">
         <f>SUM(F28,F29)</f>
-        <v>1204.3799999999999</v>
+        <v>1608.21</v>
       </c>
       <c r="H28" s="10">
-        <v>1204.3800000000001</v>
+        <v>1608.21</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1348,49 +1348,49 @@
         <v>5</v>
       </c>
       <c r="C29" s="2">
-        <v>5310</v>
+        <v>5877</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" si="19"/>
-        <v>162</v>
+        <f t="shared" si="25"/>
+        <v>204</v>
       </c>
       <c r="E29" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F29" s="12">
-        <f t="shared" si="20"/>
-        <v>413.09999999999997</v>
+        <f t="shared" si="26"/>
+        <v>520.19999999999993</v>
       </c>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
-        <v>44165</v>
+        <v>44186</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C30" s="2">
-        <v>7385</v>
+        <v>7931</v>
       </c>
       <c r="D30" s="2">
-        <f t="shared" si="19"/>
-        <v>150</v>
+        <f t="shared" si="25"/>
+        <v>221</v>
       </c>
       <c r="E30" s="6">
         <v>4.71</v>
       </c>
       <c r="F30" s="8">
-        <f t="shared" si="20"/>
-        <v>706.5</v>
+        <f t="shared" si="26"/>
+        <v>1040.9100000000001</v>
       </c>
       <c r="G30" s="10">
         <f>SUM(F30,F31)</f>
-        <v>1211.4000000000001</v>
+        <v>1525.41</v>
       </c>
       <c r="H30" s="10">
-        <v>1211.4000000000001</v>
+        <v>1525.41</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1399,49 +1399,49 @@
         <v>5</v>
       </c>
       <c r="C31" s="2">
-        <v>5148</v>
+        <v>5673</v>
       </c>
       <c r="D31" s="2">
-        <f t="shared" si="19"/>
-        <v>198</v>
+        <f t="shared" si="25"/>
+        <v>190</v>
       </c>
       <c r="E31" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F31" s="12">
-        <f t="shared" si="20"/>
-        <v>504.9</v>
+        <f t="shared" si="26"/>
+        <v>484.49999999999994</v>
       </c>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
-        <v>44158</v>
+        <v>44179</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C32" s="2">
-        <v>7235</v>
+        <v>7710</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" si="19"/>
-        <v>229</v>
+        <f t="shared" si="25"/>
+        <v>157</v>
       </c>
       <c r="E32" s="6">
         <v>4.71</v>
       </c>
       <c r="F32" s="8">
-        <f t="shared" si="20"/>
-        <v>1078.5899999999999</v>
+        <f t="shared" si="26"/>
+        <v>739.47</v>
       </c>
       <c r="G32" s="10">
         <f>SUM(F32,F33)</f>
-        <v>1812.9899999999998</v>
+        <v>1180.6199999999999</v>
       </c>
       <c r="H32" s="10">
-        <v>1812.99</v>
+        <v>1180.6199999999999</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1450,49 +1450,49 @@
         <v>5</v>
       </c>
       <c r="C33" s="2">
-        <v>4950</v>
+        <v>5483</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" si="19"/>
-        <v>288</v>
+        <f>C33-C35</f>
+        <v>173</v>
       </c>
       <c r="E33" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F33" s="12">
-        <f t="shared" si="20"/>
-        <v>734.4</v>
+        <f t="shared" si="26"/>
+        <v>441.15</v>
       </c>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
-        <v>44144</v>
+        <v>44172</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C34" s="2">
-        <v>7006</v>
+        <v>7553</v>
       </c>
       <c r="D34" s="2">
-        <f t="shared" si="19"/>
-        <v>193</v>
+        <f t="shared" si="25"/>
+        <v>168</v>
       </c>
       <c r="E34" s="6">
         <v>4.71</v>
       </c>
       <c r="F34" s="8">
-        <f t="shared" si="20"/>
-        <v>909.03</v>
+        <f t="shared" si="26"/>
+        <v>791.28</v>
       </c>
       <c r="G34" s="10">
         <f>SUM(F34,F35)</f>
-        <v>1248.1799999999998</v>
+        <v>1204.3799999999999</v>
       </c>
       <c r="H34" s="10">
-        <v>1248.18</v>
+        <v>1204.3800000000001</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1501,49 +1501,49 @@
         <v>5</v>
       </c>
       <c r="C35" s="2">
-        <v>4662</v>
+        <v>5310</v>
       </c>
       <c r="D35" s="2">
-        <f t="shared" si="19"/>
-        <v>133</v>
+        <f t="shared" si="25"/>
+        <v>162</v>
       </c>
       <c r="E35" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F35" s="12">
-        <f t="shared" si="20"/>
-        <v>339.15</v>
+        <f t="shared" si="26"/>
+        <v>413.09999999999997</v>
       </c>
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
-        <v>44137</v>
+        <v>44165</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C36" s="2">
-        <v>6813</v>
+        <v>7385</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" si="19"/>
-        <v>189</v>
+        <f t="shared" si="25"/>
+        <v>150</v>
       </c>
       <c r="E36" s="6">
         <v>4.71</v>
       </c>
       <c r="F36" s="8">
-        <f t="shared" si="20"/>
-        <v>890.18999999999994</v>
+        <f t="shared" si="26"/>
+        <v>706.5</v>
       </c>
       <c r="G36" s="10">
         <f>SUM(F36,F37)</f>
-        <v>1295.6399999999999</v>
+        <v>1211.4000000000001</v>
       </c>
       <c r="H36" s="10">
-        <v>1295.6400000000001</v>
+        <v>1211.4000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1552,49 +1552,49 @@
         <v>5</v>
       </c>
       <c r="C37" s="2">
-        <v>4529</v>
+        <v>5148</v>
       </c>
       <c r="D37" s="2">
-        <f t="shared" si="19"/>
-        <v>159</v>
+        <f t="shared" si="25"/>
+        <v>198</v>
       </c>
       <c r="E37" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F37" s="12">
-        <f t="shared" si="20"/>
-        <v>405.45</v>
+        <f t="shared" si="26"/>
+        <v>504.9</v>
       </c>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
-        <v>44126</v>
+        <v>44158</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C38" s="2">
-        <v>6624</v>
+        <v>7235</v>
       </c>
       <c r="D38" s="2">
-        <f t="shared" si="19"/>
-        <v>438</v>
+        <f t="shared" si="25"/>
+        <v>229</v>
       </c>
       <c r="E38" s="6">
         <v>4.71</v>
       </c>
       <c r="F38" s="8">
-        <f t="shared" si="20"/>
-        <v>2062.98</v>
+        <f t="shared" si="26"/>
+        <v>1078.5899999999999</v>
       </c>
       <c r="G38" s="10">
         <f>SUM(F38,F39)</f>
-        <v>2774.43</v>
+        <v>1812.9899999999998</v>
       </c>
       <c r="H38" s="10">
-        <v>2774.43</v>
+        <v>1812.99</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1603,49 +1603,49 @@
         <v>5</v>
       </c>
       <c r="C39" s="2">
-        <v>4370</v>
+        <v>4950</v>
       </c>
       <c r="D39" s="2">
-        <f t="shared" si="19"/>
-        <v>279</v>
+        <f t="shared" si="25"/>
+        <v>288</v>
       </c>
       <c r="E39" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F39" s="12">
-        <f t="shared" si="20"/>
-        <v>711.44999999999993</v>
+        <f t="shared" si="26"/>
+        <v>734.4</v>
       </c>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
-        <v>44116</v>
+        <v>44144</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C40" s="2">
-        <v>6186</v>
+        <v>7006</v>
       </c>
       <c r="D40" s="2">
-        <f t="shared" si="19"/>
-        <v>329</v>
+        <f t="shared" si="25"/>
+        <v>193</v>
       </c>
       <c r="E40" s="6">
         <v>4.71</v>
       </c>
       <c r="F40" s="8">
-        <f t="shared" si="20"/>
-        <v>1549.59</v>
+        <f t="shared" si="26"/>
+        <v>909.03</v>
       </c>
       <c r="G40" s="10">
         <f>SUM(F40,F41)</f>
-        <v>2189.64</v>
+        <v>1248.1799999999998</v>
       </c>
       <c r="H40" s="10">
-        <v>2189.64</v>
+        <v>1248.18</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -1654,37 +1654,50 @@
         <v>5</v>
       </c>
       <c r="C41" s="2">
-        <v>4091</v>
+        <v>4662</v>
       </c>
       <c r="D41" s="2">
-        <f t="shared" si="19"/>
-        <v>251</v>
+        <f t="shared" si="25"/>
+        <v>133</v>
       </c>
       <c r="E41" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F41" s="12">
-        <f t="shared" si="20"/>
-        <v>640.04999999999995</v>
+        <f t="shared" si="26"/>
+        <v>339.15</v>
       </c>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
-        <v>44102</v>
+        <v>44137</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C42" s="2">
-        <v>5857</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
+        <v>6813</v>
+      </c>
+      <c r="D42" s="2">
+        <f t="shared" si="25"/>
+        <v>189</v>
+      </c>
+      <c r="E42" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F42" s="8">
+        <f t="shared" si="26"/>
+        <v>890.18999999999994</v>
+      </c>
+      <c r="G42" s="10">
+        <f>SUM(F42,F43)</f>
+        <v>1295.6399999999999</v>
+      </c>
+      <c r="H42" s="10">
+        <v>1295.6400000000001</v>
+      </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
@@ -1692,28 +1705,168 @@
         <v>5</v>
       </c>
       <c r="C43" s="2">
-        <v>3840</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="16"/>
+        <v>4529</v>
+      </c>
+      <c r="D43" s="2">
+        <f t="shared" si="25"/>
+        <v>159</v>
+      </c>
+      <c r="E43" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F43" s="12">
+        <f t="shared" si="26"/>
+        <v>405.45</v>
+      </c>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>44126</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="2">
+        <v>6624</v>
+      </c>
+      <c r="D44" s="2">
+        <f t="shared" si="25"/>
+        <v>438</v>
+      </c>
+      <c r="E44" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F44" s="8">
+        <f t="shared" si="26"/>
+        <v>2062.98</v>
+      </c>
       <c r="G44" s="10">
-        <f>SUM(G2:G43)</f>
+        <f>SUM(F44,F45)</f>
+        <v>2774.43</v>
+      </c>
+      <c r="H44" s="10">
+        <v>2774.43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="2">
+        <v>4370</v>
+      </c>
+      <c r="D45" s="2">
+        <f t="shared" si="25"/>
+        <v>279</v>
+      </c>
+      <c r="E45" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F45" s="12">
+        <f t="shared" si="26"/>
+        <v>711.44999999999993</v>
+      </c>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>44116</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="2">
+        <v>6186</v>
+      </c>
+      <c r="D46" s="2">
+        <f t="shared" si="25"/>
+        <v>329</v>
+      </c>
+      <c r="E46" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F46" s="8">
+        <f t="shared" si="26"/>
+        <v>1549.59</v>
+      </c>
+      <c r="G46" s="10">
+        <f>SUM(F46,F47)</f>
+        <v>2189.64</v>
+      </c>
+      <c r="H46" s="10">
+        <v>2189.64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="2">
+        <v>4091</v>
+      </c>
+      <c r="D47" s="2">
+        <f t="shared" si="25"/>
+        <v>251</v>
+      </c>
+      <c r="E47" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F47" s="12">
+        <f t="shared" si="26"/>
+        <v>640.04999999999995</v>
+      </c>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <v>44102</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="2">
+        <v>5857</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="2">
+        <v>3840</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G50" s="10">
+        <f>SUM(G8:G49)</f>
         <v>27454.589999999997</v>
       </c>
-      <c r="H44" s="10">
-        <f>SUM(H2:H43)</f>
+      <c r="H50" s="10">
+        <f>SUM(H8:H49)</f>
         <v>27455.440000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G45" s="17"/>
-      <c r="H45" s="10">
-        <f>SUM(H44,-G44)</f>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G51" s="17"/>
+      <c r="H51" s="10">
+        <f>SUM(H50,-G50)</f>
         <v>0.85000000000582077</v>
       </c>
     </row>

--- a/sputnik/personal/ee/253ee.xlsx
+++ b/sputnik/personal/ee/253ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\18.06.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 01.07.2021 вкл-но\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\18.06.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 15.07.2021 вкл-но\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -603,7 +603,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
@@ -652,31 +652,31 @@
     </row>
     <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
-        <v>44389</v>
+        <v>44399</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="2">
-        <v>10151</v>
+        <v>10193</v>
       </c>
       <c r="D2" s="2">
         <f>C2-C4</f>
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E2" s="6">
         <v>4.96</v>
       </c>
       <c r="F2" s="8">
         <f t="shared" ref="F2:F3" si="0">D2*E2</f>
-        <v>178.56</v>
+        <v>208.32</v>
       </c>
       <c r="G2" s="10">
         <f>SUM(F2,F3)</f>
-        <v>232.16</v>
+        <v>256.56</v>
       </c>
       <c r="H2" s="10">
-        <v>232.16</v>
+        <v>256.56</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -685,49 +685,49 @@
         <v>5</v>
       </c>
       <c r="C3" s="2">
-        <v>7086</v>
+        <v>7104</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" ref="D3" si="1">C3-C5</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2">
         <v>2.68</v>
       </c>
       <c r="F3" s="12">
         <f t="shared" si="0"/>
-        <v>53.6</v>
+        <v>48.24</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
-        <v>44378</v>
+        <v>44389</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="2">
-        <v>10115</v>
+        <v>10151</v>
       </c>
       <c r="D4" s="2">
         <f>C4-C6</f>
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E4" s="6">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F4" s="8">
         <f t="shared" ref="F4:F5" si="2">D4*E4</f>
-        <v>202.53</v>
+        <v>178.56</v>
       </c>
       <c r="G4" s="10">
         <f>SUM(F4,F5)</f>
-        <v>250.98</v>
+        <v>232.16</v>
       </c>
       <c r="H4" s="10">
-        <v>250.98</v>
+        <v>232.16</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -736,49 +736,49 @@
         <v>5</v>
       </c>
       <c r="C5" s="2">
-        <v>7066</v>
+        <v>7086</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" ref="D5" si="3">C5-C7</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F5" s="12">
         <f t="shared" si="2"/>
-        <v>48.449999999999996</v>
+        <v>53.6</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
-        <v>44368</v>
+        <v>44378</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="2">
-        <v>10072</v>
+        <v>10115</v>
       </c>
       <c r="D6" s="2">
         <f>C6-C8</f>
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="E6" s="6">
         <v>4.71</v>
       </c>
       <c r="F6" s="8">
         <f t="shared" ref="F6:F7" si="4">D6*E6</f>
-        <v>405.06</v>
+        <v>202.53</v>
       </c>
       <c r="G6" s="10">
         <f>SUM(F6,F7)</f>
-        <v>575.91</v>
+        <v>250.98</v>
       </c>
       <c r="H6" s="10">
-        <v>575.91</v>
+        <v>250.98</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -787,49 +787,49 @@
         <v>5</v>
       </c>
       <c r="C7" s="2">
-        <v>7047</v>
+        <v>7066</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" ref="D7" si="5">C7-C9</f>
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="E7" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="12">
         <f t="shared" si="4"/>
-        <v>170.85</v>
+        <v>48.449999999999996</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
-        <v>44356</v>
+        <v>44368</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="2">
-        <v>9986</v>
+        <v>10072</v>
       </c>
       <c r="D8" s="2">
         <f>C8-C10</f>
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="E8" s="6">
         <v>4.71</v>
       </c>
       <c r="F8" s="8">
         <f t="shared" ref="F8:F9" si="6">D8*E8</f>
-        <v>329.7</v>
+        <v>405.06</v>
       </c>
       <c r="G8" s="10">
         <f>SUM(F8,F9)</f>
-        <v>485.25</v>
+        <v>575.91</v>
       </c>
       <c r="H8" s="10">
-        <v>485.25</v>
+        <v>575.91</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -838,151 +838,151 @@
         <v>5</v>
       </c>
       <c r="C9" s="2">
-        <v>6980</v>
+        <v>7047</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" ref="D9" si="7">C9-C11</f>
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E9" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="12">
         <f t="shared" si="6"/>
-        <v>155.54999999999998</v>
+        <v>170.85</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
-        <v>44350</v>
+        <v>44356</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="2">
-        <v>9916</v>
+        <v>9986</v>
       </c>
       <c r="D10" s="2">
         <f>C10-C12</f>
-        <v>192</v>
+        <v>70</v>
       </c>
       <c r="E10" s="6">
         <v>4.71</v>
       </c>
       <c r="F10" s="8">
         <f t="shared" ref="F10:F11" si="8">D10*E10</f>
-        <v>904.31999999999994</v>
+        <v>329.7</v>
       </c>
       <c r="G10" s="10">
         <f>SUM(F10,F11)</f>
-        <v>1268.9699999999998</v>
+        <v>485.25</v>
       </c>
       <c r="H10" s="10">
-        <v>1266.42</v>
+        <v>485.25</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
+      <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="2">
-        <v>6919</v>
+        <v>6980</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" ref="D11" si="9">C11-C13</f>
-        <v>143</v>
+        <v>61</v>
       </c>
       <c r="E11" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="12">
         <f t="shared" si="8"/>
-        <v>364.65</v>
+        <v>155.54999999999998</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
-        <v>44344</v>
+        <v>44350</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="2">
-        <v>9724</v>
+        <v>9916</v>
       </c>
       <c r="D12" s="2">
         <f>C12-C14</f>
-        <v>145</v>
+        <v>192</v>
       </c>
       <c r="E12" s="6">
         <v>4.71</v>
       </c>
       <c r="F12" s="8">
         <f t="shared" ref="F12:F13" si="10">D12*E12</f>
-        <v>682.95</v>
+        <v>904.31999999999994</v>
       </c>
       <c r="G12" s="10">
         <f>SUM(F12,F13)</f>
-        <v>966</v>
+        <v>1268.9699999999998</v>
       </c>
       <c r="H12" s="10">
-        <v>966</v>
+        <v>1266.42</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="2">
-        <v>6776</v>
+        <v>6919</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" ref="D13" si="11">C13-C15</f>
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="E13" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="12">
         <f t="shared" si="10"/>
-        <v>283.04999999999995</v>
+        <v>364.65</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
-        <v>44333</v>
+        <v>44344</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="2">
-        <v>9579</v>
+        <v>9724</v>
       </c>
       <c r="D14" s="2">
         <f>C14-C16</f>
-        <v>228</v>
+        <v>145</v>
       </c>
       <c r="E14" s="6">
         <v>4.71</v>
       </c>
       <c r="F14" s="8">
         <f t="shared" ref="F14:F15" si="12">D14*E14</f>
-        <v>1073.8799999999999</v>
+        <v>682.95</v>
       </c>
       <c r="G14" s="10">
         <f>SUM(F14,F15)</f>
-        <v>1494.6299999999999</v>
+        <v>966</v>
       </c>
       <c r="H14" s="10">
-        <v>1494.63</v>
+        <v>966</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -991,49 +991,49 @@
         <v>5</v>
       </c>
       <c r="C15" s="2">
-        <v>6665</v>
+        <v>6776</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" ref="D15" si="13">C15-C17</f>
-        <v>165</v>
+        <v>111</v>
       </c>
       <c r="E15" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="12">
         <f t="shared" si="12"/>
-        <v>420.74999999999994</v>
+        <v>283.04999999999995</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
-        <v>44322</v>
+        <v>44333</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="2">
-        <v>9351</v>
+        <v>9579</v>
       </c>
       <c r="D16" s="2">
         <f>C16-C18</f>
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E16" s="6">
         <v>4.71</v>
       </c>
       <c r="F16" s="8">
         <f t="shared" ref="F16:F17" si="14">D16*E16</f>
-        <v>1069.17</v>
+        <v>1073.8799999999999</v>
       </c>
       <c r="G16" s="10">
         <f>SUM(F16,F17)</f>
-        <v>1405.77</v>
+        <v>1494.6299999999999</v>
       </c>
       <c r="H16" s="10">
-        <v>1405.77</v>
+        <v>1494.63</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1042,49 +1042,49 @@
         <v>5</v>
       </c>
       <c r="C17" s="2">
-        <v>6500</v>
+        <v>6665</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" ref="D17" si="15">C17-C19</f>
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="E17" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="12">
         <f t="shared" si="14"/>
-        <v>336.59999999999997</v>
+        <v>420.74999999999994</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
-        <v>44305</v>
+        <v>44322</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="2">
-        <v>9124</v>
+        <v>9351</v>
       </c>
       <c r="D18" s="2">
         <f>C18-C20</f>
-        <v>134</v>
+        <v>227</v>
       </c>
       <c r="E18" s="6">
         <v>4.71</v>
       </c>
       <c r="F18" s="8">
         <f t="shared" ref="F18:F19" si="16">D18*E18</f>
-        <v>631.14</v>
+        <v>1069.17</v>
       </c>
       <c r="G18" s="10">
         <f>SUM(F18,F19)</f>
-        <v>886.14</v>
+        <v>1405.77</v>
       </c>
       <c r="H18" s="10">
-        <v>886.14</v>
+        <v>1405.77</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1093,49 +1093,49 @@
         <v>5</v>
       </c>
       <c r="C19" s="2">
-        <v>6368</v>
+        <v>6500</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" ref="D19" si="17">C19-C21</f>
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="E19" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F19" s="12">
         <f t="shared" si="16"/>
-        <v>254.99999999999997</v>
+        <v>336.59999999999997</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
-        <v>44270</v>
+        <v>44305</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="2">
-        <v>8990</v>
+        <v>9124</v>
       </c>
       <c r="D20" s="2">
         <f>C20-C22</f>
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="E20" s="6">
         <v>4.71</v>
       </c>
       <c r="F20" s="8">
         <f t="shared" ref="F20:F21" si="18">D20*E20</f>
-        <v>80.069999999999993</v>
+        <v>631.14</v>
       </c>
       <c r="G20" s="10">
         <f>SUM(F20,F21)</f>
-        <v>80.069999999999993</v>
+        <v>886.14</v>
       </c>
       <c r="H20" s="10">
-        <v>83.47</v>
+        <v>886.14</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1144,49 +1144,49 @@
         <v>5</v>
       </c>
       <c r="C21" s="2">
-        <v>6268</v>
+        <v>6368</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" ref="D21" si="19">C21-C23</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E21" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F21" s="12">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>254.99999999999997</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
-        <v>44256</v>
+        <v>44270</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="2">
-        <v>8973</v>
+        <v>8990</v>
       </c>
       <c r="D22" s="2">
         <f>C22-C24</f>
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="E22" s="6">
         <v>4.71</v>
       </c>
       <c r="F22" s="8">
         <f t="shared" ref="F22:F23" si="20">D22*E22</f>
-        <v>471</v>
+        <v>80.069999999999993</v>
       </c>
       <c r="G22" s="10">
         <f>SUM(F22,F23)</f>
-        <v>471</v>
+        <v>80.069999999999993</v>
       </c>
       <c r="H22" s="10">
-        <v>471</v>
+        <v>83.47</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1213,31 +1213,31 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
-        <v>44207</v>
+        <v>44256</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="2">
-        <v>8873</v>
+        <v>8973</v>
       </c>
       <c r="D24" s="2">
         <f>C24-C26</f>
-        <v>401</v>
+        <v>100</v>
       </c>
       <c r="E24" s="6">
         <v>4.71</v>
       </c>
       <c r="F24" s="8">
         <f t="shared" ref="F24:F25" si="22">D24*E24</f>
-        <v>1888.71</v>
+        <v>471</v>
       </c>
       <c r="G24" s="10">
         <f>SUM(F24,F25)</f>
-        <v>2419.11</v>
+        <v>471</v>
       </c>
       <c r="H24" s="10">
-        <v>2419.11</v>
+        <v>471</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1250,45 +1250,45 @@
       </c>
       <c r="D25" s="2">
         <f t="shared" ref="D25" si="23">C25-C27</f>
-        <v>208</v>
+        <v>0</v>
       </c>
       <c r="E25" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F25" s="12">
         <f t="shared" si="22"/>
-        <v>530.4</v>
+        <v>0</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
-        <v>44200</v>
+        <v>44207</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C26" s="2">
-        <v>8472</v>
+        <v>8873</v>
       </c>
       <c r="D26" s="2">
         <f>C26-C28</f>
-        <v>310</v>
+        <v>401</v>
       </c>
       <c r="E26" s="6">
         <v>4.71</v>
       </c>
       <c r="F26" s="8">
         <f t="shared" ref="F26:F27" si="24">D26*E26</f>
-        <v>1460.1</v>
+        <v>1888.71</v>
       </c>
       <c r="G26" s="10">
         <f>SUM(F26,F27)</f>
-        <v>1926.75</v>
+        <v>2419.11</v>
       </c>
       <c r="H26" s="10">
-        <v>1926.75</v>
+        <v>2419.11</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1297,49 +1297,49 @@
         <v>5</v>
       </c>
       <c r="C27" s="2">
-        <v>6060</v>
+        <v>6268</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" ref="D27:D47" si="25">C27-C29</f>
-        <v>183</v>
+        <f t="shared" ref="D27" si="25">C27-C29</f>
+        <v>208</v>
       </c>
       <c r="E27" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F27" s="12">
         <f t="shared" si="24"/>
-        <v>466.65</v>
+        <v>530.4</v>
       </c>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
-        <v>44193</v>
+        <v>44200</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C28" s="2">
-        <v>8162</v>
+        <v>8472</v>
       </c>
       <c r="D28" s="2">
         <f>C28-C30</f>
-        <v>231</v>
+        <v>310</v>
       </c>
       <c r="E28" s="6">
         <v>4.71</v>
       </c>
       <c r="F28" s="8">
-        <f t="shared" ref="F28:F47" si="26">D28*E28</f>
-        <v>1088.01</v>
+        <f t="shared" ref="F28:F29" si="26">D28*E28</f>
+        <v>1460.1</v>
       </c>
       <c r="G28" s="10">
         <f>SUM(F28,F29)</f>
-        <v>1608.21</v>
+        <v>1926.75</v>
       </c>
       <c r="H28" s="10">
-        <v>1608.21</v>
+        <v>1926.75</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1348,49 +1348,49 @@
         <v>5</v>
       </c>
       <c r="C29" s="2">
-        <v>5877</v>
+        <v>6060</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" si="25"/>
-        <v>204</v>
+        <f t="shared" ref="D29:D49" si="27">C29-C31</f>
+        <v>183</v>
       </c>
       <c r="E29" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F29" s="12">
         <f t="shared" si="26"/>
-        <v>520.19999999999993</v>
+        <v>466.65</v>
       </c>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
-        <v>44186</v>
+      <c r="A30" s="14">
+        <v>44193</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C30" s="2">
-        <v>7931</v>
+        <v>8162</v>
       </c>
       <c r="D30" s="2">
-        <f t="shared" si="25"/>
-        <v>221</v>
+        <f>C30-C32</f>
+        <v>231</v>
       </c>
       <c r="E30" s="6">
         <v>4.71</v>
       </c>
       <c r="F30" s="8">
-        <f t="shared" si="26"/>
-        <v>1040.9100000000001</v>
+        <f t="shared" ref="F30:F49" si="28">D30*E30</f>
+        <v>1088.01</v>
       </c>
       <c r="G30" s="10">
         <f>SUM(F30,F31)</f>
-        <v>1525.41</v>
+        <v>1608.21</v>
       </c>
       <c r="H30" s="10">
-        <v>1525.41</v>
+        <v>1608.21</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1399,49 +1399,49 @@
         <v>5</v>
       </c>
       <c r="C31" s="2">
-        <v>5673</v>
+        <v>5877</v>
       </c>
       <c r="D31" s="2">
-        <f t="shared" si="25"/>
-        <v>190</v>
+        <f t="shared" si="27"/>
+        <v>204</v>
       </c>
       <c r="E31" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F31" s="12">
-        <f t="shared" si="26"/>
-        <v>484.49999999999994</v>
+        <f t="shared" si="28"/>
+        <v>520.19999999999993</v>
       </c>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
-        <v>44179</v>
+        <v>44186</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C32" s="2">
-        <v>7710</v>
+        <v>7931</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" si="25"/>
-        <v>157</v>
+        <f t="shared" si="27"/>
+        <v>221</v>
       </c>
       <c r="E32" s="6">
         <v>4.71</v>
       </c>
       <c r="F32" s="8">
-        <f t="shared" si="26"/>
-        <v>739.47</v>
+        <f t="shared" si="28"/>
+        <v>1040.9100000000001</v>
       </c>
       <c r="G32" s="10">
         <f>SUM(F32,F33)</f>
-        <v>1180.6199999999999</v>
+        <v>1525.41</v>
       </c>
       <c r="H32" s="10">
-        <v>1180.6199999999999</v>
+        <v>1525.41</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1450,49 +1450,49 @@
         <v>5</v>
       </c>
       <c r="C33" s="2">
-        <v>5483</v>
+        <v>5673</v>
       </c>
       <c r="D33" s="2">
-        <f>C33-C35</f>
-        <v>173</v>
+        <f t="shared" si="27"/>
+        <v>190</v>
       </c>
       <c r="E33" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F33" s="12">
-        <f t="shared" si="26"/>
-        <v>441.15</v>
+        <f t="shared" si="28"/>
+        <v>484.49999999999994</v>
       </c>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
-        <v>44172</v>
+        <v>44179</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C34" s="2">
-        <v>7553</v>
+        <v>7710</v>
       </c>
       <c r="D34" s="2">
-        <f t="shared" si="25"/>
-        <v>168</v>
+        <f t="shared" si="27"/>
+        <v>157</v>
       </c>
       <c r="E34" s="6">
         <v>4.71</v>
       </c>
       <c r="F34" s="8">
-        <f t="shared" si="26"/>
-        <v>791.28</v>
+        <f t="shared" si="28"/>
+        <v>739.47</v>
       </c>
       <c r="G34" s="10">
         <f>SUM(F34,F35)</f>
-        <v>1204.3799999999999</v>
+        <v>1180.6199999999999</v>
       </c>
       <c r="H34" s="10">
-        <v>1204.3800000000001</v>
+        <v>1180.6199999999999</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1501,49 +1501,49 @@
         <v>5</v>
       </c>
       <c r="C35" s="2">
-        <v>5310</v>
+        <v>5483</v>
       </c>
       <c r="D35" s="2">
-        <f t="shared" si="25"/>
-        <v>162</v>
+        <f>C35-C37</f>
+        <v>173</v>
       </c>
       <c r="E35" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F35" s="12">
-        <f t="shared" si="26"/>
-        <v>413.09999999999997</v>
+        <f t="shared" si="28"/>
+        <v>441.15</v>
       </c>
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
-        <v>44165</v>
+        <v>44172</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C36" s="2">
-        <v>7385</v>
+        <v>7553</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" si="25"/>
-        <v>150</v>
+        <f t="shared" si="27"/>
+        <v>168</v>
       </c>
       <c r="E36" s="6">
         <v>4.71</v>
       </c>
       <c r="F36" s="8">
-        <f t="shared" si="26"/>
-        <v>706.5</v>
+        <f t="shared" si="28"/>
+        <v>791.28</v>
       </c>
       <c r="G36" s="10">
         <f>SUM(F36,F37)</f>
-        <v>1211.4000000000001</v>
+        <v>1204.3799999999999</v>
       </c>
       <c r="H36" s="10">
-        <v>1211.4000000000001</v>
+        <v>1204.3800000000001</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1552,49 +1552,49 @@
         <v>5</v>
       </c>
       <c r="C37" s="2">
-        <v>5148</v>
+        <v>5310</v>
       </c>
       <c r="D37" s="2">
-        <f t="shared" si="25"/>
-        <v>198</v>
+        <f t="shared" si="27"/>
+        <v>162</v>
       </c>
       <c r="E37" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F37" s="12">
-        <f t="shared" si="26"/>
-        <v>504.9</v>
+        <f t="shared" si="28"/>
+        <v>413.09999999999997</v>
       </c>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
-        <v>44158</v>
+        <v>44165</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C38" s="2">
-        <v>7235</v>
+        <v>7385</v>
       </c>
       <c r="D38" s="2">
-        <f t="shared" si="25"/>
-        <v>229</v>
+        <f t="shared" si="27"/>
+        <v>150</v>
       </c>
       <c r="E38" s="6">
         <v>4.71</v>
       </c>
       <c r="F38" s="8">
-        <f t="shared" si="26"/>
-        <v>1078.5899999999999</v>
+        <f t="shared" si="28"/>
+        <v>706.5</v>
       </c>
       <c r="G38" s="10">
         <f>SUM(F38,F39)</f>
-        <v>1812.9899999999998</v>
+        <v>1211.4000000000001</v>
       </c>
       <c r="H38" s="10">
-        <v>1812.99</v>
+        <v>1211.4000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1603,49 +1603,49 @@
         <v>5</v>
       </c>
       <c r="C39" s="2">
-        <v>4950</v>
+        <v>5148</v>
       </c>
       <c r="D39" s="2">
-        <f t="shared" si="25"/>
-        <v>288</v>
+        <f t="shared" si="27"/>
+        <v>198</v>
       </c>
       <c r="E39" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F39" s="12">
-        <f t="shared" si="26"/>
-        <v>734.4</v>
+        <f t="shared" si="28"/>
+        <v>504.9</v>
       </c>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
-        <v>44144</v>
+        <v>44158</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C40" s="2">
-        <v>7006</v>
+        <v>7235</v>
       </c>
       <c r="D40" s="2">
-        <f t="shared" si="25"/>
-        <v>193</v>
+        <f t="shared" si="27"/>
+        <v>229</v>
       </c>
       <c r="E40" s="6">
         <v>4.71</v>
       </c>
       <c r="F40" s="8">
-        <f t="shared" si="26"/>
-        <v>909.03</v>
+        <f t="shared" si="28"/>
+        <v>1078.5899999999999</v>
       </c>
       <c r="G40" s="10">
         <f>SUM(F40,F41)</f>
-        <v>1248.1799999999998</v>
+        <v>1812.9899999999998</v>
       </c>
       <c r="H40" s="10">
-        <v>1248.18</v>
+        <v>1812.99</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -1654,49 +1654,49 @@
         <v>5</v>
       </c>
       <c r="C41" s="2">
-        <v>4662</v>
+        <v>4950</v>
       </c>
       <c r="D41" s="2">
-        <f t="shared" si="25"/>
-        <v>133</v>
+        <f t="shared" si="27"/>
+        <v>288</v>
       </c>
       <c r="E41" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F41" s="12">
-        <f t="shared" si="26"/>
-        <v>339.15</v>
+        <f t="shared" si="28"/>
+        <v>734.4</v>
       </c>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
-        <v>44137</v>
+        <v>44144</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C42" s="2">
-        <v>6813</v>
+        <v>7006</v>
       </c>
       <c r="D42" s="2">
-        <f t="shared" si="25"/>
-        <v>189</v>
+        <f t="shared" si="27"/>
+        <v>193</v>
       </c>
       <c r="E42" s="6">
         <v>4.71</v>
       </c>
       <c r="F42" s="8">
-        <f t="shared" si="26"/>
-        <v>890.18999999999994</v>
+        <f t="shared" si="28"/>
+        <v>909.03</v>
       </c>
       <c r="G42" s="10">
         <f>SUM(F42,F43)</f>
-        <v>1295.6399999999999</v>
+        <v>1248.1799999999998</v>
       </c>
       <c r="H42" s="10">
-        <v>1295.6400000000001</v>
+        <v>1248.18</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -1705,49 +1705,49 @@
         <v>5</v>
       </c>
       <c r="C43" s="2">
-        <v>4529</v>
+        <v>4662</v>
       </c>
       <c r="D43" s="2">
-        <f t="shared" si="25"/>
-        <v>159</v>
+        <f t="shared" si="27"/>
+        <v>133</v>
       </c>
       <c r="E43" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F43" s="12">
-        <f t="shared" si="26"/>
-        <v>405.45</v>
+        <f t="shared" si="28"/>
+        <v>339.15</v>
       </c>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
-        <v>44126</v>
+        <v>44137</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C44" s="2">
-        <v>6624</v>
+        <v>6813</v>
       </c>
       <c r="D44" s="2">
-        <f t="shared" si="25"/>
-        <v>438</v>
+        <f t="shared" si="27"/>
+        <v>189</v>
       </c>
       <c r="E44" s="6">
         <v>4.71</v>
       </c>
       <c r="F44" s="8">
-        <f t="shared" si="26"/>
-        <v>2062.98</v>
+        <f t="shared" si="28"/>
+        <v>890.18999999999994</v>
       </c>
       <c r="G44" s="10">
         <f>SUM(F44,F45)</f>
-        <v>2774.43</v>
+        <v>1295.6399999999999</v>
       </c>
       <c r="H44" s="10">
-        <v>2774.43</v>
+        <v>1295.6400000000001</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -1756,49 +1756,49 @@
         <v>5</v>
       </c>
       <c r="C45" s="2">
-        <v>4370</v>
+        <v>4529</v>
       </c>
       <c r="D45" s="2">
-        <f t="shared" si="25"/>
-        <v>279</v>
+        <f t="shared" si="27"/>
+        <v>159</v>
       </c>
       <c r="E45" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F45" s="12">
-        <f t="shared" si="26"/>
-        <v>711.44999999999993</v>
+        <f t="shared" si="28"/>
+        <v>405.45</v>
       </c>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
-        <v>44116</v>
+        <v>44126</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C46" s="2">
-        <v>6186</v>
+        <v>6624</v>
       </c>
       <c r="D46" s="2">
-        <f t="shared" si="25"/>
-        <v>329</v>
+        <f t="shared" si="27"/>
+        <v>438</v>
       </c>
       <c r="E46" s="6">
         <v>4.71</v>
       </c>
       <c r="F46" s="8">
-        <f t="shared" si="26"/>
-        <v>1549.59</v>
+        <f t="shared" si="28"/>
+        <v>2062.98</v>
       </c>
       <c r="G46" s="10">
         <f>SUM(F46,F47)</f>
-        <v>2189.64</v>
+        <v>2774.43</v>
       </c>
       <c r="H46" s="10">
-        <v>2189.64</v>
+        <v>2774.43</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -1807,37 +1807,50 @@
         <v>5</v>
       </c>
       <c r="C47" s="2">
-        <v>4091</v>
+        <v>4370</v>
       </c>
       <c r="D47" s="2">
-        <f t="shared" si="25"/>
-        <v>251</v>
+        <f t="shared" si="27"/>
+        <v>279</v>
       </c>
       <c r="E47" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F47" s="12">
-        <f t="shared" si="26"/>
-        <v>640.04999999999995</v>
+        <f t="shared" si="28"/>
+        <v>711.44999999999993</v>
       </c>
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
-        <v>44102</v>
+        <v>44116</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C48" s="2">
-        <v>5857</v>
-      </c>
-      <c r="D48" s="2"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
+        <v>6186</v>
+      </c>
+      <c r="D48" s="2">
+        <f t="shared" si="27"/>
+        <v>329</v>
+      </c>
+      <c r="E48" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F48" s="8">
+        <f t="shared" si="28"/>
+        <v>1549.59</v>
+      </c>
+      <c r="G48" s="10">
+        <f>SUM(F48,F49)</f>
+        <v>2189.64</v>
+      </c>
+      <c r="H48" s="10">
+        <v>2189.64</v>
+      </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
@@ -1845,28 +1858,66 @@
         <v>5</v>
       </c>
       <c r="C49" s="2">
-        <v>3840</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="16"/>
+        <v>4091</v>
+      </c>
+      <c r="D49" s="2">
+        <f t="shared" si="27"/>
+        <v>251</v>
+      </c>
+      <c r="E49" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F49" s="12">
+        <f t="shared" si="28"/>
+        <v>640.04999999999995</v>
+      </c>
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G50" s="10">
-        <f>SUM(G8:G49)</f>
+      <c r="A50" s="5">
+        <v>44102</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="2">
+        <v>5857</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="2">
+        <v>3840</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G52" s="10">
+        <f>SUM(G10:G51)</f>
         <v>27454.589999999997</v>
       </c>
-      <c r="H50" s="10">
-        <f>SUM(H8:H49)</f>
+      <c r="H52" s="10">
+        <f>SUM(H10:H51)</f>
         <v>27455.440000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G51" s="17"/>
-      <c r="H51" s="10">
-        <f>SUM(H50,-G50)</f>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G53" s="17"/>
+      <c r="H53" s="10">
+        <f>SUM(H52,-G52)</f>
         <v>0.85000000000582077</v>
       </c>
     </row>

--- a/sputnik/personal/ee/253ee.xlsx
+++ b/sputnik/personal/ee/253ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\18.06.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 15.07.2021 вкл-но\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\06.09.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 06.09.2021 вкл-но\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -603,7 +603,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
@@ -652,31 +652,31 @@
     </row>
     <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
-        <v>44399</v>
+        <v>44452</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="2">
-        <v>10193</v>
+        <v>10977</v>
       </c>
       <c r="D2" s="2">
         <f>C2-C4</f>
-        <v>42</v>
+        <v>249</v>
       </c>
       <c r="E2" s="6">
         <v>4.96</v>
       </c>
       <c r="F2" s="8">
         <f t="shared" ref="F2:F3" si="0">D2*E2</f>
-        <v>208.32</v>
+        <v>1235.04</v>
       </c>
       <c r="G2" s="10">
         <f>SUM(F2,F3)</f>
-        <v>256.56</v>
+        <v>1690.6399999999999</v>
       </c>
       <c r="H2" s="10">
-        <v>256.56</v>
+        <v>1690.64</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -685,49 +685,49 @@
         <v>5</v>
       </c>
       <c r="C3" s="2">
-        <v>7104</v>
+        <v>7552</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" ref="D3" si="1">C3-C5</f>
-        <v>18</v>
+        <v>170</v>
       </c>
       <c r="E3" s="2">
         <v>2.68</v>
       </c>
       <c r="F3" s="12">
         <f t="shared" si="0"/>
-        <v>48.24</v>
+        <v>455.6</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
-        <v>44389</v>
+        <v>44440</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="2">
-        <v>10151</v>
+        <v>10728</v>
       </c>
       <c r="D4" s="2">
         <f>C4-C6</f>
-        <v>36</v>
+        <v>232</v>
       </c>
       <c r="E4" s="6">
         <v>4.96</v>
       </c>
       <c r="F4" s="8">
         <f t="shared" ref="F4:F5" si="2">D4*E4</f>
-        <v>178.56</v>
+        <v>1150.72</v>
       </c>
       <c r="G4" s="10">
         <f>SUM(F4,F5)</f>
-        <v>232.16</v>
+        <v>1499.1200000000001</v>
       </c>
       <c r="H4" s="10">
-        <v>232.16</v>
+        <v>1499.12</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -736,49 +736,49 @@
         <v>5</v>
       </c>
       <c r="C5" s="2">
-        <v>7086</v>
+        <v>7382</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" ref="D5" si="3">C5-C7</f>
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="E5" s="2">
         <v>2.68</v>
       </c>
       <c r="F5" s="12">
         <f t="shared" si="2"/>
-        <v>53.6</v>
+        <v>348.40000000000003</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
-        <v>44378</v>
+        <v>44431</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="2">
-        <v>10115</v>
+        <v>10496</v>
       </c>
       <c r="D6" s="2">
         <f>C6-C8</f>
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="E6" s="6">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F6" s="8">
         <f t="shared" ref="F6:F7" si="4">D6*E6</f>
-        <v>202.53</v>
+        <v>381.92</v>
       </c>
       <c r="G6" s="10">
         <f>SUM(F6,F7)</f>
-        <v>250.98</v>
+        <v>505.20000000000005</v>
       </c>
       <c r="H6" s="10">
-        <v>250.98</v>
+        <v>505.2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -787,49 +787,49 @@
         <v>5</v>
       </c>
       <c r="C7" s="2">
-        <v>7066</v>
+        <v>7252</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" ref="D7" si="5">C7-C9</f>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="E7" s="2">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F7" s="12">
         <f t="shared" si="4"/>
-        <v>48.449999999999996</v>
+        <v>123.28</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
-        <v>44368</v>
+        <v>44423</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="2">
-        <v>10072</v>
+        <v>10419</v>
       </c>
       <c r="D8" s="2">
         <f>C8-C10</f>
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="E8" s="6">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F8" s="8">
         <f t="shared" ref="F8:F9" si="6">D8*E8</f>
-        <v>405.06</v>
+        <v>238.07999999999998</v>
       </c>
       <c r="G8" s="10">
         <f>SUM(F8,F9)</f>
-        <v>575.91</v>
+        <v>294.36</v>
       </c>
       <c r="H8" s="10">
-        <v>575.91</v>
+        <v>294.36</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -838,49 +838,49 @@
         <v>5</v>
       </c>
       <c r="C9" s="2">
-        <v>7047</v>
+        <v>7206</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" ref="D9" si="7">C9-C11</f>
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="E9" s="2">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F9" s="12">
         <f t="shared" si="6"/>
-        <v>170.85</v>
+        <v>56.28</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
-        <v>44356</v>
+        <v>44418</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="2">
-        <v>9986</v>
+        <v>10371</v>
       </c>
       <c r="D10" s="2">
         <f>C10-C12</f>
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="E10" s="6">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F10" s="8">
         <f t="shared" ref="F10:F11" si="8">D10*E10</f>
-        <v>329.7</v>
+        <v>510.88</v>
       </c>
       <c r="G10" s="10">
         <f>SUM(F10,F11)</f>
-        <v>485.25</v>
+        <v>636.84</v>
       </c>
       <c r="H10" s="10">
-        <v>485.25</v>
+        <v>636.84</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -889,100 +889,100 @@
         <v>5</v>
       </c>
       <c r="C11" s="2">
-        <v>6980</v>
+        <v>7185</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" ref="D11" si="9">C11-C13</f>
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="E11" s="2">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F11" s="12">
         <f t="shared" si="8"/>
-        <v>155.54999999999998</v>
+        <v>125.96000000000001</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
-        <v>44350</v>
+        <v>44410</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="2">
-        <v>9916</v>
+        <v>10268</v>
       </c>
       <c r="D12" s="2">
         <f>C12-C14</f>
-        <v>192</v>
+        <v>75</v>
       </c>
       <c r="E12" s="6">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F12" s="8">
         <f t="shared" ref="F12:F13" si="10">D12*E12</f>
-        <v>904.31999999999994</v>
+        <v>372</v>
       </c>
       <c r="G12" s="10">
         <f>SUM(F12,F13)</f>
-        <v>1268.9699999999998</v>
+        <v>463.12</v>
       </c>
       <c r="H12" s="10">
-        <v>1266.42</v>
+        <v>463.12</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
+      <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="2">
-        <v>6919</v>
+        <v>7138</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" ref="D13" si="11">C13-C15</f>
-        <v>143</v>
+        <v>34</v>
       </c>
       <c r="E13" s="2">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F13" s="12">
         <f t="shared" si="10"/>
-        <v>364.65</v>
+        <v>91.12</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
-        <v>44344</v>
+        <v>44399</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="2">
-        <v>9724</v>
+        <v>10193</v>
       </c>
       <c r="D14" s="2">
         <f>C14-C16</f>
-        <v>145</v>
+        <v>42</v>
       </c>
       <c r="E14" s="6">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F14" s="8">
         <f t="shared" ref="F14:F15" si="12">D14*E14</f>
-        <v>682.95</v>
+        <v>208.32</v>
       </c>
       <c r="G14" s="10">
         <f>SUM(F14,F15)</f>
-        <v>966</v>
+        <v>256.56</v>
       </c>
       <c r="H14" s="10">
-        <v>966</v>
+        <v>256.56</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -991,49 +991,49 @@
         <v>5</v>
       </c>
       <c r="C15" s="2">
-        <v>6776</v>
+        <v>7104</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" ref="D15" si="13">C15-C17</f>
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="E15" s="2">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F15" s="12">
         <f t="shared" si="12"/>
-        <v>283.04999999999995</v>
+        <v>48.24</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
-        <v>44333</v>
+        <v>44389</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="2">
-        <v>9579</v>
+        <v>10151</v>
       </c>
       <c r="D16" s="2">
         <f>C16-C18</f>
-        <v>228</v>
+        <v>36</v>
       </c>
       <c r="E16" s="6">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F16" s="8">
         <f t="shared" ref="F16:F17" si="14">D16*E16</f>
-        <v>1073.8799999999999</v>
+        <v>178.56</v>
       </c>
       <c r="G16" s="10">
         <f>SUM(F16,F17)</f>
-        <v>1494.6299999999999</v>
+        <v>232.16</v>
       </c>
       <c r="H16" s="10">
-        <v>1494.63</v>
+        <v>232.16</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1042,49 +1042,49 @@
         <v>5</v>
       </c>
       <c r="C17" s="2">
-        <v>6665</v>
+        <v>7086</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" ref="D17" si="15">C17-C19</f>
-        <v>165</v>
+        <v>20</v>
       </c>
       <c r="E17" s="2">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F17" s="12">
         <f t="shared" si="14"/>
-        <v>420.74999999999994</v>
+        <v>53.6</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
-        <v>44322</v>
+        <v>44378</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="2">
-        <v>9351</v>
+        <v>10115</v>
       </c>
       <c r="D18" s="2">
         <f>C18-C20</f>
-        <v>227</v>
+        <v>43</v>
       </c>
       <c r="E18" s="6">
         <v>4.71</v>
       </c>
       <c r="F18" s="8">
         <f t="shared" ref="F18:F19" si="16">D18*E18</f>
-        <v>1069.17</v>
+        <v>202.53</v>
       </c>
       <c r="G18" s="10">
         <f>SUM(F18,F19)</f>
-        <v>1405.77</v>
+        <v>250.98</v>
       </c>
       <c r="H18" s="10">
-        <v>1405.77</v>
+        <v>250.98</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1093,49 +1093,49 @@
         <v>5</v>
       </c>
       <c r="C19" s="2">
-        <v>6500</v>
+        <v>7066</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" ref="D19" si="17">C19-C21</f>
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="E19" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F19" s="12">
         <f t="shared" si="16"/>
-        <v>336.59999999999997</v>
+        <v>48.449999999999996</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
-        <v>44305</v>
+        <v>44368</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="2">
-        <v>9124</v>
+        <v>10072</v>
       </c>
       <c r="D20" s="2">
         <f>C20-C22</f>
-        <v>134</v>
+        <v>86</v>
       </c>
       <c r="E20" s="6">
         <v>4.71</v>
       </c>
       <c r="F20" s="8">
         <f t="shared" ref="F20:F21" si="18">D20*E20</f>
-        <v>631.14</v>
+        <v>405.06</v>
       </c>
       <c r="G20" s="10">
         <f>SUM(F20,F21)</f>
-        <v>886.14</v>
+        <v>575.91</v>
       </c>
       <c r="H20" s="10">
-        <v>886.14</v>
+        <v>575.91</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1144,49 +1144,49 @@
         <v>5</v>
       </c>
       <c r="C21" s="2">
-        <v>6368</v>
+        <v>7047</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" ref="D21" si="19">C21-C23</f>
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="E21" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F21" s="12">
         <f t="shared" si="18"/>
-        <v>254.99999999999997</v>
+        <v>170.85</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
-        <v>44270</v>
+        <v>44356</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="2">
-        <v>8990</v>
+        <v>9986</v>
       </c>
       <c r="D22" s="2">
         <f>C22-C24</f>
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="E22" s="6">
         <v>4.71</v>
       </c>
       <c r="F22" s="8">
         <f t="shared" ref="F22:F23" si="20">D22*E22</f>
-        <v>80.069999999999993</v>
+        <v>329.7</v>
       </c>
       <c r="G22" s="10">
         <f>SUM(F22,F23)</f>
-        <v>80.069999999999993</v>
+        <v>485.25</v>
       </c>
       <c r="H22" s="10">
-        <v>83.47</v>
+        <v>485.25</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1195,100 +1195,100 @@
         <v>5</v>
       </c>
       <c r="C23" s="2">
-        <v>6268</v>
+        <v>6980</v>
       </c>
       <c r="D23" s="2">
         <f t="shared" ref="D23" si="21">C23-C25</f>
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="E23" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F23" s="12">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>155.54999999999998</v>
       </c>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
-        <v>44256</v>
+        <v>44350</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="2">
-        <v>8973</v>
+        <v>9916</v>
       </c>
       <c r="D24" s="2">
         <f>C24-C26</f>
-        <v>100</v>
+        <v>192</v>
       </c>
       <c r="E24" s="6">
         <v>4.71</v>
       </c>
       <c r="F24" s="8">
         <f t="shared" ref="F24:F25" si="22">D24*E24</f>
-        <v>471</v>
+        <v>904.31999999999994</v>
       </c>
       <c r="G24" s="10">
         <f>SUM(F24,F25)</f>
-        <v>471</v>
+        <v>1268.9699999999998</v>
       </c>
       <c r="H24" s="10">
-        <v>471</v>
+        <v>1266.42</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
+      <c r="A25" s="18"/>
       <c r="B25" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="2">
-        <v>6268</v>
+        <v>6919</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" ref="D25" si="23">C25-C27</f>
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="E25" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F25" s="12">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>364.65</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
-        <v>44207</v>
+        <v>44344</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C26" s="2">
-        <v>8873</v>
+        <v>9724</v>
       </c>
       <c r="D26" s="2">
         <f>C26-C28</f>
-        <v>401</v>
+        <v>145</v>
       </c>
       <c r="E26" s="6">
         <v>4.71</v>
       </c>
       <c r="F26" s="8">
         <f t="shared" ref="F26:F27" si="24">D26*E26</f>
-        <v>1888.71</v>
+        <v>682.95</v>
       </c>
       <c r="G26" s="10">
         <f>SUM(F26,F27)</f>
-        <v>2419.11</v>
+        <v>966</v>
       </c>
       <c r="H26" s="10">
-        <v>2419.11</v>
+        <v>966</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1297,49 +1297,49 @@
         <v>5</v>
       </c>
       <c r="C27" s="2">
-        <v>6268</v>
+        <v>6776</v>
       </c>
       <c r="D27" s="2">
         <f t="shared" ref="D27" si="25">C27-C29</f>
-        <v>208</v>
+        <v>111</v>
       </c>
       <c r="E27" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F27" s="12">
         <f t="shared" si="24"/>
-        <v>530.4</v>
+        <v>283.04999999999995</v>
       </c>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
-        <v>44200</v>
+        <v>44333</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C28" s="2">
-        <v>8472</v>
+        <v>9579</v>
       </c>
       <c r="D28" s="2">
         <f>C28-C30</f>
-        <v>310</v>
+        <v>228</v>
       </c>
       <c r="E28" s="6">
         <v>4.71</v>
       </c>
       <c r="F28" s="8">
         <f t="shared" ref="F28:F29" si="26">D28*E28</f>
-        <v>1460.1</v>
+        <v>1073.8799999999999</v>
       </c>
       <c r="G28" s="10">
         <f>SUM(F28,F29)</f>
-        <v>1926.75</v>
+        <v>1494.6299999999999</v>
       </c>
       <c r="H28" s="10">
-        <v>1926.75</v>
+        <v>1494.63</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1348,49 +1348,49 @@
         <v>5</v>
       </c>
       <c r="C29" s="2">
-        <v>6060</v>
+        <v>6665</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" ref="D29:D49" si="27">C29-C31</f>
-        <v>183</v>
+        <f t="shared" ref="D29" si="27">C29-C31</f>
+        <v>165</v>
       </c>
       <c r="E29" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F29" s="12">
         <f t="shared" si="26"/>
-        <v>466.65</v>
+        <v>420.74999999999994</v>
       </c>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
-        <v>44193</v>
+        <v>44322</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C30" s="2">
-        <v>8162</v>
+        <v>9351</v>
       </c>
       <c r="D30" s="2">
         <f>C30-C32</f>
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E30" s="6">
         <v>4.71</v>
       </c>
       <c r="F30" s="8">
-        <f t="shared" ref="F30:F49" si="28">D30*E30</f>
-        <v>1088.01</v>
+        <f t="shared" ref="F30:F31" si="28">D30*E30</f>
+        <v>1069.17</v>
       </c>
       <c r="G30" s="10">
         <f>SUM(F30,F31)</f>
-        <v>1608.21</v>
+        <v>1405.77</v>
       </c>
       <c r="H30" s="10">
-        <v>1608.21</v>
+        <v>1405.77</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1399,49 +1399,49 @@
         <v>5</v>
       </c>
       <c r="C31" s="2">
-        <v>5877</v>
+        <v>6500</v>
       </c>
       <c r="D31" s="2">
-        <f t="shared" si="27"/>
-        <v>204</v>
+        <f t="shared" ref="D31" si="29">C31-C33</f>
+        <v>132</v>
       </c>
       <c r="E31" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F31" s="12">
         <f t="shared" si="28"/>
-        <v>520.19999999999993</v>
+        <v>336.59999999999997</v>
       </c>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
-        <v>44186</v>
+      <c r="A32" s="14">
+        <v>44305</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C32" s="2">
-        <v>7931</v>
+        <v>9124</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" si="27"/>
-        <v>221</v>
+        <f>C32-C34</f>
+        <v>134</v>
       </c>
       <c r="E32" s="6">
         <v>4.71</v>
       </c>
       <c r="F32" s="8">
-        <f t="shared" si="28"/>
-        <v>1040.9100000000001</v>
+        <f t="shared" ref="F32:F33" si="30">D32*E32</f>
+        <v>631.14</v>
       </c>
       <c r="G32" s="10">
         <f>SUM(F32,F33)</f>
-        <v>1525.41</v>
+        <v>886.14</v>
       </c>
       <c r="H32" s="10">
-        <v>1525.41</v>
+        <v>886.14</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1450,49 +1450,49 @@
         <v>5</v>
       </c>
       <c r="C33" s="2">
-        <v>5673</v>
+        <v>6368</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" si="27"/>
-        <v>190</v>
+        <f t="shared" ref="D33" si="31">C33-C35</f>
+        <v>100</v>
       </c>
       <c r="E33" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F33" s="12">
-        <f t="shared" si="28"/>
-        <v>484.49999999999994</v>
+        <f t="shared" si="30"/>
+        <v>254.99999999999997</v>
       </c>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
-        <v>44179</v>
+      <c r="A34" s="14">
+        <v>44270</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C34" s="2">
-        <v>7710</v>
+        <v>8990</v>
       </c>
       <c r="D34" s="2">
-        <f t="shared" si="27"/>
-        <v>157</v>
+        <f>C34-C36</f>
+        <v>17</v>
       </c>
       <c r="E34" s="6">
         <v>4.71</v>
       </c>
       <c r="F34" s="8">
-        <f t="shared" si="28"/>
-        <v>739.47</v>
+        <f t="shared" ref="F34:F35" si="32">D34*E34</f>
+        <v>80.069999999999993</v>
       </c>
       <c r="G34" s="10">
         <f>SUM(F34,F35)</f>
-        <v>1180.6199999999999</v>
+        <v>80.069999999999993</v>
       </c>
       <c r="H34" s="10">
-        <v>1180.6199999999999</v>
+        <v>83.47</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1501,49 +1501,49 @@
         <v>5</v>
       </c>
       <c r="C35" s="2">
-        <v>5483</v>
+        <v>6268</v>
       </c>
       <c r="D35" s="2">
-        <f>C35-C37</f>
-        <v>173</v>
+        <f t="shared" ref="D35" si="33">C35-C37</f>
+        <v>0</v>
       </c>
       <c r="E35" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F35" s="12">
-        <f t="shared" si="28"/>
-        <v>441.15</v>
+        <f t="shared" si="32"/>
+        <v>0</v>
       </c>
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
-        <v>44172</v>
+      <c r="A36" s="14">
+        <v>44256</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C36" s="2">
-        <v>7553</v>
+        <v>8973</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" si="27"/>
-        <v>168</v>
+        <f>C36-C38</f>
+        <v>100</v>
       </c>
       <c r="E36" s="6">
         <v>4.71</v>
       </c>
       <c r="F36" s="8">
-        <f t="shared" si="28"/>
-        <v>791.28</v>
+        <f t="shared" ref="F36:F37" si="34">D36*E36</f>
+        <v>471</v>
       </c>
       <c r="G36" s="10">
         <f>SUM(F36,F37)</f>
-        <v>1204.3799999999999</v>
+        <v>471</v>
       </c>
       <c r="H36" s="10">
-        <v>1204.3800000000001</v>
+        <v>471</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1552,49 +1552,49 @@
         <v>5</v>
       </c>
       <c r="C37" s="2">
-        <v>5310</v>
+        <v>6268</v>
       </c>
       <c r="D37" s="2">
-        <f t="shared" si="27"/>
-        <v>162</v>
+        <f t="shared" ref="D37" si="35">C37-C39</f>
+        <v>0</v>
       </c>
       <c r="E37" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F37" s="12">
-        <f t="shared" si="28"/>
-        <v>413.09999999999997</v>
+        <f t="shared" si="34"/>
+        <v>0</v>
       </c>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
-        <v>44165</v>
+      <c r="A38" s="14">
+        <v>44207</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C38" s="2">
-        <v>7385</v>
+        <v>8873</v>
       </c>
       <c r="D38" s="2">
-        <f t="shared" si="27"/>
-        <v>150</v>
+        <f>C38-C40</f>
+        <v>401</v>
       </c>
       <c r="E38" s="6">
         <v>4.71</v>
       </c>
       <c r="F38" s="8">
-        <f t="shared" si="28"/>
-        <v>706.5</v>
+        <f t="shared" ref="F38:F39" si="36">D38*E38</f>
+        <v>1888.71</v>
       </c>
       <c r="G38" s="10">
         <f>SUM(F38,F39)</f>
-        <v>1211.4000000000001</v>
+        <v>2419.11</v>
       </c>
       <c r="H38" s="10">
-        <v>1211.4000000000001</v>
+        <v>2419.11</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1603,49 +1603,49 @@
         <v>5</v>
       </c>
       <c r="C39" s="2">
-        <v>5148</v>
+        <v>6268</v>
       </c>
       <c r="D39" s="2">
-        <f t="shared" si="27"/>
-        <v>198</v>
+        <f t="shared" ref="D39" si="37">C39-C41</f>
+        <v>208</v>
       </c>
       <c r="E39" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F39" s="12">
-        <f t="shared" si="28"/>
-        <v>504.9</v>
+        <f t="shared" si="36"/>
+        <v>530.4</v>
       </c>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
-        <v>44158</v>
+      <c r="A40" s="14">
+        <v>44200</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C40" s="2">
-        <v>7235</v>
+        <v>8472</v>
       </c>
       <c r="D40" s="2">
-        <f t="shared" si="27"/>
-        <v>229</v>
+        <f>C40-C42</f>
+        <v>310</v>
       </c>
       <c r="E40" s="6">
         <v>4.71</v>
       </c>
       <c r="F40" s="8">
-        <f t="shared" si="28"/>
-        <v>1078.5899999999999</v>
+        <f t="shared" ref="F40:F41" si="38">D40*E40</f>
+        <v>1460.1</v>
       </c>
       <c r="G40" s="10">
         <f>SUM(F40,F41)</f>
-        <v>1812.9899999999998</v>
+        <v>1926.75</v>
       </c>
       <c r="H40" s="10">
-        <v>1812.99</v>
+        <v>1926.75</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -1654,49 +1654,49 @@
         <v>5</v>
       </c>
       <c r="C41" s="2">
-        <v>4950</v>
+        <v>6060</v>
       </c>
       <c r="D41" s="2">
-        <f t="shared" si="27"/>
-        <v>288</v>
+        <f t="shared" ref="D41:D61" si="39">C41-C43</f>
+        <v>183</v>
       </c>
       <c r="E41" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F41" s="12">
-        <f t="shared" si="28"/>
-        <v>734.4</v>
+        <f t="shared" si="38"/>
+        <v>466.65</v>
       </c>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
-        <v>44144</v>
+      <c r="A42" s="14">
+        <v>44193</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C42" s="2">
-        <v>7006</v>
+        <v>8162</v>
       </c>
       <c r="D42" s="2">
-        <f t="shared" si="27"/>
-        <v>193</v>
+        <f>C42-C44</f>
+        <v>231</v>
       </c>
       <c r="E42" s="6">
         <v>4.71</v>
       </c>
       <c r="F42" s="8">
-        <f t="shared" si="28"/>
-        <v>909.03</v>
+        <f t="shared" ref="F42:F61" si="40">D42*E42</f>
+        <v>1088.01</v>
       </c>
       <c r="G42" s="10">
         <f>SUM(F42,F43)</f>
-        <v>1248.1799999999998</v>
+        <v>1608.21</v>
       </c>
       <c r="H42" s="10">
-        <v>1248.18</v>
+        <v>1608.21</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -1705,49 +1705,49 @@
         <v>5</v>
       </c>
       <c r="C43" s="2">
-        <v>4662</v>
+        <v>5877</v>
       </c>
       <c r="D43" s="2">
-        <f t="shared" si="27"/>
-        <v>133</v>
+        <f t="shared" si="39"/>
+        <v>204</v>
       </c>
       <c r="E43" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F43" s="12">
-        <f t="shared" si="28"/>
-        <v>339.15</v>
+        <f t="shared" si="40"/>
+        <v>520.19999999999993</v>
       </c>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
-        <v>44137</v>
+        <v>44186</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C44" s="2">
-        <v>6813</v>
+        <v>7931</v>
       </c>
       <c r="D44" s="2">
-        <f t="shared" si="27"/>
-        <v>189</v>
+        <f t="shared" si="39"/>
+        <v>221</v>
       </c>
       <c r="E44" s="6">
         <v>4.71</v>
       </c>
       <c r="F44" s="8">
-        <f t="shared" si="28"/>
-        <v>890.18999999999994</v>
+        <f t="shared" si="40"/>
+        <v>1040.9100000000001</v>
       </c>
       <c r="G44" s="10">
         <f>SUM(F44,F45)</f>
-        <v>1295.6399999999999</v>
+        <v>1525.41</v>
       </c>
       <c r="H44" s="10">
-        <v>1295.6400000000001</v>
+        <v>1525.41</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -1756,49 +1756,49 @@
         <v>5</v>
       </c>
       <c r="C45" s="2">
-        <v>4529</v>
+        <v>5673</v>
       </c>
       <c r="D45" s="2">
-        <f t="shared" si="27"/>
-        <v>159</v>
+        <f t="shared" si="39"/>
+        <v>190</v>
       </c>
       <c r="E45" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F45" s="12">
-        <f t="shared" si="28"/>
-        <v>405.45</v>
+        <f t="shared" si="40"/>
+        <v>484.49999999999994</v>
       </c>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
-        <v>44126</v>
+        <v>44179</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C46" s="2">
-        <v>6624</v>
+        <v>7710</v>
       </c>
       <c r="D46" s="2">
-        <f t="shared" si="27"/>
-        <v>438</v>
+        <f t="shared" si="39"/>
+        <v>157</v>
       </c>
       <c r="E46" s="6">
         <v>4.71</v>
       </c>
       <c r="F46" s="8">
-        <f t="shared" si="28"/>
-        <v>2062.98</v>
+        <f t="shared" si="40"/>
+        <v>739.47</v>
       </c>
       <c r="G46" s="10">
         <f>SUM(F46,F47)</f>
-        <v>2774.43</v>
+        <v>1180.6199999999999</v>
       </c>
       <c r="H46" s="10">
-        <v>2774.43</v>
+        <v>1180.6199999999999</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -1807,49 +1807,49 @@
         <v>5</v>
       </c>
       <c r="C47" s="2">
-        <v>4370</v>
+        <v>5483</v>
       </c>
       <c r="D47" s="2">
-        <f t="shared" si="27"/>
-        <v>279</v>
+        <f>C47-C49</f>
+        <v>173</v>
       </c>
       <c r="E47" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F47" s="12">
-        <f t="shared" si="28"/>
-        <v>711.44999999999993</v>
+        <f t="shared" si="40"/>
+        <v>441.15</v>
       </c>
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
-        <v>44116</v>
+        <v>44172</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C48" s="2">
-        <v>6186</v>
+        <v>7553</v>
       </c>
       <c r="D48" s="2">
-        <f t="shared" si="27"/>
-        <v>329</v>
+        <f t="shared" si="39"/>
+        <v>168</v>
       </c>
       <c r="E48" s="6">
         <v>4.71</v>
       </c>
       <c r="F48" s="8">
-        <f t="shared" si="28"/>
-        <v>1549.59</v>
+        <f t="shared" si="40"/>
+        <v>791.28</v>
       </c>
       <c r="G48" s="10">
         <f>SUM(F48,F49)</f>
-        <v>2189.64</v>
+        <v>1204.3799999999999</v>
       </c>
       <c r="H48" s="10">
-        <v>2189.64</v>
+        <v>1204.3800000000001</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -1858,37 +1858,50 @@
         <v>5</v>
       </c>
       <c r="C49" s="2">
-        <v>4091</v>
+        <v>5310</v>
       </c>
       <c r="D49" s="2">
-        <f t="shared" si="27"/>
-        <v>251</v>
+        <f t="shared" si="39"/>
+        <v>162</v>
       </c>
       <c r="E49" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F49" s="12">
-        <f t="shared" si="28"/>
-        <v>640.04999999999995</v>
+        <f t="shared" si="40"/>
+        <v>413.09999999999997</v>
       </c>
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
-        <v>44102</v>
+        <v>44165</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C50" s="2">
-        <v>5857</v>
-      </c>
-      <c r="D50" s="2"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
+        <v>7385</v>
+      </c>
+      <c r="D50" s="2">
+        <f t="shared" si="39"/>
+        <v>150</v>
+      </c>
+      <c r="E50" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F50" s="8">
+        <f t="shared" si="40"/>
+        <v>706.5</v>
+      </c>
+      <c r="G50" s="10">
+        <f>SUM(F50,F51)</f>
+        <v>1211.4000000000001</v>
+      </c>
+      <c r="H50" s="10">
+        <v>1211.4000000000001</v>
+      </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
@@ -1896,28 +1909,321 @@
         <v>5</v>
       </c>
       <c r="C51" s="2">
-        <v>3840</v>
-      </c>
-      <c r="D51" s="2"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="16"/>
+        <v>5148</v>
+      </c>
+      <c r="D51" s="2">
+        <f t="shared" si="39"/>
+        <v>198</v>
+      </c>
+      <c r="E51" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F51" s="12">
+        <f t="shared" si="40"/>
+        <v>504.9</v>
+      </c>
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <v>44158</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="2">
+        <v>7235</v>
+      </c>
+      <c r="D52" s="2">
+        <f t="shared" si="39"/>
+        <v>229</v>
+      </c>
+      <c r="E52" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F52" s="8">
+        <f t="shared" si="40"/>
+        <v>1078.5899999999999</v>
+      </c>
       <c r="G52" s="10">
-        <f>SUM(G10:G51)</f>
+        <f>SUM(F52,F53)</f>
+        <v>1812.9899999999998</v>
+      </c>
+      <c r="H52" s="10">
+        <v>1812.99</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="2">
+        <v>4950</v>
+      </c>
+      <c r="D53" s="2">
+        <f t="shared" si="39"/>
+        <v>288</v>
+      </c>
+      <c r="E53" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F53" s="12">
+        <f t="shared" si="40"/>
+        <v>734.4</v>
+      </c>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
+        <v>44144</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="2">
+        <v>7006</v>
+      </c>
+      <c r="D54" s="2">
+        <f t="shared" si="39"/>
+        <v>193</v>
+      </c>
+      <c r="E54" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F54" s="8">
+        <f t="shared" si="40"/>
+        <v>909.03</v>
+      </c>
+      <c r="G54" s="10">
+        <f>SUM(F54,F55)</f>
+        <v>1248.1799999999998</v>
+      </c>
+      <c r="H54" s="10">
+        <v>1248.18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="2">
+        <v>4662</v>
+      </c>
+      <c r="D55" s="2">
+        <f t="shared" si="39"/>
+        <v>133</v>
+      </c>
+      <c r="E55" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F55" s="12">
+        <f t="shared" si="40"/>
+        <v>339.15</v>
+      </c>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
+        <v>44137</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="2">
+        <v>6813</v>
+      </c>
+      <c r="D56" s="2">
+        <f t="shared" si="39"/>
+        <v>189</v>
+      </c>
+      <c r="E56" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F56" s="8">
+        <f t="shared" si="40"/>
+        <v>890.18999999999994</v>
+      </c>
+      <c r="G56" s="10">
+        <f>SUM(F56,F57)</f>
+        <v>1295.6399999999999</v>
+      </c>
+      <c r="H56" s="10">
+        <v>1295.6400000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="2">
+        <v>4529</v>
+      </c>
+      <c r="D57" s="2">
+        <f t="shared" si="39"/>
+        <v>159</v>
+      </c>
+      <c r="E57" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F57" s="12">
+        <f t="shared" si="40"/>
+        <v>405.45</v>
+      </c>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
+        <v>44126</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" s="2">
+        <v>6624</v>
+      </c>
+      <c r="D58" s="2">
+        <f t="shared" si="39"/>
+        <v>438</v>
+      </c>
+      <c r="E58" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F58" s="8">
+        <f t="shared" si="40"/>
+        <v>2062.98</v>
+      </c>
+      <c r="G58" s="10">
+        <f>SUM(F58,F59)</f>
+        <v>2774.43</v>
+      </c>
+      <c r="H58" s="10">
+        <v>2774.43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" s="2">
+        <v>4370</v>
+      </c>
+      <c r="D59" s="2">
+        <f t="shared" si="39"/>
+        <v>279</v>
+      </c>
+      <c r="E59" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F59" s="12">
+        <f t="shared" si="40"/>
+        <v>711.44999999999993</v>
+      </c>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
+        <v>44116</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" s="2">
+        <v>6186</v>
+      </c>
+      <c r="D60" s="2">
+        <f t="shared" si="39"/>
+        <v>329</v>
+      </c>
+      <c r="E60" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F60" s="8">
+        <f t="shared" si="40"/>
+        <v>1549.59</v>
+      </c>
+      <c r="G60" s="10">
+        <f>SUM(F60,F61)</f>
+        <v>2189.64</v>
+      </c>
+      <c r="H60" s="10">
+        <v>2189.64</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" s="2">
+        <v>4091</v>
+      </c>
+      <c r="D61" s="2">
+        <f t="shared" si="39"/>
+        <v>251</v>
+      </c>
+      <c r="E61" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F61" s="12">
+        <f t="shared" si="40"/>
+        <v>640.04999999999995</v>
+      </c>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>44102</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" s="2">
+        <v>5857</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" s="2">
+        <v>3840</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G64" s="10">
+        <f>SUM(G22:G63)</f>
         <v>27454.589999999997</v>
       </c>
-      <c r="H52" s="10">
-        <f>SUM(H10:H51)</f>
+      <c r="H64" s="10">
+        <f>SUM(H22:H63)</f>
         <v>27455.440000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G53" s="17"/>
-      <c r="H53" s="10">
-        <f>SUM(H52,-G52)</f>
+    <row r="65" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G65" s="17"/>
+      <c r="H65" s="10">
+        <f>SUM(H64,-G64)</f>
         <v>0.85000000000582077</v>
       </c>
     </row>

--- a/sputnik/personal/ee/253ee.xlsx
+++ b/sputnik/personal/ee/253ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\06.09.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 06.09.2021 вкл-но\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\16.09.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 30.09.2021 вкл-но\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -603,10 +603,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -652,31 +652,31 @@
     </row>
     <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
-        <v>44452</v>
+        <v>44480</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="2">
-        <v>10977</v>
+        <v>11923</v>
       </c>
       <c r="D2" s="2">
         <f>C2-C4</f>
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E2" s="6">
         <v>4.96</v>
       </c>
       <c r="F2" s="8">
         <f t="shared" ref="F2:F3" si="0">D2*E2</f>
-        <v>1235.04</v>
+        <v>1249.92</v>
       </c>
       <c r="G2" s="10">
         <f>SUM(F2,F3)</f>
-        <v>1690.6399999999999</v>
+        <v>1609.04</v>
       </c>
       <c r="H2" s="10">
-        <v>1690.64</v>
+        <v>1609.04</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -685,49 +685,49 @@
         <v>5</v>
       </c>
       <c r="C3" s="2">
-        <v>7552</v>
+        <v>8111</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" ref="D3" si="1">C3-C5</f>
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="E3" s="2">
         <v>2.68</v>
       </c>
       <c r="F3" s="12">
         <f t="shared" si="0"/>
-        <v>455.6</v>
+        <v>359.12</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
-        <v>44440</v>
+        <v>44473</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="2">
-        <v>10728</v>
+        <v>11671</v>
       </c>
       <c r="D4" s="2">
         <f>C4-C6</f>
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="E4" s="6">
         <v>4.96</v>
       </c>
       <c r="F4" s="8">
         <f t="shared" ref="F4:F5" si="2">D4*E4</f>
-        <v>1150.72</v>
+        <v>1175.52</v>
       </c>
       <c r="G4" s="10">
         <f>SUM(F4,F5)</f>
-        <v>1499.1200000000001</v>
+        <v>1612.3600000000001</v>
       </c>
       <c r="H4" s="10">
-        <v>1499.12</v>
+        <v>1612.36</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -736,49 +736,49 @@
         <v>5</v>
       </c>
       <c r="C5" s="2">
-        <v>7382</v>
+        <v>7977</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" ref="D5" si="3">C5-C7</f>
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="E5" s="2">
         <v>2.68</v>
       </c>
       <c r="F5" s="12">
         <f t="shared" si="2"/>
-        <v>348.40000000000003</v>
+        <v>436.84000000000003</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
-        <v>44431</v>
+        <v>44466</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="2">
-        <v>10496</v>
+        <v>11434</v>
       </c>
       <c r="D6" s="2">
         <f>C6-C8</f>
-        <v>77</v>
+        <v>266</v>
       </c>
       <c r="E6" s="6">
         <v>4.96</v>
       </c>
       <c r="F6" s="8">
         <f t="shared" ref="F6:F7" si="4">D6*E6</f>
-        <v>381.92</v>
+        <v>1319.36</v>
       </c>
       <c r="G6" s="10">
         <f>SUM(F6,F7)</f>
-        <v>505.20000000000005</v>
+        <v>1732.08</v>
       </c>
       <c r="H6" s="10">
-        <v>505.2</v>
+        <v>1732.08</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -787,49 +787,49 @@
         <v>5</v>
       </c>
       <c r="C7" s="2">
-        <v>7252</v>
+        <v>7814</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" ref="D7" si="5">C7-C9</f>
-        <v>46</v>
+        <v>154</v>
       </c>
       <c r="E7" s="2">
         <v>2.68</v>
       </c>
       <c r="F7" s="12">
         <f t="shared" si="4"/>
-        <v>123.28</v>
+        <v>412.72</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
-        <v>44423</v>
+        <v>44459</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="2">
-        <v>10419</v>
+        <v>11168</v>
       </c>
       <c r="D8" s="2">
         <f>C8-C10</f>
-        <v>48</v>
+        <v>191</v>
       </c>
       <c r="E8" s="6">
         <v>4.96</v>
       </c>
       <c r="F8" s="8">
         <f t="shared" ref="F8:F9" si="6">D8*E8</f>
-        <v>238.07999999999998</v>
+        <v>947.36</v>
       </c>
       <c r="G8" s="10">
         <f>SUM(F8,F9)</f>
-        <v>294.36</v>
+        <v>1236.8</v>
       </c>
       <c r="H8" s="10">
-        <v>294.36</v>
+        <v>1236.8</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -838,49 +838,49 @@
         <v>5</v>
       </c>
       <c r="C9" s="2">
-        <v>7206</v>
+        <v>7660</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" ref="D9" si="7">C9-C11</f>
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="E9" s="2">
         <v>2.68</v>
       </c>
       <c r="F9" s="12">
         <f t="shared" si="6"/>
-        <v>56.28</v>
+        <v>289.44</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
-        <v>44418</v>
+        <v>44452</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="2">
-        <v>10371</v>
+        <v>10977</v>
       </c>
       <c r="D10" s="2">
         <f>C10-C12</f>
-        <v>103</v>
+        <v>249</v>
       </c>
       <c r="E10" s="6">
         <v>4.96</v>
       </c>
       <c r="F10" s="8">
         <f t="shared" ref="F10:F11" si="8">D10*E10</f>
-        <v>510.88</v>
+        <v>1235.04</v>
       </c>
       <c r="G10" s="10">
         <f>SUM(F10,F11)</f>
-        <v>636.84</v>
+        <v>1690.6399999999999</v>
       </c>
       <c r="H10" s="10">
-        <v>636.84</v>
+        <v>1690.64</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -889,49 +889,49 @@
         <v>5</v>
       </c>
       <c r="C11" s="2">
-        <v>7185</v>
+        <v>7552</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" ref="D11" si="9">C11-C13</f>
-        <v>47</v>
+        <v>170</v>
       </c>
       <c r="E11" s="2">
         <v>2.68</v>
       </c>
       <c r="F11" s="12">
         <f t="shared" si="8"/>
-        <v>125.96000000000001</v>
+        <v>455.6</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
-        <v>44410</v>
+        <v>44440</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="2">
-        <v>10268</v>
+        <v>10728</v>
       </c>
       <c r="D12" s="2">
         <f>C12-C14</f>
-        <v>75</v>
+        <v>232</v>
       </c>
       <c r="E12" s="6">
         <v>4.96</v>
       </c>
       <c r="F12" s="8">
         <f t="shared" ref="F12:F13" si="10">D12*E12</f>
-        <v>372</v>
+        <v>1150.72</v>
       </c>
       <c r="G12" s="10">
         <f>SUM(F12,F13)</f>
-        <v>463.12</v>
+        <v>1499.1200000000001</v>
       </c>
       <c r="H12" s="10">
-        <v>463.12</v>
+        <v>1499.12</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -940,49 +940,49 @@
         <v>5</v>
       </c>
       <c r="C13" s="2">
-        <v>7138</v>
+        <v>7382</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" ref="D13" si="11">C13-C15</f>
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="E13" s="2">
         <v>2.68</v>
       </c>
       <c r="F13" s="12">
         <f t="shared" si="10"/>
-        <v>91.12</v>
+        <v>348.40000000000003</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
-        <v>44399</v>
+        <v>44431</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="2">
-        <v>10193</v>
+        <v>10496</v>
       </c>
       <c r="D14" s="2">
         <f>C14-C16</f>
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="E14" s="6">
         <v>4.96</v>
       </c>
       <c r="F14" s="8">
         <f t="shared" ref="F14:F15" si="12">D14*E14</f>
-        <v>208.32</v>
+        <v>381.92</v>
       </c>
       <c r="G14" s="10">
         <f>SUM(F14,F15)</f>
-        <v>256.56</v>
+        <v>505.20000000000005</v>
       </c>
       <c r="H14" s="10">
-        <v>256.56</v>
+        <v>505.2</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -991,49 +991,49 @@
         <v>5</v>
       </c>
       <c r="C15" s="2">
-        <v>7104</v>
+        <v>7252</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" ref="D15" si="13">C15-C17</f>
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="E15" s="2">
         <v>2.68</v>
       </c>
       <c r="F15" s="12">
         <f t="shared" si="12"/>
-        <v>48.24</v>
+        <v>123.28</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
-        <v>44389</v>
+        <v>44423</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="2">
-        <v>10151</v>
+        <v>10419</v>
       </c>
       <c r="D16" s="2">
         <f>C16-C18</f>
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E16" s="6">
         <v>4.96</v>
       </c>
       <c r="F16" s="8">
         <f t="shared" ref="F16:F17" si="14">D16*E16</f>
-        <v>178.56</v>
+        <v>238.07999999999998</v>
       </c>
       <c r="G16" s="10">
         <f>SUM(F16,F17)</f>
-        <v>232.16</v>
+        <v>294.36</v>
       </c>
       <c r="H16" s="10">
-        <v>232.16</v>
+        <v>294.36</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1042,49 +1042,49 @@
         <v>5</v>
       </c>
       <c r="C17" s="2">
-        <v>7086</v>
+        <v>7206</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" ref="D17" si="15">C17-C19</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E17" s="2">
         <v>2.68</v>
       </c>
       <c r="F17" s="12">
         <f t="shared" si="14"/>
-        <v>53.6</v>
+        <v>56.28</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
-        <v>44378</v>
+        <v>44418</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="2">
-        <v>10115</v>
+        <v>10371</v>
       </c>
       <c r="D18" s="2">
         <f>C18-C20</f>
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="E18" s="6">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F18" s="8">
         <f t="shared" ref="F18:F19" si="16">D18*E18</f>
-        <v>202.53</v>
+        <v>510.88</v>
       </c>
       <c r="G18" s="10">
         <f>SUM(F18,F19)</f>
-        <v>250.98</v>
+        <v>636.84</v>
       </c>
       <c r="H18" s="10">
-        <v>250.98</v>
+        <v>636.84</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1093,49 +1093,49 @@
         <v>5</v>
       </c>
       <c r="C19" s="2">
-        <v>7066</v>
+        <v>7185</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" ref="D19" si="17">C19-C21</f>
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="E19" s="2">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F19" s="12">
         <f t="shared" si="16"/>
-        <v>48.449999999999996</v>
+        <v>125.96000000000001</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
-        <v>44368</v>
+        <v>44410</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="2">
-        <v>10072</v>
+        <v>10268</v>
       </c>
       <c r="D20" s="2">
         <f>C20-C22</f>
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="E20" s="6">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F20" s="8">
         <f t="shared" ref="F20:F21" si="18">D20*E20</f>
-        <v>405.06</v>
+        <v>372</v>
       </c>
       <c r="G20" s="10">
         <f>SUM(F20,F21)</f>
-        <v>575.91</v>
+        <v>463.12</v>
       </c>
       <c r="H20" s="10">
-        <v>575.91</v>
+        <v>463.12</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1144,49 +1144,49 @@
         <v>5</v>
       </c>
       <c r="C21" s="2">
-        <v>7047</v>
+        <v>7138</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" ref="D21" si="19">C21-C23</f>
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="E21" s="2">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F21" s="12">
         <f t="shared" si="18"/>
-        <v>170.85</v>
+        <v>91.12</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
-        <v>44356</v>
+        <v>44399</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="2">
-        <v>9986</v>
+        <v>10193</v>
       </c>
       <c r="D22" s="2">
         <f>C22-C24</f>
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="E22" s="6">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F22" s="8">
         <f t="shared" ref="F22:F23" si="20">D22*E22</f>
-        <v>329.7</v>
+        <v>208.32</v>
       </c>
       <c r="G22" s="10">
         <f>SUM(F22,F23)</f>
-        <v>485.25</v>
+        <v>256.56</v>
       </c>
       <c r="H22" s="10">
-        <v>485.25</v>
+        <v>256.56</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1195,100 +1195,100 @@
         <v>5</v>
       </c>
       <c r="C23" s="2">
-        <v>6980</v>
+        <v>7104</v>
       </c>
       <c r="D23" s="2">
         <f t="shared" ref="D23" si="21">C23-C25</f>
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="E23" s="2">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F23" s="12">
         <f t="shared" si="20"/>
-        <v>155.54999999999998</v>
+        <v>48.24</v>
       </c>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
-        <v>44350</v>
+        <v>44389</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="2">
-        <v>9916</v>
+        <v>10151</v>
       </c>
       <c r="D24" s="2">
         <f>C24-C26</f>
-        <v>192</v>
+        <v>36</v>
       </c>
       <c r="E24" s="6">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F24" s="8">
         <f t="shared" ref="F24:F25" si="22">D24*E24</f>
-        <v>904.31999999999994</v>
+        <v>178.56</v>
       </c>
       <c r="G24" s="10">
         <f>SUM(F24,F25)</f>
-        <v>1268.9699999999998</v>
+        <v>232.16</v>
       </c>
       <c r="H24" s="10">
-        <v>1266.42</v>
+        <v>232.16</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
+      <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="2">
-        <v>6919</v>
+        <v>7086</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" ref="D25" si="23">C25-C27</f>
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="E25" s="2">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F25" s="12">
         <f t="shared" si="22"/>
-        <v>364.65</v>
+        <v>53.6</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
-        <v>44344</v>
+        <v>44378</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C26" s="2">
-        <v>9724</v>
+        <v>10115</v>
       </c>
       <c r="D26" s="2">
         <f>C26-C28</f>
-        <v>145</v>
+        <v>43</v>
       </c>
       <c r="E26" s="6">
         <v>4.71</v>
       </c>
       <c r="F26" s="8">
         <f t="shared" ref="F26:F27" si="24">D26*E26</f>
-        <v>682.95</v>
+        <v>202.53</v>
       </c>
       <c r="G26" s="10">
         <f>SUM(F26,F27)</f>
-        <v>966</v>
+        <v>250.98</v>
       </c>
       <c r="H26" s="10">
-        <v>966</v>
+        <v>250.98</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1297,49 +1297,49 @@
         <v>5</v>
       </c>
       <c r="C27" s="2">
-        <v>6776</v>
+        <v>7066</v>
       </c>
       <c r="D27" s="2">
         <f t="shared" ref="D27" si="25">C27-C29</f>
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="E27" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F27" s="12">
         <f t="shared" si="24"/>
-        <v>283.04999999999995</v>
+        <v>48.449999999999996</v>
       </c>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
-        <v>44333</v>
+        <v>44368</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C28" s="2">
-        <v>9579</v>
+        <v>10072</v>
       </c>
       <c r="D28" s="2">
         <f>C28-C30</f>
-        <v>228</v>
+        <v>86</v>
       </c>
       <c r="E28" s="6">
         <v>4.71</v>
       </c>
       <c r="F28" s="8">
         <f t="shared" ref="F28:F29" si="26">D28*E28</f>
-        <v>1073.8799999999999</v>
+        <v>405.06</v>
       </c>
       <c r="G28" s="10">
         <f>SUM(F28,F29)</f>
-        <v>1494.6299999999999</v>
+        <v>575.91</v>
       </c>
       <c r="H28" s="10">
-        <v>1494.63</v>
+        <v>575.91</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1348,49 +1348,49 @@
         <v>5</v>
       </c>
       <c r="C29" s="2">
-        <v>6665</v>
+        <v>7047</v>
       </c>
       <c r="D29" s="2">
         <f t="shared" ref="D29" si="27">C29-C31</f>
-        <v>165</v>
+        <v>67</v>
       </c>
       <c r="E29" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F29" s="12">
         <f t="shared" si="26"/>
-        <v>420.74999999999994</v>
+        <v>170.85</v>
       </c>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
-        <v>44322</v>
+        <v>44356</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C30" s="2">
-        <v>9351</v>
+        <v>9986</v>
       </c>
       <c r="D30" s="2">
         <f>C30-C32</f>
-        <v>227</v>
+        <v>70</v>
       </c>
       <c r="E30" s="6">
         <v>4.71</v>
       </c>
       <c r="F30" s="8">
         <f t="shared" ref="F30:F31" si="28">D30*E30</f>
-        <v>1069.17</v>
+        <v>329.7</v>
       </c>
       <c r="G30" s="10">
         <f>SUM(F30,F31)</f>
-        <v>1405.77</v>
+        <v>485.25</v>
       </c>
       <c r="H30" s="10">
-        <v>1405.77</v>
+        <v>485.25</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1399,100 +1399,100 @@
         <v>5</v>
       </c>
       <c r="C31" s="2">
-        <v>6500</v>
+        <v>6980</v>
       </c>
       <c r="D31" s="2">
         <f t="shared" ref="D31" si="29">C31-C33</f>
-        <v>132</v>
+        <v>61</v>
       </c>
       <c r="E31" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F31" s="12">
         <f t="shared" si="28"/>
-        <v>336.59999999999997</v>
+        <v>155.54999999999998</v>
       </c>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
-        <v>44305</v>
+        <v>44350</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C32" s="2">
-        <v>9124</v>
+        <v>9916</v>
       </c>
       <c r="D32" s="2">
         <f>C32-C34</f>
-        <v>134</v>
+        <v>192</v>
       </c>
       <c r="E32" s="6">
         <v>4.71</v>
       </c>
       <c r="F32" s="8">
         <f t="shared" ref="F32:F33" si="30">D32*E32</f>
-        <v>631.14</v>
+        <v>904.31999999999994</v>
       </c>
       <c r="G32" s="10">
         <f>SUM(F32,F33)</f>
-        <v>886.14</v>
+        <v>1268.9699999999998</v>
       </c>
       <c r="H32" s="10">
-        <v>886.14</v>
+        <v>1266.42</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
+      <c r="A33" s="18"/>
       <c r="B33" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C33" s="2">
-        <v>6368</v>
+        <v>6919</v>
       </c>
       <c r="D33" s="2">
         <f t="shared" ref="D33" si="31">C33-C35</f>
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="E33" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F33" s="12">
         <f t="shared" si="30"/>
-        <v>254.99999999999997</v>
+        <v>364.65</v>
       </c>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="14">
-        <v>44270</v>
+        <v>44344</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C34" s="2">
-        <v>8990</v>
+        <v>9724</v>
       </c>
       <c r="D34" s="2">
         <f>C34-C36</f>
-        <v>17</v>
+        <v>145</v>
       </c>
       <c r="E34" s="6">
         <v>4.71</v>
       </c>
       <c r="F34" s="8">
         <f t="shared" ref="F34:F35" si="32">D34*E34</f>
-        <v>80.069999999999993</v>
+        <v>682.95</v>
       </c>
       <c r="G34" s="10">
         <f>SUM(F34,F35)</f>
-        <v>80.069999999999993</v>
+        <v>966</v>
       </c>
       <c r="H34" s="10">
-        <v>83.47</v>
+        <v>966</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1501,49 +1501,49 @@
         <v>5</v>
       </c>
       <c r="C35" s="2">
-        <v>6268</v>
+        <v>6776</v>
       </c>
       <c r="D35" s="2">
         <f t="shared" ref="D35" si="33">C35-C37</f>
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="E35" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F35" s="12">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>283.04999999999995</v>
       </c>
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="14">
-        <v>44256</v>
+        <v>44333</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C36" s="2">
-        <v>8973</v>
+        <v>9579</v>
       </c>
       <c r="D36" s="2">
         <f>C36-C38</f>
-        <v>100</v>
+        <v>228</v>
       </c>
       <c r="E36" s="6">
         <v>4.71</v>
       </c>
       <c r="F36" s="8">
         <f t="shared" ref="F36:F37" si="34">D36*E36</f>
-        <v>471</v>
+        <v>1073.8799999999999</v>
       </c>
       <c r="G36" s="10">
         <f>SUM(F36,F37)</f>
-        <v>471</v>
+        <v>1494.6299999999999</v>
       </c>
       <c r="H36" s="10">
-        <v>471</v>
+        <v>1494.63</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1552,49 +1552,49 @@
         <v>5</v>
       </c>
       <c r="C37" s="2">
-        <v>6268</v>
+        <v>6665</v>
       </c>
       <c r="D37" s="2">
         <f t="shared" ref="D37" si="35">C37-C39</f>
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="E37" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F37" s="12">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>420.74999999999994</v>
       </c>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="14">
-        <v>44207</v>
+        <v>44322</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C38" s="2">
-        <v>8873</v>
+        <v>9351</v>
       </c>
       <c r="D38" s="2">
         <f>C38-C40</f>
-        <v>401</v>
+        <v>227</v>
       </c>
       <c r="E38" s="6">
         <v>4.71</v>
       </c>
       <c r="F38" s="8">
         <f t="shared" ref="F38:F39" si="36">D38*E38</f>
-        <v>1888.71</v>
+        <v>1069.17</v>
       </c>
       <c r="G38" s="10">
         <f>SUM(F38,F39)</f>
-        <v>2419.11</v>
+        <v>1405.77</v>
       </c>
       <c r="H38" s="10">
-        <v>2419.11</v>
+        <v>1405.77</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1603,49 +1603,49 @@
         <v>5</v>
       </c>
       <c r="C39" s="2">
-        <v>6268</v>
+        <v>6500</v>
       </c>
       <c r="D39" s="2">
         <f t="shared" ref="D39" si="37">C39-C41</f>
-        <v>208</v>
+        <v>132</v>
       </c>
       <c r="E39" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F39" s="12">
         <f t="shared" si="36"/>
-        <v>530.4</v>
+        <v>336.59999999999997</v>
       </c>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="14">
-        <v>44200</v>
+        <v>44305</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C40" s="2">
-        <v>8472</v>
+        <v>9124</v>
       </c>
       <c r="D40" s="2">
         <f>C40-C42</f>
-        <v>310</v>
+        <v>134</v>
       </c>
       <c r="E40" s="6">
         <v>4.71</v>
       </c>
       <c r="F40" s="8">
         <f t="shared" ref="F40:F41" si="38">D40*E40</f>
-        <v>1460.1</v>
+        <v>631.14</v>
       </c>
       <c r="G40" s="10">
         <f>SUM(F40,F41)</f>
-        <v>1926.75</v>
+        <v>886.14</v>
       </c>
       <c r="H40" s="10">
-        <v>1926.75</v>
+        <v>886.14</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -1654,49 +1654,49 @@
         <v>5</v>
       </c>
       <c r="C41" s="2">
-        <v>6060</v>
+        <v>6368</v>
       </c>
       <c r="D41" s="2">
-        <f t="shared" ref="D41:D61" si="39">C41-C43</f>
-        <v>183</v>
+        <f t="shared" ref="D41" si="39">C41-C43</f>
+        <v>100</v>
       </c>
       <c r="E41" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F41" s="12">
         <f t="shared" si="38"/>
-        <v>466.65</v>
+        <v>254.99999999999997</v>
       </c>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="14">
-        <v>44193</v>
+        <v>44270</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C42" s="2">
-        <v>8162</v>
+        <v>8990</v>
       </c>
       <c r="D42" s="2">
         <f>C42-C44</f>
-        <v>231</v>
+        <v>17</v>
       </c>
       <c r="E42" s="6">
         <v>4.71</v>
       </c>
       <c r="F42" s="8">
-        <f t="shared" ref="F42:F61" si="40">D42*E42</f>
-        <v>1088.01</v>
+        <f t="shared" ref="F42:F43" si="40">D42*E42</f>
+        <v>80.069999999999993</v>
       </c>
       <c r="G42" s="10">
         <f>SUM(F42,F43)</f>
-        <v>1608.21</v>
+        <v>80.069999999999993</v>
       </c>
       <c r="H42" s="10">
-        <v>1608.21</v>
+        <v>83.47</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -1705,49 +1705,49 @@
         <v>5</v>
       </c>
       <c r="C43" s="2">
-        <v>5877</v>
+        <v>6268</v>
       </c>
       <c r="D43" s="2">
-        <f t="shared" si="39"/>
-        <v>204</v>
+        <f t="shared" ref="D43" si="41">C43-C45</f>
+        <v>0</v>
       </c>
       <c r="E43" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F43" s="12">
         <f t="shared" si="40"/>
-        <v>520.19999999999993</v>
+        <v>0</v>
       </c>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="5">
-        <v>44186</v>
+      <c r="A44" s="14">
+        <v>44256</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C44" s="2">
-        <v>7931</v>
+        <v>8973</v>
       </c>
       <c r="D44" s="2">
-        <f t="shared" si="39"/>
-        <v>221</v>
+        <f>C44-C46</f>
+        <v>100</v>
       </c>
       <c r="E44" s="6">
         <v>4.71</v>
       </c>
       <c r="F44" s="8">
-        <f t="shared" si="40"/>
-        <v>1040.9100000000001</v>
+        <f t="shared" ref="F44:F45" si="42">D44*E44</f>
+        <v>471</v>
       </c>
       <c r="G44" s="10">
         <f>SUM(F44,F45)</f>
-        <v>1525.41</v>
+        <v>471</v>
       </c>
       <c r="H44" s="10">
-        <v>1525.41</v>
+        <v>471</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -1756,49 +1756,49 @@
         <v>5</v>
       </c>
       <c r="C45" s="2">
-        <v>5673</v>
+        <v>6268</v>
       </c>
       <c r="D45" s="2">
-        <f t="shared" si="39"/>
-        <v>190</v>
+        <f t="shared" ref="D45" si="43">C45-C47</f>
+        <v>0</v>
       </c>
       <c r="E45" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F45" s="12">
-        <f t="shared" si="40"/>
-        <v>484.49999999999994</v>
+        <f t="shared" si="42"/>
+        <v>0</v>
       </c>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="5">
-        <v>44179</v>
+      <c r="A46" s="14">
+        <v>44207</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C46" s="2">
-        <v>7710</v>
+        <v>8873</v>
       </c>
       <c r="D46" s="2">
-        <f t="shared" si="39"/>
-        <v>157</v>
+        <f>C46-C48</f>
+        <v>401</v>
       </c>
       <c r="E46" s="6">
         <v>4.71</v>
       </c>
       <c r="F46" s="8">
-        <f t="shared" si="40"/>
-        <v>739.47</v>
+        <f t="shared" ref="F46:F47" si="44">D46*E46</f>
+        <v>1888.71</v>
       </c>
       <c r="G46" s="10">
         <f>SUM(F46,F47)</f>
-        <v>1180.6199999999999</v>
+        <v>2419.11</v>
       </c>
       <c r="H46" s="10">
-        <v>1180.6199999999999</v>
+        <v>2419.11</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -1807,49 +1807,49 @@
         <v>5</v>
       </c>
       <c r="C47" s="2">
-        <v>5483</v>
+        <v>6268</v>
       </c>
       <c r="D47" s="2">
-        <f>C47-C49</f>
-        <v>173</v>
+        <f t="shared" ref="D47" si="45">C47-C49</f>
+        <v>208</v>
       </c>
       <c r="E47" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F47" s="12">
-        <f t="shared" si="40"/>
-        <v>441.15</v>
+        <f t="shared" si="44"/>
+        <v>530.4</v>
       </c>
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="5">
-        <v>44172</v>
+      <c r="A48" s="14">
+        <v>44200</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C48" s="2">
-        <v>7553</v>
+        <v>8472</v>
       </c>
       <c r="D48" s="2">
-        <f t="shared" si="39"/>
-        <v>168</v>
+        <f>C48-C50</f>
+        <v>310</v>
       </c>
       <c r="E48" s="6">
         <v>4.71</v>
       </c>
       <c r="F48" s="8">
-        <f t="shared" si="40"/>
-        <v>791.28</v>
+        <f t="shared" ref="F48:F49" si="46">D48*E48</f>
+        <v>1460.1</v>
       </c>
       <c r="G48" s="10">
         <f>SUM(F48,F49)</f>
-        <v>1204.3799999999999</v>
+        <v>1926.75</v>
       </c>
       <c r="H48" s="10">
-        <v>1204.3800000000001</v>
+        <v>1926.75</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -1858,49 +1858,49 @@
         <v>5</v>
       </c>
       <c r="C49" s="2">
-        <v>5310</v>
+        <v>6060</v>
       </c>
       <c r="D49" s="2">
-        <f t="shared" si="39"/>
-        <v>162</v>
+        <f t="shared" ref="D49:D69" si="47">C49-C51</f>
+        <v>183</v>
       </c>
       <c r="E49" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F49" s="12">
-        <f t="shared" si="40"/>
-        <v>413.09999999999997</v>
+        <f t="shared" si="46"/>
+        <v>466.65</v>
       </c>
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="5">
-        <v>44165</v>
+      <c r="A50" s="14">
+        <v>44193</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C50" s="2">
-        <v>7385</v>
+        <v>8162</v>
       </c>
       <c r="D50" s="2">
-        <f t="shared" si="39"/>
-        <v>150</v>
+        <f>C50-C52</f>
+        <v>231</v>
       </c>
       <c r="E50" s="6">
         <v>4.71</v>
       </c>
       <c r="F50" s="8">
-        <f t="shared" si="40"/>
-        <v>706.5</v>
+        <f t="shared" ref="F50:F69" si="48">D50*E50</f>
+        <v>1088.01</v>
       </c>
       <c r="G50" s="10">
         <f>SUM(F50,F51)</f>
-        <v>1211.4000000000001</v>
+        <v>1608.21</v>
       </c>
       <c r="H50" s="10">
-        <v>1211.4000000000001</v>
+        <v>1608.21</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -1909,49 +1909,49 @@
         <v>5</v>
       </c>
       <c r="C51" s="2">
-        <v>5148</v>
+        <v>5877</v>
       </c>
       <c r="D51" s="2">
-        <f t="shared" si="39"/>
-        <v>198</v>
+        <f t="shared" si="47"/>
+        <v>204</v>
       </c>
       <c r="E51" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F51" s="12">
-        <f t="shared" si="40"/>
-        <v>504.9</v>
+        <f t="shared" si="48"/>
+        <v>520.19999999999993</v>
       </c>
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
-        <v>44158</v>
+        <v>44186</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C52" s="2">
-        <v>7235</v>
+        <v>7931</v>
       </c>
       <c r="D52" s="2">
-        <f t="shared" si="39"/>
-        <v>229</v>
+        <f t="shared" si="47"/>
+        <v>221</v>
       </c>
       <c r="E52" s="6">
         <v>4.71</v>
       </c>
       <c r="F52" s="8">
-        <f t="shared" si="40"/>
-        <v>1078.5899999999999</v>
+        <f t="shared" si="48"/>
+        <v>1040.9100000000001</v>
       </c>
       <c r="G52" s="10">
         <f>SUM(F52,F53)</f>
-        <v>1812.9899999999998</v>
+        <v>1525.41</v>
       </c>
       <c r="H52" s="10">
-        <v>1812.99</v>
+        <v>1525.41</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -1960,49 +1960,49 @@
         <v>5</v>
       </c>
       <c r="C53" s="2">
-        <v>4950</v>
+        <v>5673</v>
       </c>
       <c r="D53" s="2">
-        <f t="shared" si="39"/>
-        <v>288</v>
+        <f t="shared" si="47"/>
+        <v>190</v>
       </c>
       <c r="E53" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F53" s="12">
-        <f t="shared" si="40"/>
-        <v>734.4</v>
+        <f t="shared" si="48"/>
+        <v>484.49999999999994</v>
       </c>
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
-        <v>44144</v>
+        <v>44179</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C54" s="2">
-        <v>7006</v>
+        <v>7710</v>
       </c>
       <c r="D54" s="2">
-        <f t="shared" si="39"/>
-        <v>193</v>
+        <f t="shared" si="47"/>
+        <v>157</v>
       </c>
       <c r="E54" s="6">
         <v>4.71</v>
       </c>
       <c r="F54" s="8">
-        <f t="shared" si="40"/>
-        <v>909.03</v>
+        <f t="shared" si="48"/>
+        <v>739.47</v>
       </c>
       <c r="G54" s="10">
         <f>SUM(F54,F55)</f>
-        <v>1248.1799999999998</v>
+        <v>1180.6199999999999</v>
       </c>
       <c r="H54" s="10">
-        <v>1248.18</v>
+        <v>1180.6199999999999</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -2011,49 +2011,49 @@
         <v>5</v>
       </c>
       <c r="C55" s="2">
-        <v>4662</v>
+        <v>5483</v>
       </c>
       <c r="D55" s="2">
-        <f t="shared" si="39"/>
-        <v>133</v>
+        <f>C55-C57</f>
+        <v>173</v>
       </c>
       <c r="E55" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F55" s="12">
-        <f t="shared" si="40"/>
-        <v>339.15</v>
+        <f t="shared" si="48"/>
+        <v>441.15</v>
       </c>
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
-        <v>44137</v>
+        <v>44172</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C56" s="2">
-        <v>6813</v>
+        <v>7553</v>
       </c>
       <c r="D56" s="2">
-        <f t="shared" si="39"/>
-        <v>189</v>
+        <f t="shared" si="47"/>
+        <v>168</v>
       </c>
       <c r="E56" s="6">
         <v>4.71</v>
       </c>
       <c r="F56" s="8">
-        <f t="shared" si="40"/>
-        <v>890.18999999999994</v>
+        <f t="shared" si="48"/>
+        <v>791.28</v>
       </c>
       <c r="G56" s="10">
         <f>SUM(F56,F57)</f>
-        <v>1295.6399999999999</v>
+        <v>1204.3799999999999</v>
       </c>
       <c r="H56" s="10">
-        <v>1295.6400000000001</v>
+        <v>1204.3800000000001</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -2062,49 +2062,49 @@
         <v>5</v>
       </c>
       <c r="C57" s="2">
-        <v>4529</v>
+        <v>5310</v>
       </c>
       <c r="D57" s="2">
-        <f t="shared" si="39"/>
-        <v>159</v>
+        <f t="shared" si="47"/>
+        <v>162</v>
       </c>
       <c r="E57" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F57" s="12">
-        <f t="shared" si="40"/>
-        <v>405.45</v>
+        <f t="shared" si="48"/>
+        <v>413.09999999999997</v>
       </c>
       <c r="G57" s="10"/>
       <c r="H57" s="10"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
-        <v>44126</v>
+        <v>44165</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C58" s="2">
-        <v>6624</v>
+        <v>7385</v>
       </c>
       <c r="D58" s="2">
-        <f t="shared" si="39"/>
-        <v>438</v>
+        <f t="shared" si="47"/>
+        <v>150</v>
       </c>
       <c r="E58" s="6">
         <v>4.71</v>
       </c>
       <c r="F58" s="8">
-        <f t="shared" si="40"/>
-        <v>2062.98</v>
+        <f t="shared" si="48"/>
+        <v>706.5</v>
       </c>
       <c r="G58" s="10">
         <f>SUM(F58,F59)</f>
-        <v>2774.43</v>
+        <v>1211.4000000000001</v>
       </c>
       <c r="H58" s="10">
-        <v>2774.43</v>
+        <v>1211.4000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -2113,49 +2113,49 @@
         <v>5</v>
       </c>
       <c r="C59" s="2">
-        <v>4370</v>
+        <v>5148</v>
       </c>
       <c r="D59" s="2">
-        <f t="shared" si="39"/>
-        <v>279</v>
+        <f t="shared" si="47"/>
+        <v>198</v>
       </c>
       <c r="E59" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F59" s="12">
-        <f t="shared" si="40"/>
-        <v>711.44999999999993</v>
+        <f t="shared" si="48"/>
+        <v>504.9</v>
       </c>
       <c r="G59" s="10"/>
       <c r="H59" s="10"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
-        <v>44116</v>
+        <v>44158</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C60" s="2">
-        <v>6186</v>
+        <v>7235</v>
       </c>
       <c r="D60" s="2">
-        <f t="shared" si="39"/>
-        <v>329</v>
+        <f t="shared" si="47"/>
+        <v>229</v>
       </c>
       <c r="E60" s="6">
         <v>4.71</v>
       </c>
       <c r="F60" s="8">
-        <f t="shared" si="40"/>
-        <v>1549.59</v>
+        <f t="shared" si="48"/>
+        <v>1078.5899999999999</v>
       </c>
       <c r="G60" s="10">
         <f>SUM(F60,F61)</f>
-        <v>2189.64</v>
+        <v>1812.9899999999998</v>
       </c>
       <c r="H60" s="10">
-        <v>2189.64</v>
+        <v>1812.99</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -2164,37 +2164,50 @@
         <v>5</v>
       </c>
       <c r="C61" s="2">
-        <v>4091</v>
+        <v>4950</v>
       </c>
       <c r="D61" s="2">
-        <f t="shared" si="39"/>
-        <v>251</v>
+        <f t="shared" si="47"/>
+        <v>288</v>
       </c>
       <c r="E61" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F61" s="12">
-        <f t="shared" si="40"/>
-        <v>640.04999999999995</v>
+        <f t="shared" si="48"/>
+        <v>734.4</v>
       </c>
       <c r="G61" s="10"/>
       <c r="H61" s="10"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
-        <v>44102</v>
+        <v>44144</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C62" s="2">
-        <v>5857</v>
-      </c>
-      <c r="D62" s="2"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="10"/>
+        <v>7006</v>
+      </c>
+      <c r="D62" s="2">
+        <f t="shared" si="47"/>
+        <v>193</v>
+      </c>
+      <c r="E62" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F62" s="8">
+        <f t="shared" si="48"/>
+        <v>909.03</v>
+      </c>
+      <c r="G62" s="10">
+        <f>SUM(F62,F63)</f>
+        <v>1248.1799999999998</v>
+      </c>
+      <c r="H62" s="10">
+        <v>1248.18</v>
+      </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
@@ -2202,28 +2215,219 @@
         <v>5</v>
       </c>
       <c r="C63" s="2">
-        <v>3840</v>
-      </c>
-      <c r="D63" s="2"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="16"/>
+        <v>4662</v>
+      </c>
+      <c r="D63" s="2">
+        <f t="shared" si="47"/>
+        <v>133</v>
+      </c>
+      <c r="E63" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F63" s="12">
+        <f t="shared" si="48"/>
+        <v>339.15</v>
+      </c>
       <c r="G63" s="10"/>
       <c r="H63" s="10"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="5">
+        <v>44137</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" s="2">
+        <v>6813</v>
+      </c>
+      <c r="D64" s="2">
+        <f t="shared" si="47"/>
+        <v>189</v>
+      </c>
+      <c r="E64" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F64" s="8">
+        <f t="shared" si="48"/>
+        <v>890.18999999999994</v>
+      </c>
       <c r="G64" s="10">
-        <f>SUM(G22:G63)</f>
+        <f>SUM(F64,F65)</f>
+        <v>1295.6399999999999</v>
+      </c>
+      <c r="H64" s="10">
+        <v>1295.6400000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" s="2">
+        <v>4529</v>
+      </c>
+      <c r="D65" s="2">
+        <f t="shared" si="47"/>
+        <v>159</v>
+      </c>
+      <c r="E65" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F65" s="12">
+        <f t="shared" si="48"/>
+        <v>405.45</v>
+      </c>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="5">
+        <v>44126</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" s="2">
+        <v>6624</v>
+      </c>
+      <c r="D66" s="2">
+        <f t="shared" si="47"/>
+        <v>438</v>
+      </c>
+      <c r="E66" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F66" s="8">
+        <f t="shared" si="48"/>
+        <v>2062.98</v>
+      </c>
+      <c r="G66" s="10">
+        <f>SUM(F66,F67)</f>
+        <v>2774.43</v>
+      </c>
+      <c r="H66" s="10">
+        <v>2774.43</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" s="2">
+        <v>4370</v>
+      </c>
+      <c r="D67" s="2">
+        <f t="shared" si="47"/>
+        <v>279</v>
+      </c>
+      <c r="E67" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F67" s="12">
+        <f t="shared" si="48"/>
+        <v>711.44999999999993</v>
+      </c>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="5">
+        <v>44116</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" s="2">
+        <v>6186</v>
+      </c>
+      <c r="D68" s="2">
+        <f t="shared" si="47"/>
+        <v>329</v>
+      </c>
+      <c r="E68" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F68" s="8">
+        <f t="shared" si="48"/>
+        <v>1549.59</v>
+      </c>
+      <c r="G68" s="10">
+        <f>SUM(F68,F69)</f>
+        <v>2189.64</v>
+      </c>
+      <c r="H68" s="10">
+        <v>2189.64</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" s="2">
+        <v>4091</v>
+      </c>
+      <c r="D69" s="2">
+        <f t="shared" si="47"/>
+        <v>251</v>
+      </c>
+      <c r="E69" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F69" s="12">
+        <f t="shared" si="48"/>
+        <v>640.04999999999995</v>
+      </c>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="5">
+        <v>44102</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70" s="2">
+        <v>5857</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" s="2">
+        <v>3840</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G72" s="10">
+        <f>SUM(G30:G71)</f>
         <v>27454.589999999997</v>
       </c>
-      <c r="H64" s="10">
-        <f>SUM(H22:H63)</f>
+      <c r="H72" s="10">
+        <f>SUM(H30:H71)</f>
         <v>27455.440000000002</v>
       </c>
     </row>
-    <row r="65" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G65" s="17"/>
-      <c r="H65" s="10">
-        <f>SUM(H64,-G64)</f>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G73" s="17"/>
+      <c r="H73" s="10">
+        <f>SUM(H72,-G72)</f>
         <v>0.85000000000582077</v>
       </c>
     </row>

--- a/sputnik/personal/ee/253ee.xlsx
+++ b/sputnik/personal/ee/253ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\16.09.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 30.09.2021 вкл-но\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 15.10.2021\16.09.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 15.10.2021 вкл-но\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -61,7 +61,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.00&quot; ₽&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -79,6 +79,13 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -185,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -235,6 +242,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -603,10 +611,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H73"/>
+  <dimension ref="A1:H79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -652,31 +660,31 @@
     </row>
     <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
-        <v>44480</v>
+        <v>44501</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="2">
-        <v>11923</v>
+        <v>12684</v>
       </c>
       <c r="D2" s="2">
         <f>C2-C4</f>
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="E2" s="6">
         <v>4.96</v>
       </c>
       <c r="F2" s="8">
         <f t="shared" ref="F2:F3" si="0">D2*E2</f>
-        <v>1249.92</v>
-      </c>
-      <c r="G2" s="10">
+        <v>1150.72</v>
+      </c>
+      <c r="G2" s="19">
         <f>SUM(F2,F3)</f>
-        <v>1609.04</v>
-      </c>
-      <c r="H2" s="10">
-        <v>1609.04</v>
+        <v>1568.8000000000002</v>
+      </c>
+      <c r="H2" s="19">
+        <v>1300.8</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -685,49 +693,49 @@
         <v>5</v>
       </c>
       <c r="C3" s="2">
-        <v>8111</v>
+        <v>8593</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" ref="D3" si="1">C3-C5</f>
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="E3" s="2">
         <v>2.68</v>
       </c>
       <c r="F3" s="12">
         <f t="shared" si="0"/>
-        <v>359.12</v>
+        <v>418.08000000000004</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
-        <v>44473</v>
+        <v>44494</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="2">
-        <v>11671</v>
+        <v>12452</v>
       </c>
       <c r="D4" s="2">
         <f>C4-C6</f>
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="E4" s="6">
         <v>4.96</v>
       </c>
       <c r="F4" s="8">
         <f t="shared" ref="F4:F5" si="2">D4*E4</f>
-        <v>1175.52</v>
+        <v>1240</v>
       </c>
       <c r="G4" s="10">
         <f>SUM(F4,F5)</f>
-        <v>1612.3600000000001</v>
+        <v>1679.52</v>
       </c>
       <c r="H4" s="10">
-        <v>1612.36</v>
+        <v>1679.52</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -736,49 +744,49 @@
         <v>5</v>
       </c>
       <c r="C5" s="2">
-        <v>7977</v>
+        <v>8437</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" ref="D5" si="3">C5-C7</f>
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E5" s="2">
         <v>2.68</v>
       </c>
       <c r="F5" s="12">
         <f t="shared" si="2"/>
-        <v>436.84000000000003</v>
+        <v>439.52000000000004</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
-        <v>44466</v>
+        <v>44487</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="2">
-        <v>11434</v>
+        <v>12202</v>
       </c>
       <c r="D6" s="2">
         <f>C6-C8</f>
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="E6" s="6">
         <v>4.96</v>
       </c>
       <c r="F6" s="8">
         <f t="shared" ref="F6:F7" si="4">D6*E6</f>
-        <v>1319.36</v>
+        <v>1383.84</v>
       </c>
       <c r="G6" s="10">
         <f>SUM(F6,F7)</f>
-        <v>1732.08</v>
+        <v>1818</v>
       </c>
       <c r="H6" s="10">
-        <v>1732.08</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -787,49 +795,49 @@
         <v>5</v>
       </c>
       <c r="C7" s="2">
-        <v>7814</v>
+        <v>8273</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" ref="D7" si="5">C7-C9</f>
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="E7" s="2">
         <v>2.68</v>
       </c>
       <c r="F7" s="12">
         <f t="shared" si="4"/>
-        <v>412.72</v>
+        <v>434.16</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
-        <v>44459</v>
+        <v>44480</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="2">
-        <v>11168</v>
+        <v>11923</v>
       </c>
       <c r="D8" s="2">
         <f>C8-C10</f>
-        <v>191</v>
+        <v>252</v>
       </c>
       <c r="E8" s="6">
         <v>4.96</v>
       </c>
       <c r="F8" s="8">
         <f t="shared" ref="F8:F9" si="6">D8*E8</f>
-        <v>947.36</v>
+        <v>1249.92</v>
       </c>
       <c r="G8" s="10">
         <f>SUM(F8,F9)</f>
-        <v>1236.8</v>
+        <v>1609.04</v>
       </c>
       <c r="H8" s="10">
-        <v>1236.8</v>
+        <v>1609.04</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -838,49 +846,49 @@
         <v>5</v>
       </c>
       <c r="C9" s="2">
-        <v>7660</v>
+        <v>8111</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" ref="D9" si="7">C9-C11</f>
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="E9" s="2">
         <v>2.68</v>
       </c>
       <c r="F9" s="12">
         <f t="shared" si="6"/>
-        <v>289.44</v>
+        <v>359.12</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
-        <v>44452</v>
+        <v>44473</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="2">
-        <v>10977</v>
+        <v>11671</v>
       </c>
       <c r="D10" s="2">
         <f>C10-C12</f>
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E10" s="6">
         <v>4.96</v>
       </c>
       <c r="F10" s="8">
         <f t="shared" ref="F10:F11" si="8">D10*E10</f>
-        <v>1235.04</v>
+        <v>1175.52</v>
       </c>
       <c r="G10" s="10">
         <f>SUM(F10,F11)</f>
-        <v>1690.6399999999999</v>
+        <v>1612.3600000000001</v>
       </c>
       <c r="H10" s="10">
-        <v>1690.64</v>
+        <v>1612.36</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -889,49 +897,49 @@
         <v>5</v>
       </c>
       <c r="C11" s="2">
-        <v>7552</v>
+        <v>7977</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" ref="D11" si="9">C11-C13</f>
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E11" s="2">
         <v>2.68</v>
       </c>
       <c r="F11" s="12">
         <f t="shared" si="8"/>
-        <v>455.6</v>
+        <v>436.84000000000003</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
-        <v>44440</v>
+        <v>44466</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="2">
-        <v>10728</v>
+        <v>11434</v>
       </c>
       <c r="D12" s="2">
         <f>C12-C14</f>
-        <v>232</v>
+        <v>266</v>
       </c>
       <c r="E12" s="6">
         <v>4.96</v>
       </c>
       <c r="F12" s="8">
         <f t="shared" ref="F12:F13" si="10">D12*E12</f>
-        <v>1150.72</v>
+        <v>1319.36</v>
       </c>
       <c r="G12" s="10">
         <f>SUM(F12,F13)</f>
-        <v>1499.1200000000001</v>
+        <v>1732.08</v>
       </c>
       <c r="H12" s="10">
-        <v>1499.12</v>
+        <v>1732.08</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -940,49 +948,49 @@
         <v>5</v>
       </c>
       <c r="C13" s="2">
-        <v>7382</v>
+        <v>7814</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" ref="D13" si="11">C13-C15</f>
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="E13" s="2">
         <v>2.68</v>
       </c>
       <c r="F13" s="12">
         <f t="shared" si="10"/>
-        <v>348.40000000000003</v>
+        <v>412.72</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
-        <v>44431</v>
+        <v>44459</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="2">
-        <v>10496</v>
+        <v>11168</v>
       </c>
       <c r="D14" s="2">
         <f>C14-C16</f>
-        <v>77</v>
+        <v>191</v>
       </c>
       <c r="E14" s="6">
         <v>4.96</v>
       </c>
       <c r="F14" s="8">
         <f t="shared" ref="F14:F15" si="12">D14*E14</f>
-        <v>381.92</v>
+        <v>947.36</v>
       </c>
       <c r="G14" s="10">
         <f>SUM(F14,F15)</f>
-        <v>505.20000000000005</v>
+        <v>1236.8</v>
       </c>
       <c r="H14" s="10">
-        <v>505.2</v>
+        <v>1236.8</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -991,49 +999,49 @@
         <v>5</v>
       </c>
       <c r="C15" s="2">
-        <v>7252</v>
+        <v>7660</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" ref="D15" si="13">C15-C17</f>
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="E15" s="2">
         <v>2.68</v>
       </c>
       <c r="F15" s="12">
         <f t="shared" si="12"/>
-        <v>123.28</v>
+        <v>289.44</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
-        <v>44423</v>
+        <v>44452</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="2">
-        <v>10419</v>
+        <v>10977</v>
       </c>
       <c r="D16" s="2">
         <f>C16-C18</f>
-        <v>48</v>
+        <v>249</v>
       </c>
       <c r="E16" s="6">
         <v>4.96</v>
       </c>
       <c r="F16" s="8">
         <f t="shared" ref="F16:F17" si="14">D16*E16</f>
-        <v>238.07999999999998</v>
+        <v>1235.04</v>
       </c>
       <c r="G16" s="10">
         <f>SUM(F16,F17)</f>
-        <v>294.36</v>
+        <v>1690.6399999999999</v>
       </c>
       <c r="H16" s="10">
-        <v>294.36</v>
+        <v>1690.64</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1042,49 +1050,49 @@
         <v>5</v>
       </c>
       <c r="C17" s="2">
-        <v>7206</v>
+        <v>7552</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" ref="D17" si="15">C17-C19</f>
-        <v>21</v>
+        <v>170</v>
       </c>
       <c r="E17" s="2">
         <v>2.68</v>
       </c>
       <c r="F17" s="12">
         <f t="shared" si="14"/>
-        <v>56.28</v>
+        <v>455.6</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
-        <v>44418</v>
+        <v>44440</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="2">
-        <v>10371</v>
+        <v>10728</v>
       </c>
       <c r="D18" s="2">
         <f>C18-C20</f>
-        <v>103</v>
+        <v>232</v>
       </c>
       <c r="E18" s="6">
         <v>4.96</v>
       </c>
       <c r="F18" s="8">
         <f t="shared" ref="F18:F19" si="16">D18*E18</f>
-        <v>510.88</v>
+        <v>1150.72</v>
       </c>
       <c r="G18" s="10">
         <f>SUM(F18,F19)</f>
-        <v>636.84</v>
+        <v>1499.1200000000001</v>
       </c>
       <c r="H18" s="10">
-        <v>636.84</v>
+        <v>1499.12</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1093,49 +1101,49 @@
         <v>5</v>
       </c>
       <c r="C19" s="2">
-        <v>7185</v>
+        <v>7382</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" ref="D19" si="17">C19-C21</f>
-        <v>47</v>
+        <v>130</v>
       </c>
       <c r="E19" s="2">
         <v>2.68</v>
       </c>
       <c r="F19" s="12">
         <f t="shared" si="16"/>
-        <v>125.96000000000001</v>
+        <v>348.40000000000003</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
-        <v>44410</v>
+        <v>44431</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="2">
-        <v>10268</v>
+        <v>10496</v>
       </c>
       <c r="D20" s="2">
         <f>C20-C22</f>
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E20" s="6">
         <v>4.96</v>
       </c>
       <c r="F20" s="8">
         <f t="shared" ref="F20:F21" si="18">D20*E20</f>
-        <v>372</v>
+        <v>381.92</v>
       </c>
       <c r="G20" s="10">
         <f>SUM(F20,F21)</f>
-        <v>463.12</v>
+        <v>505.20000000000005</v>
       </c>
       <c r="H20" s="10">
-        <v>463.12</v>
+        <v>505.2</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1144,49 +1152,49 @@
         <v>5</v>
       </c>
       <c r="C21" s="2">
-        <v>7138</v>
+        <v>7252</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" ref="D21" si="19">C21-C23</f>
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E21" s="2">
         <v>2.68</v>
       </c>
       <c r="F21" s="12">
         <f t="shared" si="18"/>
-        <v>91.12</v>
+        <v>123.28</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
-        <v>44399</v>
+        <v>44423</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="2">
-        <v>10193</v>
+        <v>10419</v>
       </c>
       <c r="D22" s="2">
         <f>C22-C24</f>
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E22" s="6">
         <v>4.96</v>
       </c>
       <c r="F22" s="8">
         <f t="shared" ref="F22:F23" si="20">D22*E22</f>
-        <v>208.32</v>
+        <v>238.07999999999998</v>
       </c>
       <c r="G22" s="10">
         <f>SUM(F22,F23)</f>
-        <v>256.56</v>
+        <v>294.36</v>
       </c>
       <c r="H22" s="10">
-        <v>256.56</v>
+        <v>294.36</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1195,49 +1203,49 @@
         <v>5</v>
       </c>
       <c r="C23" s="2">
-        <v>7104</v>
+        <v>7206</v>
       </c>
       <c r="D23" s="2">
         <f t="shared" ref="D23" si="21">C23-C25</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E23" s="2">
         <v>2.68</v>
       </c>
       <c r="F23" s="12">
         <f t="shared" si="20"/>
-        <v>48.24</v>
+        <v>56.28</v>
       </c>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
-        <v>44389</v>
+        <v>44418</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="2">
-        <v>10151</v>
+        <v>10371</v>
       </c>
       <c r="D24" s="2">
         <f>C24-C26</f>
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="E24" s="6">
         <v>4.96</v>
       </c>
       <c r="F24" s="8">
         <f t="shared" ref="F24:F25" si="22">D24*E24</f>
-        <v>178.56</v>
+        <v>510.88</v>
       </c>
       <c r="G24" s="10">
         <f>SUM(F24,F25)</f>
-        <v>232.16</v>
+        <v>636.84</v>
       </c>
       <c r="H24" s="10">
-        <v>232.16</v>
+        <v>636.84</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1246,49 +1254,49 @@
         <v>5</v>
       </c>
       <c r="C25" s="2">
-        <v>7086</v>
+        <v>7185</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" ref="D25" si="23">C25-C27</f>
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E25" s="2">
         <v>2.68</v>
       </c>
       <c r="F25" s="12">
         <f t="shared" si="22"/>
-        <v>53.6</v>
+        <v>125.96000000000001</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
-        <v>44378</v>
+        <v>44410</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C26" s="2">
-        <v>10115</v>
+        <v>10268</v>
       </c>
       <c r="D26" s="2">
         <f>C26-C28</f>
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="E26" s="6">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F26" s="8">
         <f t="shared" ref="F26:F27" si="24">D26*E26</f>
-        <v>202.53</v>
+        <v>372</v>
       </c>
       <c r="G26" s="10">
         <f>SUM(F26,F27)</f>
-        <v>250.98</v>
+        <v>463.12</v>
       </c>
       <c r="H26" s="10">
-        <v>250.98</v>
+        <v>463.12</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1297,49 +1305,49 @@
         <v>5</v>
       </c>
       <c r="C27" s="2">
-        <v>7066</v>
+        <v>7138</v>
       </c>
       <c r="D27" s="2">
         <f t="shared" ref="D27" si="25">C27-C29</f>
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E27" s="2">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F27" s="12">
         <f t="shared" si="24"/>
-        <v>48.449999999999996</v>
+        <v>91.12</v>
       </c>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
-        <v>44368</v>
+        <v>44399</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C28" s="2">
-        <v>10072</v>
+        <v>10193</v>
       </c>
       <c r="D28" s="2">
         <f>C28-C30</f>
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="E28" s="6">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F28" s="8">
         <f t="shared" ref="F28:F29" si="26">D28*E28</f>
-        <v>405.06</v>
+        <v>208.32</v>
       </c>
       <c r="G28" s="10">
         <f>SUM(F28,F29)</f>
-        <v>575.91</v>
+        <v>256.56</v>
       </c>
       <c r="H28" s="10">
-        <v>575.91</v>
+        <v>256.56</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1348,49 +1356,49 @@
         <v>5</v>
       </c>
       <c r="C29" s="2">
-        <v>7047</v>
+        <v>7104</v>
       </c>
       <c r="D29" s="2">
         <f t="shared" ref="D29" si="27">C29-C31</f>
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="E29" s="2">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F29" s="12">
         <f t="shared" si="26"/>
-        <v>170.85</v>
+        <v>48.24</v>
       </c>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
-        <v>44356</v>
+        <v>44389</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C30" s="2">
-        <v>9986</v>
+        <v>10151</v>
       </c>
       <c r="D30" s="2">
         <f>C30-C32</f>
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="E30" s="6">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F30" s="8">
         <f t="shared" ref="F30:F31" si="28">D30*E30</f>
-        <v>329.7</v>
+        <v>178.56</v>
       </c>
       <c r="G30" s="10">
         <f>SUM(F30,F31)</f>
-        <v>485.25</v>
+        <v>232.16</v>
       </c>
       <c r="H30" s="10">
-        <v>485.25</v>
+        <v>232.16</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1399,100 +1407,100 @@
         <v>5</v>
       </c>
       <c r="C31" s="2">
-        <v>6980</v>
+        <v>7086</v>
       </c>
       <c r="D31" s="2">
         <f t="shared" ref="D31" si="29">C31-C33</f>
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="E31" s="2">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F31" s="12">
         <f t="shared" si="28"/>
-        <v>155.54999999999998</v>
+        <v>53.6</v>
       </c>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
-        <v>44350</v>
+        <v>44378</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C32" s="2">
-        <v>9916</v>
+        <v>10115</v>
       </c>
       <c r="D32" s="2">
         <f>C32-C34</f>
-        <v>192</v>
+        <v>43</v>
       </c>
       <c r="E32" s="6">
         <v>4.71</v>
       </c>
       <c r="F32" s="8">
         <f t="shared" ref="F32:F33" si="30">D32*E32</f>
-        <v>904.31999999999994</v>
+        <v>202.53</v>
       </c>
       <c r="G32" s="10">
         <f>SUM(F32,F33)</f>
-        <v>1268.9699999999998</v>
+        <v>250.98</v>
       </c>
       <c r="H32" s="10">
-        <v>1266.42</v>
+        <v>250.98</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="18"/>
+      <c r="A33" s="2"/>
       <c r="B33" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C33" s="2">
-        <v>6919</v>
+        <v>7066</v>
       </c>
       <c r="D33" s="2">
         <f t="shared" ref="D33" si="31">C33-C35</f>
-        <v>143</v>
+        <v>19</v>
       </c>
       <c r="E33" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F33" s="12">
         <f t="shared" si="30"/>
-        <v>364.65</v>
+        <v>48.449999999999996</v>
       </c>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="14">
-        <v>44344</v>
+        <v>44368</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C34" s="2">
-        <v>9724</v>
+        <v>10072</v>
       </c>
       <c r="D34" s="2">
         <f>C34-C36</f>
-        <v>145</v>
+        <v>86</v>
       </c>
       <c r="E34" s="6">
         <v>4.71</v>
       </c>
       <c r="F34" s="8">
         <f t="shared" ref="F34:F35" si="32">D34*E34</f>
-        <v>682.95</v>
+        <v>405.06</v>
       </c>
       <c r="G34" s="10">
         <f>SUM(F34,F35)</f>
-        <v>966</v>
+        <v>575.91</v>
       </c>
       <c r="H34" s="10">
-        <v>966</v>
+        <v>575.91</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1501,49 +1509,49 @@
         <v>5</v>
       </c>
       <c r="C35" s="2">
-        <v>6776</v>
+        <v>7047</v>
       </c>
       <c r="D35" s="2">
         <f t="shared" ref="D35" si="33">C35-C37</f>
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="E35" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F35" s="12">
         <f t="shared" si="32"/>
-        <v>283.04999999999995</v>
+        <v>170.85</v>
       </c>
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="14">
-        <v>44333</v>
+        <v>44356</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C36" s="2">
-        <v>9579</v>
+        <v>9986</v>
       </c>
       <c r="D36" s="2">
         <f>C36-C38</f>
-        <v>228</v>
+        <v>70</v>
       </c>
       <c r="E36" s="6">
         <v>4.71</v>
       </c>
       <c r="F36" s="8">
         <f t="shared" ref="F36:F37" si="34">D36*E36</f>
-        <v>1073.8799999999999</v>
+        <v>329.7</v>
       </c>
       <c r="G36" s="10">
         <f>SUM(F36,F37)</f>
-        <v>1494.6299999999999</v>
+        <v>485.25</v>
       </c>
       <c r="H36" s="10">
-        <v>1494.63</v>
+        <v>485.25</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1552,100 +1560,100 @@
         <v>5</v>
       </c>
       <c r="C37" s="2">
-        <v>6665</v>
+        <v>6980</v>
       </c>
       <c r="D37" s="2">
         <f t="shared" ref="D37" si="35">C37-C39</f>
-        <v>165</v>
+        <v>61</v>
       </c>
       <c r="E37" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F37" s="12">
         <f t="shared" si="34"/>
-        <v>420.74999999999994</v>
+        <v>155.54999999999998</v>
       </c>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="14">
-        <v>44322</v>
+        <v>44350</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C38" s="2">
-        <v>9351</v>
+        <v>9916</v>
       </c>
       <c r="D38" s="2">
         <f>C38-C40</f>
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="E38" s="6">
         <v>4.71</v>
       </c>
       <c r="F38" s="8">
         <f t="shared" ref="F38:F39" si="36">D38*E38</f>
-        <v>1069.17</v>
+        <v>904.31999999999994</v>
       </c>
       <c r="G38" s="10">
         <f>SUM(F38,F39)</f>
-        <v>1405.77</v>
+        <v>1268.9699999999998</v>
       </c>
       <c r="H38" s="10">
-        <v>1405.77</v>
+        <v>1266.42</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
+      <c r="A39" s="18"/>
       <c r="B39" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C39" s="2">
-        <v>6500</v>
+        <v>6919</v>
       </c>
       <c r="D39" s="2">
         <f t="shared" ref="D39" si="37">C39-C41</f>
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="E39" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F39" s="12">
         <f t="shared" si="36"/>
-        <v>336.59999999999997</v>
+        <v>364.65</v>
       </c>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="14">
-        <v>44305</v>
+        <v>44344</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C40" s="2">
-        <v>9124</v>
+        <v>9724</v>
       </c>
       <c r="D40" s="2">
         <f>C40-C42</f>
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="E40" s="6">
         <v>4.71</v>
       </c>
       <c r="F40" s="8">
         <f t="shared" ref="F40:F41" si="38">D40*E40</f>
-        <v>631.14</v>
+        <v>682.95</v>
       </c>
       <c r="G40" s="10">
         <f>SUM(F40,F41)</f>
-        <v>886.14</v>
+        <v>966</v>
       </c>
       <c r="H40" s="10">
-        <v>886.14</v>
+        <v>966</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -1654,49 +1662,49 @@
         <v>5</v>
       </c>
       <c r="C41" s="2">
-        <v>6368</v>
+        <v>6776</v>
       </c>
       <c r="D41" s="2">
         <f t="shared" ref="D41" si="39">C41-C43</f>
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="E41" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F41" s="12">
         <f t="shared" si="38"/>
-        <v>254.99999999999997</v>
+        <v>283.04999999999995</v>
       </c>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="14">
-        <v>44270</v>
+        <v>44333</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C42" s="2">
-        <v>8990</v>
+        <v>9579</v>
       </c>
       <c r="D42" s="2">
         <f>C42-C44</f>
-        <v>17</v>
+        <v>228</v>
       </c>
       <c r="E42" s="6">
         <v>4.71</v>
       </c>
       <c r="F42" s="8">
         <f t="shared" ref="F42:F43" si="40">D42*E42</f>
-        <v>80.069999999999993</v>
+        <v>1073.8799999999999</v>
       </c>
       <c r="G42" s="10">
         <f>SUM(F42,F43)</f>
-        <v>80.069999999999993</v>
+        <v>1494.6299999999999</v>
       </c>
       <c r="H42" s="10">
-        <v>83.47</v>
+        <v>1494.63</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -1705,49 +1713,49 @@
         <v>5</v>
       </c>
       <c r="C43" s="2">
-        <v>6268</v>
+        <v>6665</v>
       </c>
       <c r="D43" s="2">
         <f t="shared" ref="D43" si="41">C43-C45</f>
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="E43" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F43" s="12">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>420.74999999999994</v>
       </c>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="14">
-        <v>44256</v>
+        <v>44322</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C44" s="2">
-        <v>8973</v>
+        <v>9351</v>
       </c>
       <c r="D44" s="2">
         <f>C44-C46</f>
-        <v>100</v>
+        <v>227</v>
       </c>
       <c r="E44" s="6">
         <v>4.71</v>
       </c>
       <c r="F44" s="8">
         <f t="shared" ref="F44:F45" si="42">D44*E44</f>
-        <v>471</v>
+        <v>1069.17</v>
       </c>
       <c r="G44" s="10">
         <f>SUM(F44,F45)</f>
-        <v>471</v>
+        <v>1405.77</v>
       </c>
       <c r="H44" s="10">
-        <v>471</v>
+        <v>1405.77</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -1756,49 +1764,49 @@
         <v>5</v>
       </c>
       <c r="C45" s="2">
-        <v>6268</v>
+        <v>6500</v>
       </c>
       <c r="D45" s="2">
         <f t="shared" ref="D45" si="43">C45-C47</f>
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="E45" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F45" s="12">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>336.59999999999997</v>
       </c>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="14">
-        <v>44207</v>
+        <v>44305</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C46" s="2">
-        <v>8873</v>
+        <v>9124</v>
       </c>
       <c r="D46" s="2">
         <f>C46-C48</f>
-        <v>401</v>
+        <v>134</v>
       </c>
       <c r="E46" s="6">
         <v>4.71</v>
       </c>
       <c r="F46" s="8">
         <f t="shared" ref="F46:F47" si="44">D46*E46</f>
-        <v>1888.71</v>
+        <v>631.14</v>
       </c>
       <c r="G46" s="10">
         <f>SUM(F46,F47)</f>
-        <v>2419.11</v>
+        <v>886.14</v>
       </c>
       <c r="H46" s="10">
-        <v>2419.11</v>
+        <v>886.14</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -1807,49 +1815,49 @@
         <v>5</v>
       </c>
       <c r="C47" s="2">
-        <v>6268</v>
+        <v>6368</v>
       </c>
       <c r="D47" s="2">
         <f t="shared" ref="D47" si="45">C47-C49</f>
-        <v>208</v>
+        <v>100</v>
       </c>
       <c r="E47" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F47" s="12">
         <f t="shared" si="44"/>
-        <v>530.4</v>
+        <v>254.99999999999997</v>
       </c>
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="14">
-        <v>44200</v>
+        <v>44270</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C48" s="2">
-        <v>8472</v>
+        <v>8990</v>
       </c>
       <c r="D48" s="2">
         <f>C48-C50</f>
-        <v>310</v>
+        <v>17</v>
       </c>
       <c r="E48" s="6">
         <v>4.71</v>
       </c>
       <c r="F48" s="8">
         <f t="shared" ref="F48:F49" si="46">D48*E48</f>
-        <v>1460.1</v>
+        <v>80.069999999999993</v>
       </c>
       <c r="G48" s="10">
         <f>SUM(F48,F49)</f>
-        <v>1926.75</v>
+        <v>80.069999999999993</v>
       </c>
       <c r="H48" s="10">
-        <v>1926.75</v>
+        <v>83.47</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -1858,49 +1866,49 @@
         <v>5</v>
       </c>
       <c r="C49" s="2">
-        <v>6060</v>
+        <v>6268</v>
       </c>
       <c r="D49" s="2">
-        <f t="shared" ref="D49:D69" si="47">C49-C51</f>
-        <v>183</v>
+        <f t="shared" ref="D49" si="47">C49-C51</f>
+        <v>0</v>
       </c>
       <c r="E49" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F49" s="12">
         <f t="shared" si="46"/>
-        <v>466.65</v>
+        <v>0</v>
       </c>
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="14">
-        <v>44193</v>
+        <v>44256</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C50" s="2">
-        <v>8162</v>
+        <v>8973</v>
       </c>
       <c r="D50" s="2">
         <f>C50-C52</f>
-        <v>231</v>
+        <v>100</v>
       </c>
       <c r="E50" s="6">
         <v>4.71</v>
       </c>
       <c r="F50" s="8">
-        <f t="shared" ref="F50:F69" si="48">D50*E50</f>
-        <v>1088.01</v>
+        <f t="shared" ref="F50:F51" si="48">D50*E50</f>
+        <v>471</v>
       </c>
       <c r="G50" s="10">
         <f>SUM(F50,F51)</f>
-        <v>1608.21</v>
+        <v>471</v>
       </c>
       <c r="H50" s="10">
-        <v>1608.21</v>
+        <v>471</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -1909,49 +1917,49 @@
         <v>5</v>
       </c>
       <c r="C51" s="2">
-        <v>5877</v>
+        <v>6268</v>
       </c>
       <c r="D51" s="2">
-        <f t="shared" si="47"/>
-        <v>204</v>
+        <f t="shared" ref="D51" si="49">C51-C53</f>
+        <v>0</v>
       </c>
       <c r="E51" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F51" s="12">
         <f t="shared" si="48"/>
-        <v>520.19999999999993</v>
+        <v>0</v>
       </c>
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="5">
-        <v>44186</v>
+      <c r="A52" s="14">
+        <v>44207</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C52" s="2">
-        <v>7931</v>
+        <v>8873</v>
       </c>
       <c r="D52" s="2">
-        <f t="shared" si="47"/>
-        <v>221</v>
+        <f>C52-C54</f>
+        <v>401</v>
       </c>
       <c r="E52" s="6">
         <v>4.71</v>
       </c>
       <c r="F52" s="8">
-        <f t="shared" si="48"/>
-        <v>1040.9100000000001</v>
+        <f t="shared" ref="F52:F53" si="50">D52*E52</f>
+        <v>1888.71</v>
       </c>
       <c r="G52" s="10">
         <f>SUM(F52,F53)</f>
-        <v>1525.41</v>
+        <v>2419.11</v>
       </c>
       <c r="H52" s="10">
-        <v>1525.41</v>
+        <v>2419.11</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -1960,49 +1968,49 @@
         <v>5</v>
       </c>
       <c r="C53" s="2">
-        <v>5673</v>
+        <v>6268</v>
       </c>
       <c r="D53" s="2">
-        <f t="shared" si="47"/>
-        <v>190</v>
+        <f t="shared" ref="D53" si="51">C53-C55</f>
+        <v>208</v>
       </c>
       <c r="E53" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F53" s="12">
-        <f t="shared" si="48"/>
-        <v>484.49999999999994</v>
+        <f t="shared" si="50"/>
+        <v>530.4</v>
       </c>
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="5">
-        <v>44179</v>
+      <c r="A54" s="14">
+        <v>44200</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C54" s="2">
-        <v>7710</v>
+        <v>8472</v>
       </c>
       <c r="D54" s="2">
-        <f t="shared" si="47"/>
-        <v>157</v>
+        <f>C54-C56</f>
+        <v>310</v>
       </c>
       <c r="E54" s="6">
         <v>4.71</v>
       </c>
       <c r="F54" s="8">
-        <f t="shared" si="48"/>
-        <v>739.47</v>
+        <f t="shared" ref="F54:F55" si="52">D54*E54</f>
+        <v>1460.1</v>
       </c>
       <c r="G54" s="10">
         <f>SUM(F54,F55)</f>
-        <v>1180.6199999999999</v>
+        <v>1926.75</v>
       </c>
       <c r="H54" s="10">
-        <v>1180.6199999999999</v>
+        <v>1926.75</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -2011,49 +2019,49 @@
         <v>5</v>
       </c>
       <c r="C55" s="2">
-        <v>5483</v>
+        <v>6060</v>
       </c>
       <c r="D55" s="2">
-        <f>C55-C57</f>
-        <v>173</v>
+        <f t="shared" ref="D55:D75" si="53">C55-C57</f>
+        <v>183</v>
       </c>
       <c r="E55" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F55" s="12">
-        <f t="shared" si="48"/>
-        <v>441.15</v>
+        <f t="shared" si="52"/>
+        <v>466.65</v>
       </c>
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="5">
-        <v>44172</v>
+      <c r="A56" s="14">
+        <v>44193</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C56" s="2">
-        <v>7553</v>
+        <v>8162</v>
       </c>
       <c r="D56" s="2">
-        <f t="shared" si="47"/>
-        <v>168</v>
+        <f>C56-C58</f>
+        <v>231</v>
       </c>
       <c r="E56" s="6">
         <v>4.71</v>
       </c>
       <c r="F56" s="8">
-        <f t="shared" si="48"/>
-        <v>791.28</v>
+        <f t="shared" ref="F56:F75" si="54">D56*E56</f>
+        <v>1088.01</v>
       </c>
       <c r="G56" s="10">
         <f>SUM(F56,F57)</f>
-        <v>1204.3799999999999</v>
+        <v>1608.21</v>
       </c>
       <c r="H56" s="10">
-        <v>1204.3800000000001</v>
+        <v>1608.21</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -2062,49 +2070,49 @@
         <v>5</v>
       </c>
       <c r="C57" s="2">
-        <v>5310</v>
+        <v>5877</v>
       </c>
       <c r="D57" s="2">
-        <f t="shared" si="47"/>
-        <v>162</v>
+        <f t="shared" si="53"/>
+        <v>204</v>
       </c>
       <c r="E57" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F57" s="12">
-        <f t="shared" si="48"/>
-        <v>413.09999999999997</v>
+        <f t="shared" si="54"/>
+        <v>520.19999999999993</v>
       </c>
       <c r="G57" s="10"/>
       <c r="H57" s="10"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
-        <v>44165</v>
+        <v>44186</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C58" s="2">
-        <v>7385</v>
+        <v>7931</v>
       </c>
       <c r="D58" s="2">
-        <f t="shared" si="47"/>
-        <v>150</v>
+        <f t="shared" si="53"/>
+        <v>221</v>
       </c>
       <c r="E58" s="6">
         <v>4.71</v>
       </c>
       <c r="F58" s="8">
-        <f t="shared" si="48"/>
-        <v>706.5</v>
+        <f t="shared" si="54"/>
+        <v>1040.9100000000001</v>
       </c>
       <c r="G58" s="10">
         <f>SUM(F58,F59)</f>
-        <v>1211.4000000000001</v>
+        <v>1525.41</v>
       </c>
       <c r="H58" s="10">
-        <v>1211.4000000000001</v>
+        <v>1525.41</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -2113,49 +2121,49 @@
         <v>5</v>
       </c>
       <c r="C59" s="2">
-        <v>5148</v>
+        <v>5673</v>
       </c>
       <c r="D59" s="2">
-        <f t="shared" si="47"/>
-        <v>198</v>
+        <f t="shared" si="53"/>
+        <v>190</v>
       </c>
       <c r="E59" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F59" s="12">
-        <f t="shared" si="48"/>
-        <v>504.9</v>
+        <f t="shared" si="54"/>
+        <v>484.49999999999994</v>
       </c>
       <c r="G59" s="10"/>
       <c r="H59" s="10"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
-        <v>44158</v>
+        <v>44179</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C60" s="2">
-        <v>7235</v>
+        <v>7710</v>
       </c>
       <c r="D60" s="2">
-        <f t="shared" si="47"/>
-        <v>229</v>
+        <f t="shared" si="53"/>
+        <v>157</v>
       </c>
       <c r="E60" s="6">
         <v>4.71</v>
       </c>
       <c r="F60" s="8">
-        <f t="shared" si="48"/>
-        <v>1078.5899999999999</v>
+        <f t="shared" si="54"/>
+        <v>739.47</v>
       </c>
       <c r="G60" s="10">
         <f>SUM(F60,F61)</f>
-        <v>1812.9899999999998</v>
+        <v>1180.6199999999999</v>
       </c>
       <c r="H60" s="10">
-        <v>1812.99</v>
+        <v>1180.6199999999999</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -2164,49 +2172,49 @@
         <v>5</v>
       </c>
       <c r="C61" s="2">
-        <v>4950</v>
+        <v>5483</v>
       </c>
       <c r="D61" s="2">
-        <f t="shared" si="47"/>
-        <v>288</v>
+        <f>C61-C63</f>
+        <v>173</v>
       </c>
       <c r="E61" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F61" s="12">
-        <f t="shared" si="48"/>
-        <v>734.4</v>
+        <f t="shared" si="54"/>
+        <v>441.15</v>
       </c>
       <c r="G61" s="10"/>
       <c r="H61" s="10"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
-        <v>44144</v>
+        <v>44172</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C62" s="2">
-        <v>7006</v>
+        <v>7553</v>
       </c>
       <c r="D62" s="2">
-        <f t="shared" si="47"/>
-        <v>193</v>
+        <f t="shared" si="53"/>
+        <v>168</v>
       </c>
       <c r="E62" s="6">
         <v>4.71</v>
       </c>
       <c r="F62" s="8">
-        <f t="shared" si="48"/>
-        <v>909.03</v>
+        <f t="shared" si="54"/>
+        <v>791.28</v>
       </c>
       <c r="G62" s="10">
         <f>SUM(F62,F63)</f>
-        <v>1248.1799999999998</v>
+        <v>1204.3799999999999</v>
       </c>
       <c r="H62" s="10">
-        <v>1248.18</v>
+        <v>1204.3800000000001</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -2215,49 +2223,49 @@
         <v>5</v>
       </c>
       <c r="C63" s="2">
-        <v>4662</v>
+        <v>5310</v>
       </c>
       <c r="D63" s="2">
-        <f t="shared" si="47"/>
-        <v>133</v>
+        <f t="shared" si="53"/>
+        <v>162</v>
       </c>
       <c r="E63" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F63" s="12">
-        <f t="shared" si="48"/>
-        <v>339.15</v>
+        <f t="shared" si="54"/>
+        <v>413.09999999999997</v>
       </c>
       <c r="G63" s="10"/>
       <c r="H63" s="10"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
-        <v>44137</v>
+        <v>44165</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C64" s="2">
-        <v>6813</v>
+        <v>7385</v>
       </c>
       <c r="D64" s="2">
-        <f t="shared" si="47"/>
-        <v>189</v>
+        <f t="shared" si="53"/>
+        <v>150</v>
       </c>
       <c r="E64" s="6">
         <v>4.71</v>
       </c>
       <c r="F64" s="8">
-        <f t="shared" si="48"/>
-        <v>890.18999999999994</v>
+        <f t="shared" si="54"/>
+        <v>706.5</v>
       </c>
       <c r="G64" s="10">
         <f>SUM(F64,F65)</f>
-        <v>1295.6399999999999</v>
+        <v>1211.4000000000001</v>
       </c>
       <c r="H64" s="10">
-        <v>1295.6400000000001</v>
+        <v>1211.4000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -2266,49 +2274,49 @@
         <v>5</v>
       </c>
       <c r="C65" s="2">
-        <v>4529</v>
+        <v>5148</v>
       </c>
       <c r="D65" s="2">
-        <f t="shared" si="47"/>
-        <v>159</v>
+        <f t="shared" si="53"/>
+        <v>198</v>
       </c>
       <c r="E65" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F65" s="12">
-        <f t="shared" si="48"/>
-        <v>405.45</v>
+        <f t="shared" si="54"/>
+        <v>504.9</v>
       </c>
       <c r="G65" s="10"/>
       <c r="H65" s="10"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
-        <v>44126</v>
+        <v>44158</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C66" s="2">
-        <v>6624</v>
+        <v>7235</v>
       </c>
       <c r="D66" s="2">
-        <f t="shared" si="47"/>
-        <v>438</v>
+        <f t="shared" si="53"/>
+        <v>229</v>
       </c>
       <c r="E66" s="6">
         <v>4.71</v>
       </c>
       <c r="F66" s="8">
-        <f t="shared" si="48"/>
-        <v>2062.98</v>
+        <f t="shared" si="54"/>
+        <v>1078.5899999999999</v>
       </c>
       <c r="G66" s="10">
         <f>SUM(F66,F67)</f>
-        <v>2774.43</v>
+        <v>1812.9899999999998</v>
       </c>
       <c r="H66" s="10">
-        <v>2774.43</v>
+        <v>1812.99</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -2317,49 +2325,49 @@
         <v>5</v>
       </c>
       <c r="C67" s="2">
-        <v>4370</v>
+        <v>4950</v>
       </c>
       <c r="D67" s="2">
-        <f t="shared" si="47"/>
-        <v>279</v>
+        <f t="shared" si="53"/>
+        <v>288</v>
       </c>
       <c r="E67" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F67" s="12">
-        <f t="shared" si="48"/>
-        <v>711.44999999999993</v>
+        <f t="shared" si="54"/>
+        <v>734.4</v>
       </c>
       <c r="G67" s="10"/>
       <c r="H67" s="10"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
-        <v>44116</v>
+        <v>44144</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C68" s="2">
-        <v>6186</v>
+        <v>7006</v>
       </c>
       <c r="D68" s="2">
-        <f t="shared" si="47"/>
-        <v>329</v>
+        <f t="shared" si="53"/>
+        <v>193</v>
       </c>
       <c r="E68" s="6">
         <v>4.71</v>
       </c>
       <c r="F68" s="8">
-        <f t="shared" si="48"/>
-        <v>1549.59</v>
+        <f t="shared" si="54"/>
+        <v>909.03</v>
       </c>
       <c r="G68" s="10">
         <f>SUM(F68,F69)</f>
-        <v>2189.64</v>
+        <v>1248.1799999999998</v>
       </c>
       <c r="H68" s="10">
-        <v>2189.64</v>
+        <v>1248.18</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -2368,37 +2376,50 @@
         <v>5</v>
       </c>
       <c r="C69" s="2">
-        <v>4091</v>
+        <v>4662</v>
       </c>
       <c r="D69" s="2">
-        <f t="shared" si="47"/>
-        <v>251</v>
+        <f t="shared" si="53"/>
+        <v>133</v>
       </c>
       <c r="E69" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F69" s="12">
-        <f t="shared" si="48"/>
-        <v>640.04999999999995</v>
+        <f t="shared" si="54"/>
+        <v>339.15</v>
       </c>
       <c r="G69" s="10"/>
       <c r="H69" s="10"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
-        <v>44102</v>
+        <v>44137</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C70" s="2">
-        <v>5857</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="10"/>
-      <c r="H70" s="10"/>
+        <v>6813</v>
+      </c>
+      <c r="D70" s="2">
+        <f t="shared" si="53"/>
+        <v>189</v>
+      </c>
+      <c r="E70" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F70" s="8">
+        <f t="shared" si="54"/>
+        <v>890.18999999999994</v>
+      </c>
+      <c r="G70" s="10">
+        <f>SUM(F70,F71)</f>
+        <v>1295.6399999999999</v>
+      </c>
+      <c r="H70" s="10">
+        <v>1295.6400000000001</v>
+      </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
@@ -2406,28 +2427,168 @@
         <v>5</v>
       </c>
       <c r="C71" s="2">
-        <v>3840</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="16"/>
+        <v>4529</v>
+      </c>
+      <c r="D71" s="2">
+        <f t="shared" si="53"/>
+        <v>159</v>
+      </c>
+      <c r="E71" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F71" s="12">
+        <f t="shared" si="54"/>
+        <v>405.45</v>
+      </c>
       <c r="G71" s="10"/>
       <c r="H71" s="10"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="5">
+        <v>44126</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" s="2">
+        <v>6624</v>
+      </c>
+      <c r="D72" s="2">
+        <f t="shared" si="53"/>
+        <v>438</v>
+      </c>
+      <c r="E72" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F72" s="8">
+        <f t="shared" si="54"/>
+        <v>2062.98</v>
+      </c>
       <c r="G72" s="10">
-        <f>SUM(G30:G71)</f>
+        <f>SUM(F72,F73)</f>
+        <v>2774.43</v>
+      </c>
+      <c r="H72" s="10">
+        <v>2774.43</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="2">
+        <v>4370</v>
+      </c>
+      <c r="D73" s="2">
+        <f t="shared" si="53"/>
+        <v>279</v>
+      </c>
+      <c r="E73" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F73" s="12">
+        <f t="shared" si="54"/>
+        <v>711.44999999999993</v>
+      </c>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="5">
+        <v>44116</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" s="2">
+        <v>6186</v>
+      </c>
+      <c r="D74" s="2">
+        <f t="shared" si="53"/>
+        <v>329</v>
+      </c>
+      <c r="E74" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F74" s="8">
+        <f t="shared" si="54"/>
+        <v>1549.59</v>
+      </c>
+      <c r="G74" s="10">
+        <f>SUM(F74,F75)</f>
+        <v>2189.64</v>
+      </c>
+      <c r="H74" s="10">
+        <v>2189.64</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" s="2">
+        <v>4091</v>
+      </c>
+      <c r="D75" s="2">
+        <f t="shared" si="53"/>
+        <v>251</v>
+      </c>
+      <c r="E75" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F75" s="12">
+        <f t="shared" si="54"/>
+        <v>640.04999999999995</v>
+      </c>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="5">
+        <v>44102</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76" s="2">
+        <v>5857</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" s="2">
+        <v>3840</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G78" s="10">
+        <f>SUM(G36:G77)</f>
         <v>27454.589999999997</v>
       </c>
-      <c r="H72" s="10">
-        <f>SUM(H30:H71)</f>
+      <c r="H78" s="10">
+        <f>SUM(H36:H77)</f>
         <v>27455.440000000002</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G73" s="17"/>
-      <c r="H73" s="10">
-        <f>SUM(H72,-G72)</f>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G79" s="17"/>
+      <c r="H79" s="10">
+        <f>SUM(H78,-G78)</f>
         <v>0.85000000000582077</v>
       </c>
     </row>

--- a/sputnik/personal/ee/253ee.xlsx
+++ b/sputnik/personal/ee/253ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 15.10.2021\16.09.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 15.10.2021 вкл-но\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 31.10.2021\30.11.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 30.11.2021 вкл-но\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -611,10 +611,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H79"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -660,31 +660,31 @@
     </row>
     <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
-        <v>44501</v>
+        <v>44536</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="2">
-        <v>12684</v>
+        <v>13076</v>
       </c>
       <c r="D2" s="2">
         <f>C2-C4</f>
-        <v>232</v>
+        <v>113</v>
       </c>
       <c r="E2" s="6">
         <v>4.96</v>
       </c>
       <c r="F2" s="8">
-        <f t="shared" ref="F2:F3" si="0">D2*E2</f>
-        <v>1150.72</v>
+        <f t="shared" ref="F2:F5" si="0">D2*E2</f>
+        <v>560.48</v>
       </c>
       <c r="G2" s="19">
         <f>SUM(F2,F3)</f>
-        <v>1568.8000000000002</v>
+        <v>788.28</v>
       </c>
       <c r="H2" s="19">
-        <v>1300.8</v>
+        <v>788.28</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -693,49 +693,49 @@
         <v>5</v>
       </c>
       <c r="C3" s="2">
-        <v>8593</v>
+        <v>8912</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3" si="1">C3-C5</f>
-        <v>156</v>
+        <f>C3-C5</f>
+        <v>85</v>
       </c>
       <c r="E3" s="2">
         <v>2.68</v>
       </c>
       <c r="F3" s="12">
         <f t="shared" si="0"/>
-        <v>418.08000000000004</v>
+        <v>227.8</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
-        <v>44494</v>
+        <v>44515</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="2">
-        <v>12452</v>
+        <v>12963</v>
       </c>
       <c r="D4" s="2">
         <f>C4-C6</f>
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="E4" s="6">
         <v>4.96</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" ref="F4:F5" si="2">D4*E4</f>
-        <v>1240</v>
-      </c>
-      <c r="G4" s="10">
+        <f t="shared" si="0"/>
+        <v>1383.84</v>
+      </c>
+      <c r="G4" s="19">
         <f>SUM(F4,F5)</f>
-        <v>1679.52</v>
-      </c>
-      <c r="H4" s="10">
-        <v>1679.52</v>
+        <v>2010.96</v>
+      </c>
+      <c r="H4" s="19">
+        <v>2010.96</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -744,49 +744,49 @@
         <v>5</v>
       </c>
       <c r="C5" s="2">
-        <v>8437</v>
+        <v>8827</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" ref="D5" si="3">C5-C7</f>
-        <v>164</v>
+        <f t="shared" ref="D5" si="1">C5-C7</f>
+        <v>234</v>
       </c>
       <c r="E5" s="2">
         <v>2.68</v>
       </c>
       <c r="F5" s="12">
-        <f t="shared" si="2"/>
-        <v>439.52000000000004</v>
+        <f t="shared" si="0"/>
+        <v>627.12</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
-        <v>44487</v>
+        <v>44501</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="2">
-        <v>12202</v>
+        <v>12684</v>
       </c>
       <c r="D6" s="2">
         <f>C6-C8</f>
-        <v>279</v>
+        <v>232</v>
       </c>
       <c r="E6" s="6">
         <v>4.96</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" ref="F6:F7" si="4">D6*E6</f>
-        <v>1383.84</v>
-      </c>
-      <c r="G6" s="10">
+        <f t="shared" ref="F6:F7" si="2">D6*E6</f>
+        <v>1150.72</v>
+      </c>
+      <c r="G6" s="19">
         <f>SUM(F6,F7)</f>
-        <v>1818</v>
-      </c>
-      <c r="H6" s="10">
-        <v>1818</v>
+        <v>1568.8000000000002</v>
+      </c>
+      <c r="H6" s="19">
+        <v>1300.8</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -795,49 +795,49 @@
         <v>5</v>
       </c>
       <c r="C7" s="2">
-        <v>8273</v>
+        <v>8593</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" ref="D7" si="5">C7-C9</f>
-        <v>162</v>
+        <f t="shared" ref="D7" si="3">C7-C9</f>
+        <v>156</v>
       </c>
       <c r="E7" s="2">
         <v>2.68</v>
       </c>
       <c r="F7" s="12">
-        <f t="shared" si="4"/>
-        <v>434.16</v>
+        <f t="shared" si="2"/>
+        <v>418.08000000000004</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
-        <v>44480</v>
+        <v>44494</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="2">
-        <v>11923</v>
+        <v>12452</v>
       </c>
       <c r="D8" s="2">
         <f>C8-C10</f>
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E8" s="6">
         <v>4.96</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" ref="F8:F9" si="6">D8*E8</f>
-        <v>1249.92</v>
+        <f t="shared" ref="F8:F9" si="4">D8*E8</f>
+        <v>1240</v>
       </c>
       <c r="G8" s="10">
         <f>SUM(F8,F9)</f>
-        <v>1609.04</v>
+        <v>1679.52</v>
       </c>
       <c r="H8" s="10">
-        <v>1609.04</v>
+        <v>1679.52</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -846,49 +846,49 @@
         <v>5</v>
       </c>
       <c r="C9" s="2">
-        <v>8111</v>
+        <v>8437</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" ref="D9" si="7">C9-C11</f>
-        <v>134</v>
+        <f t="shared" ref="D9" si="5">C9-C11</f>
+        <v>164</v>
       </c>
       <c r="E9" s="2">
         <v>2.68</v>
       </c>
       <c r="F9" s="12">
-        <f t="shared" si="6"/>
-        <v>359.12</v>
+        <f t="shared" si="4"/>
+        <v>439.52000000000004</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
-        <v>44473</v>
+        <v>44487</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="2">
-        <v>11671</v>
+        <v>12202</v>
       </c>
       <c r="D10" s="2">
         <f>C10-C12</f>
-        <v>237</v>
+        <v>279</v>
       </c>
       <c r="E10" s="6">
         <v>4.96</v>
       </c>
       <c r="F10" s="8">
-        <f t="shared" ref="F10:F11" si="8">D10*E10</f>
-        <v>1175.52</v>
+        <f t="shared" ref="F10:F11" si="6">D10*E10</f>
+        <v>1383.84</v>
       </c>
       <c r="G10" s="10">
         <f>SUM(F10,F11)</f>
-        <v>1612.3600000000001</v>
+        <v>1818</v>
       </c>
       <c r="H10" s="10">
-        <v>1612.36</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -897,49 +897,49 @@
         <v>5</v>
       </c>
       <c r="C11" s="2">
-        <v>7977</v>
+        <v>8273</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" ref="D11" si="9">C11-C13</f>
-        <v>163</v>
+        <f t="shared" ref="D11" si="7">C11-C13</f>
+        <v>162</v>
       </c>
       <c r="E11" s="2">
         <v>2.68</v>
       </c>
       <c r="F11" s="12">
-        <f t="shared" si="8"/>
-        <v>436.84000000000003</v>
+        <f t="shared" si="6"/>
+        <v>434.16</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
-        <v>44466</v>
+        <v>44480</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="2">
-        <v>11434</v>
+        <v>11923</v>
       </c>
       <c r="D12" s="2">
         <f>C12-C14</f>
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="E12" s="6">
         <v>4.96</v>
       </c>
       <c r="F12" s="8">
-        <f t="shared" ref="F12:F13" si="10">D12*E12</f>
-        <v>1319.36</v>
+        <f t="shared" ref="F12:F13" si="8">D12*E12</f>
+        <v>1249.92</v>
       </c>
       <c r="G12" s="10">
         <f>SUM(F12,F13)</f>
-        <v>1732.08</v>
+        <v>1609.04</v>
       </c>
       <c r="H12" s="10">
-        <v>1732.08</v>
+        <v>1609.04</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -948,49 +948,49 @@
         <v>5</v>
       </c>
       <c r="C13" s="2">
-        <v>7814</v>
+        <v>8111</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" ref="D13" si="11">C13-C15</f>
-        <v>154</v>
+        <f t="shared" ref="D13" si="9">C13-C15</f>
+        <v>134</v>
       </c>
       <c r="E13" s="2">
         <v>2.68</v>
       </c>
       <c r="F13" s="12">
-        <f t="shared" si="10"/>
-        <v>412.72</v>
+        <f t="shared" si="8"/>
+        <v>359.12</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
-        <v>44459</v>
+        <v>44473</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="2">
-        <v>11168</v>
+        <v>11671</v>
       </c>
       <c r="D14" s="2">
         <f>C14-C16</f>
-        <v>191</v>
+        <v>237</v>
       </c>
       <c r="E14" s="6">
         <v>4.96</v>
       </c>
       <c r="F14" s="8">
-        <f t="shared" ref="F14:F15" si="12">D14*E14</f>
-        <v>947.36</v>
+        <f t="shared" ref="F14:F15" si="10">D14*E14</f>
+        <v>1175.52</v>
       </c>
       <c r="G14" s="10">
         <f>SUM(F14,F15)</f>
-        <v>1236.8</v>
+        <v>1612.3600000000001</v>
       </c>
       <c r="H14" s="10">
-        <v>1236.8</v>
+        <v>1612.36</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -999,49 +999,49 @@
         <v>5</v>
       </c>
       <c r="C15" s="2">
-        <v>7660</v>
+        <v>7977</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" ref="D15" si="13">C15-C17</f>
-        <v>108</v>
+        <f t="shared" ref="D15" si="11">C15-C17</f>
+        <v>163</v>
       </c>
       <c r="E15" s="2">
         <v>2.68</v>
       </c>
       <c r="F15" s="12">
-        <f t="shared" si="12"/>
-        <v>289.44</v>
+        <f t="shared" si="10"/>
+        <v>436.84000000000003</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
-        <v>44452</v>
+        <v>44466</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="2">
-        <v>10977</v>
+        <v>11434</v>
       </c>
       <c r="D16" s="2">
         <f>C16-C18</f>
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="E16" s="6">
         <v>4.96</v>
       </c>
       <c r="F16" s="8">
-        <f t="shared" ref="F16:F17" si="14">D16*E16</f>
-        <v>1235.04</v>
+        <f t="shared" ref="F16:F17" si="12">D16*E16</f>
+        <v>1319.36</v>
       </c>
       <c r="G16" s="10">
         <f>SUM(F16,F17)</f>
-        <v>1690.6399999999999</v>
+        <v>1732.08</v>
       </c>
       <c r="H16" s="10">
-        <v>1690.64</v>
+        <v>1732.08</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1050,49 +1050,49 @@
         <v>5</v>
       </c>
       <c r="C17" s="2">
-        <v>7552</v>
+        <v>7814</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" ref="D17" si="15">C17-C19</f>
-        <v>170</v>
+        <f t="shared" ref="D17" si="13">C17-C19</f>
+        <v>154</v>
       </c>
       <c r="E17" s="2">
         <v>2.68</v>
       </c>
       <c r="F17" s="12">
-        <f t="shared" si="14"/>
-        <v>455.6</v>
+        <f t="shared" si="12"/>
+        <v>412.72</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
-        <v>44440</v>
+        <v>44459</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="2">
-        <v>10728</v>
+        <v>11168</v>
       </c>
       <c r="D18" s="2">
         <f>C18-C20</f>
-        <v>232</v>
+        <v>191</v>
       </c>
       <c r="E18" s="6">
         <v>4.96</v>
       </c>
       <c r="F18" s="8">
-        <f t="shared" ref="F18:F19" si="16">D18*E18</f>
-        <v>1150.72</v>
+        <f t="shared" ref="F18:F19" si="14">D18*E18</f>
+        <v>947.36</v>
       </c>
       <c r="G18" s="10">
         <f>SUM(F18,F19)</f>
-        <v>1499.1200000000001</v>
+        <v>1236.8</v>
       </c>
       <c r="H18" s="10">
-        <v>1499.12</v>
+        <v>1236.8</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1101,49 +1101,49 @@
         <v>5</v>
       </c>
       <c r="C19" s="2">
-        <v>7382</v>
+        <v>7660</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" ref="D19" si="17">C19-C21</f>
-        <v>130</v>
+        <f t="shared" ref="D19" si="15">C19-C21</f>
+        <v>108</v>
       </c>
       <c r="E19" s="2">
         <v>2.68</v>
       </c>
       <c r="F19" s="12">
-        <f t="shared" si="16"/>
-        <v>348.40000000000003</v>
+        <f t="shared" si="14"/>
+        <v>289.44</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
-        <v>44431</v>
+        <v>44452</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="2">
-        <v>10496</v>
+        <v>10977</v>
       </c>
       <c r="D20" s="2">
         <f>C20-C22</f>
-        <v>77</v>
+        <v>249</v>
       </c>
       <c r="E20" s="6">
         <v>4.96</v>
       </c>
       <c r="F20" s="8">
-        <f t="shared" ref="F20:F21" si="18">D20*E20</f>
-        <v>381.92</v>
+        <f t="shared" ref="F20:F21" si="16">D20*E20</f>
+        <v>1235.04</v>
       </c>
       <c r="G20" s="10">
         <f>SUM(F20,F21)</f>
-        <v>505.20000000000005</v>
+        <v>1690.6399999999999</v>
       </c>
       <c r="H20" s="10">
-        <v>505.2</v>
+        <v>1690.64</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1152,49 +1152,49 @@
         <v>5</v>
       </c>
       <c r="C21" s="2">
-        <v>7252</v>
+        <v>7552</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" ref="D21" si="19">C21-C23</f>
-        <v>46</v>
+        <f t="shared" ref="D21" si="17">C21-C23</f>
+        <v>170</v>
       </c>
       <c r="E21" s="2">
         <v>2.68</v>
       </c>
       <c r="F21" s="12">
-        <f t="shared" si="18"/>
-        <v>123.28</v>
+        <f t="shared" si="16"/>
+        <v>455.6</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
-        <v>44423</v>
+        <v>44440</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="2">
-        <v>10419</v>
+        <v>10728</v>
       </c>
       <c r="D22" s="2">
         <f>C22-C24</f>
-        <v>48</v>
+        <v>232</v>
       </c>
       <c r="E22" s="6">
         <v>4.96</v>
       </c>
       <c r="F22" s="8">
-        <f t="shared" ref="F22:F23" si="20">D22*E22</f>
-        <v>238.07999999999998</v>
+        <f t="shared" ref="F22:F23" si="18">D22*E22</f>
+        <v>1150.72</v>
       </c>
       <c r="G22" s="10">
         <f>SUM(F22,F23)</f>
-        <v>294.36</v>
+        <v>1499.1200000000001</v>
       </c>
       <c r="H22" s="10">
-        <v>294.36</v>
+        <v>1499.12</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1203,49 +1203,49 @@
         <v>5</v>
       </c>
       <c r="C23" s="2">
-        <v>7206</v>
+        <v>7382</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" ref="D23" si="21">C23-C25</f>
-        <v>21</v>
+        <f t="shared" ref="D23" si="19">C23-C25</f>
+        <v>130</v>
       </c>
       <c r="E23" s="2">
         <v>2.68</v>
       </c>
       <c r="F23" s="12">
-        <f t="shared" si="20"/>
-        <v>56.28</v>
+        <f t="shared" si="18"/>
+        <v>348.40000000000003</v>
       </c>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
-        <v>44418</v>
+        <v>44431</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="2">
-        <v>10371</v>
+        <v>10496</v>
       </c>
       <c r="D24" s="2">
         <f>C24-C26</f>
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="E24" s="6">
         <v>4.96</v>
       </c>
       <c r="F24" s="8">
-        <f t="shared" ref="F24:F25" si="22">D24*E24</f>
-        <v>510.88</v>
+        <f t="shared" ref="F24:F25" si="20">D24*E24</f>
+        <v>381.92</v>
       </c>
       <c r="G24" s="10">
         <f>SUM(F24,F25)</f>
-        <v>636.84</v>
+        <v>505.20000000000005</v>
       </c>
       <c r="H24" s="10">
-        <v>636.84</v>
+        <v>505.2</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1254,49 +1254,49 @@
         <v>5</v>
       </c>
       <c r="C25" s="2">
-        <v>7185</v>
+        <v>7252</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" ref="D25" si="23">C25-C27</f>
-        <v>47</v>
+        <f t="shared" ref="D25" si="21">C25-C27</f>
+        <v>46</v>
       </c>
       <c r="E25" s="2">
         <v>2.68</v>
       </c>
       <c r="F25" s="12">
-        <f t="shared" si="22"/>
-        <v>125.96000000000001</v>
+        <f t="shared" si="20"/>
+        <v>123.28</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
-        <v>44410</v>
+        <v>44423</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C26" s="2">
-        <v>10268</v>
+        <v>10419</v>
       </c>
       <c r="D26" s="2">
         <f>C26-C28</f>
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="E26" s="6">
         <v>4.96</v>
       </c>
       <c r="F26" s="8">
-        <f t="shared" ref="F26:F27" si="24">D26*E26</f>
-        <v>372</v>
+        <f t="shared" ref="F26:F27" si="22">D26*E26</f>
+        <v>238.07999999999998</v>
       </c>
       <c r="G26" s="10">
         <f>SUM(F26,F27)</f>
-        <v>463.12</v>
+        <v>294.36</v>
       </c>
       <c r="H26" s="10">
-        <v>463.12</v>
+        <v>294.36</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1305,49 +1305,49 @@
         <v>5</v>
       </c>
       <c r="C27" s="2">
-        <v>7138</v>
+        <v>7206</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" ref="D27" si="25">C27-C29</f>
-        <v>34</v>
+        <f t="shared" ref="D27" si="23">C27-C29</f>
+        <v>21</v>
       </c>
       <c r="E27" s="2">
         <v>2.68</v>
       </c>
       <c r="F27" s="12">
-        <f t="shared" si="24"/>
-        <v>91.12</v>
+        <f t="shared" si="22"/>
+        <v>56.28</v>
       </c>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
-        <v>44399</v>
+        <v>44418</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C28" s="2">
-        <v>10193</v>
+        <v>10371</v>
       </c>
       <c r="D28" s="2">
         <f>C28-C30</f>
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="E28" s="6">
         <v>4.96</v>
       </c>
       <c r="F28" s="8">
-        <f t="shared" ref="F28:F29" si="26">D28*E28</f>
-        <v>208.32</v>
+        <f t="shared" ref="F28:F29" si="24">D28*E28</f>
+        <v>510.88</v>
       </c>
       <c r="G28" s="10">
         <f>SUM(F28,F29)</f>
-        <v>256.56</v>
+        <v>636.84</v>
       </c>
       <c r="H28" s="10">
-        <v>256.56</v>
+        <v>636.84</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1356,49 +1356,49 @@
         <v>5</v>
       </c>
       <c r="C29" s="2">
-        <v>7104</v>
+        <v>7185</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" ref="D29" si="27">C29-C31</f>
-        <v>18</v>
+        <f t="shared" ref="D29" si="25">C29-C31</f>
+        <v>47</v>
       </c>
       <c r="E29" s="2">
         <v>2.68</v>
       </c>
       <c r="F29" s="12">
-        <f t="shared" si="26"/>
-        <v>48.24</v>
+        <f t="shared" si="24"/>
+        <v>125.96000000000001</v>
       </c>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
-        <v>44389</v>
+        <v>44410</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C30" s="2">
-        <v>10151</v>
+        <v>10268</v>
       </c>
       <c r="D30" s="2">
         <f>C30-C32</f>
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="E30" s="6">
         <v>4.96</v>
       </c>
       <c r="F30" s="8">
-        <f t="shared" ref="F30:F31" si="28">D30*E30</f>
-        <v>178.56</v>
+        <f t="shared" ref="F30:F31" si="26">D30*E30</f>
+        <v>372</v>
       </c>
       <c r="G30" s="10">
         <f>SUM(F30,F31)</f>
-        <v>232.16</v>
+        <v>463.12</v>
       </c>
       <c r="H30" s="10">
-        <v>232.16</v>
+        <v>463.12</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1407,49 +1407,49 @@
         <v>5</v>
       </c>
       <c r="C31" s="2">
-        <v>7086</v>
+        <v>7138</v>
       </c>
       <c r="D31" s="2">
-        <f t="shared" ref="D31" si="29">C31-C33</f>
-        <v>20</v>
+        <f t="shared" ref="D31" si="27">C31-C33</f>
+        <v>34</v>
       </c>
       <c r="E31" s="2">
         <v>2.68</v>
       </c>
       <c r="F31" s="12">
-        <f t="shared" si="28"/>
-        <v>53.6</v>
+        <f t="shared" si="26"/>
+        <v>91.12</v>
       </c>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
-        <v>44378</v>
+        <v>44399</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C32" s="2">
-        <v>10115</v>
+        <v>10193</v>
       </c>
       <c r="D32" s="2">
         <f>C32-C34</f>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E32" s="6">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F32" s="8">
-        <f t="shared" ref="F32:F33" si="30">D32*E32</f>
-        <v>202.53</v>
+        <f t="shared" ref="F32:F33" si="28">D32*E32</f>
+        <v>208.32</v>
       </c>
       <c r="G32" s="10">
         <f>SUM(F32,F33)</f>
-        <v>250.98</v>
+        <v>256.56</v>
       </c>
       <c r="H32" s="10">
-        <v>250.98</v>
+        <v>256.56</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1458,49 +1458,49 @@
         <v>5</v>
       </c>
       <c r="C33" s="2">
-        <v>7066</v>
+        <v>7104</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" ref="D33" si="31">C33-C35</f>
-        <v>19</v>
+        <f t="shared" ref="D33" si="29">C33-C35</f>
+        <v>18</v>
       </c>
       <c r="E33" s="2">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F33" s="12">
-        <f t="shared" si="30"/>
-        <v>48.449999999999996</v>
+        <f t="shared" si="28"/>
+        <v>48.24</v>
       </c>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="14">
-        <v>44368</v>
+        <v>44389</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C34" s="2">
-        <v>10072</v>
+        <v>10151</v>
       </c>
       <c r="D34" s="2">
         <f>C34-C36</f>
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="E34" s="6">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F34" s="8">
-        <f t="shared" ref="F34:F35" si="32">D34*E34</f>
-        <v>405.06</v>
+        <f t="shared" ref="F34:F35" si="30">D34*E34</f>
+        <v>178.56</v>
       </c>
       <c r="G34" s="10">
         <f>SUM(F34,F35)</f>
-        <v>575.91</v>
+        <v>232.16</v>
       </c>
       <c r="H34" s="10">
-        <v>575.91</v>
+        <v>232.16</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1509,49 +1509,49 @@
         <v>5</v>
       </c>
       <c r="C35" s="2">
-        <v>7047</v>
+        <v>7086</v>
       </c>
       <c r="D35" s="2">
-        <f t="shared" ref="D35" si="33">C35-C37</f>
-        <v>67</v>
+        <f t="shared" ref="D35" si="31">C35-C37</f>
+        <v>20</v>
       </c>
       <c r="E35" s="2">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F35" s="12">
-        <f t="shared" si="32"/>
-        <v>170.85</v>
+        <f t="shared" si="30"/>
+        <v>53.6</v>
       </c>
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="14">
-        <v>44356</v>
+        <v>44378</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C36" s="2">
-        <v>9986</v>
+        <v>10115</v>
       </c>
       <c r="D36" s="2">
         <f>C36-C38</f>
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="E36" s="6">
         <v>4.71</v>
       </c>
       <c r="F36" s="8">
-        <f t="shared" ref="F36:F37" si="34">D36*E36</f>
-        <v>329.7</v>
+        <f t="shared" ref="F36:F37" si="32">D36*E36</f>
+        <v>202.53</v>
       </c>
       <c r="G36" s="10">
         <f>SUM(F36,F37)</f>
-        <v>485.25</v>
+        <v>250.98</v>
       </c>
       <c r="H36" s="10">
-        <v>485.25</v>
+        <v>250.98</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1560,100 +1560,100 @@
         <v>5</v>
       </c>
       <c r="C37" s="2">
-        <v>6980</v>
+        <v>7066</v>
       </c>
       <c r="D37" s="2">
-        <f t="shared" ref="D37" si="35">C37-C39</f>
-        <v>61</v>
+        <f t="shared" ref="D37" si="33">C37-C39</f>
+        <v>19</v>
       </c>
       <c r="E37" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F37" s="12">
-        <f t="shared" si="34"/>
-        <v>155.54999999999998</v>
+        <f t="shared" si="32"/>
+        <v>48.449999999999996</v>
       </c>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="14">
-        <v>44350</v>
+        <v>44368</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C38" s="2">
-        <v>9916</v>
+        <v>10072</v>
       </c>
       <c r="D38" s="2">
         <f>C38-C40</f>
-        <v>192</v>
+        <v>86</v>
       </c>
       <c r="E38" s="6">
         <v>4.71</v>
       </c>
       <c r="F38" s="8">
-        <f t="shared" ref="F38:F39" si="36">D38*E38</f>
-        <v>904.31999999999994</v>
+        <f t="shared" ref="F38:F39" si="34">D38*E38</f>
+        <v>405.06</v>
       </c>
       <c r="G38" s="10">
         <f>SUM(F38,F39)</f>
-        <v>1268.9699999999998</v>
+        <v>575.91</v>
       </c>
       <c r="H38" s="10">
-        <v>1266.42</v>
+        <v>575.91</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="18"/>
+      <c r="A39" s="2"/>
       <c r="B39" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C39" s="2">
-        <v>6919</v>
+        <v>7047</v>
       </c>
       <c r="D39" s="2">
-        <f t="shared" ref="D39" si="37">C39-C41</f>
-        <v>143</v>
+        <f t="shared" ref="D39" si="35">C39-C41</f>
+        <v>67</v>
       </c>
       <c r="E39" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F39" s="12">
-        <f t="shared" si="36"/>
-        <v>364.65</v>
+        <f t="shared" si="34"/>
+        <v>170.85</v>
       </c>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="14">
-        <v>44344</v>
+        <v>44356</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C40" s="2">
-        <v>9724</v>
+        <v>9986</v>
       </c>
       <c r="D40" s="2">
         <f>C40-C42</f>
-        <v>145</v>
+        <v>70</v>
       </c>
       <c r="E40" s="6">
         <v>4.71</v>
       </c>
       <c r="F40" s="8">
-        <f t="shared" ref="F40:F41" si="38">D40*E40</f>
-        <v>682.95</v>
+        <f t="shared" ref="F40:F41" si="36">D40*E40</f>
+        <v>329.7</v>
       </c>
       <c r="G40" s="10">
         <f>SUM(F40,F41)</f>
-        <v>966</v>
+        <v>485.25</v>
       </c>
       <c r="H40" s="10">
-        <v>966</v>
+        <v>485.25</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -1662,100 +1662,100 @@
         <v>5</v>
       </c>
       <c r="C41" s="2">
-        <v>6776</v>
+        <v>6980</v>
       </c>
       <c r="D41" s="2">
-        <f t="shared" ref="D41" si="39">C41-C43</f>
-        <v>111</v>
+        <f t="shared" ref="D41" si="37">C41-C43</f>
+        <v>61</v>
       </c>
       <c r="E41" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F41" s="12">
-        <f t="shared" si="38"/>
-        <v>283.04999999999995</v>
+        <f t="shared" si="36"/>
+        <v>155.54999999999998</v>
       </c>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="14">
-        <v>44333</v>
+        <v>44350</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C42" s="2">
-        <v>9579</v>
+        <v>9916</v>
       </c>
       <c r="D42" s="2">
         <f>C42-C44</f>
-        <v>228</v>
+        <v>192</v>
       </c>
       <c r="E42" s="6">
         <v>4.71</v>
       </c>
       <c r="F42" s="8">
-        <f t="shared" ref="F42:F43" si="40">D42*E42</f>
-        <v>1073.8799999999999</v>
+        <f t="shared" ref="F42:F43" si="38">D42*E42</f>
+        <v>904.31999999999994</v>
       </c>
       <c r="G42" s="10">
         <f>SUM(F42,F43)</f>
-        <v>1494.6299999999999</v>
+        <v>1268.9699999999998</v>
       </c>
       <c r="H42" s="10">
-        <v>1494.63</v>
+        <v>1266.42</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
+      <c r="A43" s="18"/>
       <c r="B43" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C43" s="2">
-        <v>6665</v>
+        <v>6919</v>
       </c>
       <c r="D43" s="2">
-        <f t="shared" ref="D43" si="41">C43-C45</f>
-        <v>165</v>
+        <f t="shared" ref="D43" si="39">C43-C45</f>
+        <v>143</v>
       </c>
       <c r="E43" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F43" s="12">
-        <f t="shared" si="40"/>
-        <v>420.74999999999994</v>
+        <f t="shared" si="38"/>
+        <v>364.65</v>
       </c>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="14">
-        <v>44322</v>
+        <v>44344</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C44" s="2">
-        <v>9351</v>
+        <v>9724</v>
       </c>
       <c r="D44" s="2">
         <f>C44-C46</f>
-        <v>227</v>
+        <v>145</v>
       </c>
       <c r="E44" s="6">
         <v>4.71</v>
       </c>
       <c r="F44" s="8">
-        <f t="shared" ref="F44:F45" si="42">D44*E44</f>
-        <v>1069.17</v>
+        <f t="shared" ref="F44:F45" si="40">D44*E44</f>
+        <v>682.95</v>
       </c>
       <c r="G44" s="10">
         <f>SUM(F44,F45)</f>
-        <v>1405.77</v>
+        <v>966</v>
       </c>
       <c r="H44" s="10">
-        <v>1405.77</v>
+        <v>966</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -1764,49 +1764,49 @@
         <v>5</v>
       </c>
       <c r="C45" s="2">
-        <v>6500</v>
+        <v>6776</v>
       </c>
       <c r="D45" s="2">
-        <f t="shared" ref="D45" si="43">C45-C47</f>
-        <v>132</v>
+        <f t="shared" ref="D45" si="41">C45-C47</f>
+        <v>111</v>
       </c>
       <c r="E45" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F45" s="12">
-        <f t="shared" si="42"/>
-        <v>336.59999999999997</v>
+        <f t="shared" si="40"/>
+        <v>283.04999999999995</v>
       </c>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="14">
-        <v>44305</v>
+        <v>44333</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C46" s="2">
-        <v>9124</v>
+        <v>9579</v>
       </c>
       <c r="D46" s="2">
         <f>C46-C48</f>
-        <v>134</v>
+        <v>228</v>
       </c>
       <c r="E46" s="6">
         <v>4.71</v>
       </c>
       <c r="F46" s="8">
-        <f t="shared" ref="F46:F47" si="44">D46*E46</f>
-        <v>631.14</v>
+        <f t="shared" ref="F46:F47" si="42">D46*E46</f>
+        <v>1073.8799999999999</v>
       </c>
       <c r="G46" s="10">
         <f>SUM(F46,F47)</f>
-        <v>886.14</v>
+        <v>1494.6299999999999</v>
       </c>
       <c r="H46" s="10">
-        <v>886.14</v>
+        <v>1494.63</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -1815,49 +1815,49 @@
         <v>5</v>
       </c>
       <c r="C47" s="2">
-        <v>6368</v>
+        <v>6665</v>
       </c>
       <c r="D47" s="2">
-        <f t="shared" ref="D47" si="45">C47-C49</f>
-        <v>100</v>
+        <f t="shared" ref="D47" si="43">C47-C49</f>
+        <v>165</v>
       </c>
       <c r="E47" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F47" s="12">
-        <f t="shared" si="44"/>
-        <v>254.99999999999997</v>
+        <f t="shared" si="42"/>
+        <v>420.74999999999994</v>
       </c>
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="14">
-        <v>44270</v>
+        <v>44322</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C48" s="2">
-        <v>8990</v>
+        <v>9351</v>
       </c>
       <c r="D48" s="2">
         <f>C48-C50</f>
-        <v>17</v>
+        <v>227</v>
       </c>
       <c r="E48" s="6">
         <v>4.71</v>
       </c>
       <c r="F48" s="8">
-        <f t="shared" ref="F48:F49" si="46">D48*E48</f>
-        <v>80.069999999999993</v>
+        <f t="shared" ref="F48:F49" si="44">D48*E48</f>
+        <v>1069.17</v>
       </c>
       <c r="G48" s="10">
         <f>SUM(F48,F49)</f>
-        <v>80.069999999999993</v>
+        <v>1405.77</v>
       </c>
       <c r="H48" s="10">
-        <v>83.47</v>
+        <v>1405.77</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -1866,49 +1866,49 @@
         <v>5</v>
       </c>
       <c r="C49" s="2">
-        <v>6268</v>
+        <v>6500</v>
       </c>
       <c r="D49" s="2">
-        <f t="shared" ref="D49" si="47">C49-C51</f>
-        <v>0</v>
+        <f t="shared" ref="D49" si="45">C49-C51</f>
+        <v>132</v>
       </c>
       <c r="E49" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F49" s="12">
-        <f t="shared" si="46"/>
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>336.59999999999997</v>
       </c>
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="14">
-        <v>44256</v>
+        <v>44305</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C50" s="2">
-        <v>8973</v>
+        <v>9124</v>
       </c>
       <c r="D50" s="2">
         <f>C50-C52</f>
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="E50" s="6">
         <v>4.71</v>
       </c>
       <c r="F50" s="8">
-        <f t="shared" ref="F50:F51" si="48">D50*E50</f>
-        <v>471</v>
+        <f t="shared" ref="F50:F51" si="46">D50*E50</f>
+        <v>631.14</v>
       </c>
       <c r="G50" s="10">
         <f>SUM(F50,F51)</f>
-        <v>471</v>
+        <v>886.14</v>
       </c>
       <c r="H50" s="10">
-        <v>471</v>
+        <v>886.14</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -1917,49 +1917,49 @@
         <v>5</v>
       </c>
       <c r="C51" s="2">
-        <v>6268</v>
+        <v>6368</v>
       </c>
       <c r="D51" s="2">
-        <f t="shared" ref="D51" si="49">C51-C53</f>
-        <v>0</v>
+        <f t="shared" ref="D51" si="47">C51-C53</f>
+        <v>100</v>
       </c>
       <c r="E51" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F51" s="12">
-        <f t="shared" si="48"/>
-        <v>0</v>
+        <f t="shared" si="46"/>
+        <v>254.99999999999997</v>
       </c>
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="14">
-        <v>44207</v>
+        <v>44270</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C52" s="2">
-        <v>8873</v>
+        <v>8990</v>
       </c>
       <c r="D52" s="2">
         <f>C52-C54</f>
-        <v>401</v>
+        <v>17</v>
       </c>
       <c r="E52" s="6">
         <v>4.71</v>
       </c>
       <c r="F52" s="8">
-        <f t="shared" ref="F52:F53" si="50">D52*E52</f>
-        <v>1888.71</v>
+        <f t="shared" ref="F52:F53" si="48">D52*E52</f>
+        <v>80.069999999999993</v>
       </c>
       <c r="G52" s="10">
         <f>SUM(F52,F53)</f>
-        <v>2419.11</v>
+        <v>80.069999999999993</v>
       </c>
       <c r="H52" s="10">
-        <v>2419.11</v>
+        <v>83.47</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -1971,46 +1971,46 @@
         <v>6268</v>
       </c>
       <c r="D53" s="2">
-        <f t="shared" ref="D53" si="51">C53-C55</f>
-        <v>208</v>
+        <f t="shared" ref="D53" si="49">C53-C55</f>
+        <v>0</v>
       </c>
       <c r="E53" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F53" s="12">
-        <f t="shared" si="50"/>
-        <v>530.4</v>
+        <f t="shared" si="48"/>
+        <v>0</v>
       </c>
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="14">
-        <v>44200</v>
+        <v>44256</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C54" s="2">
-        <v>8472</v>
+        <v>8973</v>
       </c>
       <c r="D54" s="2">
         <f>C54-C56</f>
-        <v>310</v>
+        <v>100</v>
       </c>
       <c r="E54" s="6">
         <v>4.71</v>
       </c>
       <c r="F54" s="8">
-        <f t="shared" ref="F54:F55" si="52">D54*E54</f>
-        <v>1460.1</v>
+        <f t="shared" ref="F54:F55" si="50">D54*E54</f>
+        <v>471</v>
       </c>
       <c r="G54" s="10">
         <f>SUM(F54,F55)</f>
-        <v>1926.75</v>
+        <v>471</v>
       </c>
       <c r="H54" s="10">
-        <v>1926.75</v>
+        <v>471</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -2019,49 +2019,49 @@
         <v>5</v>
       </c>
       <c r="C55" s="2">
-        <v>6060</v>
+        <v>6268</v>
       </c>
       <c r="D55" s="2">
-        <f t="shared" ref="D55:D75" si="53">C55-C57</f>
-        <v>183</v>
+        <f t="shared" ref="D55" si="51">C55-C57</f>
+        <v>0</v>
       </c>
       <c r="E55" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F55" s="12">
-        <f t="shared" si="52"/>
-        <v>466.65</v>
+        <f t="shared" si="50"/>
+        <v>0</v>
       </c>
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="14">
-        <v>44193</v>
+        <v>44207</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C56" s="2">
-        <v>8162</v>
+        <v>8873</v>
       </c>
       <c r="D56" s="2">
         <f>C56-C58</f>
-        <v>231</v>
+        <v>401</v>
       </c>
       <c r="E56" s="6">
         <v>4.71</v>
       </c>
       <c r="F56" s="8">
-        <f t="shared" ref="F56:F75" si="54">D56*E56</f>
-        <v>1088.01</v>
+        <f t="shared" ref="F56:F57" si="52">D56*E56</f>
+        <v>1888.71</v>
       </c>
       <c r="G56" s="10">
         <f>SUM(F56,F57)</f>
-        <v>1608.21</v>
+        <v>2419.11</v>
       </c>
       <c r="H56" s="10">
-        <v>1608.21</v>
+        <v>2419.11</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -2070,49 +2070,49 @@
         <v>5</v>
       </c>
       <c r="C57" s="2">
-        <v>5877</v>
+        <v>6268</v>
       </c>
       <c r="D57" s="2">
-        <f t="shared" si="53"/>
-        <v>204</v>
+        <f t="shared" ref="D57" si="53">C57-C59</f>
+        <v>208</v>
       </c>
       <c r="E57" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F57" s="12">
-        <f t="shared" si="54"/>
-        <v>520.19999999999993</v>
+        <f t="shared" si="52"/>
+        <v>530.4</v>
       </c>
       <c r="G57" s="10"/>
       <c r="H57" s="10"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="5">
-        <v>44186</v>
+      <c r="A58" s="14">
+        <v>44200</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C58" s="2">
-        <v>7931</v>
+        <v>8472</v>
       </c>
       <c r="D58" s="2">
-        <f t="shared" si="53"/>
-        <v>221</v>
+        <f>C58-C60</f>
+        <v>310</v>
       </c>
       <c r="E58" s="6">
         <v>4.71</v>
       </c>
       <c r="F58" s="8">
-        <f t="shared" si="54"/>
-        <v>1040.9100000000001</v>
+        <f t="shared" ref="F58:F59" si="54">D58*E58</f>
+        <v>1460.1</v>
       </c>
       <c r="G58" s="10">
         <f>SUM(F58,F59)</f>
-        <v>1525.41</v>
+        <v>1926.75</v>
       </c>
       <c r="H58" s="10">
-        <v>1525.41</v>
+        <v>1926.75</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -2121,49 +2121,49 @@
         <v>5</v>
       </c>
       <c r="C59" s="2">
-        <v>5673</v>
+        <v>6060</v>
       </c>
       <c r="D59" s="2">
-        <f t="shared" si="53"/>
-        <v>190</v>
+        <f t="shared" ref="D59:D79" si="55">C59-C61</f>
+        <v>183</v>
       </c>
       <c r="E59" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F59" s="12">
         <f t="shared" si="54"/>
-        <v>484.49999999999994</v>
+        <v>466.65</v>
       </c>
       <c r="G59" s="10"/>
       <c r="H59" s="10"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="5">
-        <v>44179</v>
+      <c r="A60" s="14">
+        <v>44193</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C60" s="2">
-        <v>7710</v>
+        <v>8162</v>
       </c>
       <c r="D60" s="2">
-        <f t="shared" si="53"/>
-        <v>157</v>
+        <f>C60-C62</f>
+        <v>231</v>
       </c>
       <c r="E60" s="6">
         <v>4.71</v>
       </c>
       <c r="F60" s="8">
-        <f t="shared" si="54"/>
-        <v>739.47</v>
+        <f t="shared" ref="F60:F79" si="56">D60*E60</f>
+        <v>1088.01</v>
       </c>
       <c r="G60" s="10">
         <f>SUM(F60,F61)</f>
-        <v>1180.6199999999999</v>
+        <v>1608.21</v>
       </c>
       <c r="H60" s="10">
-        <v>1180.6199999999999</v>
+        <v>1608.21</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -2172,49 +2172,49 @@
         <v>5</v>
       </c>
       <c r="C61" s="2">
-        <v>5483</v>
+        <v>5877</v>
       </c>
       <c r="D61" s="2">
-        <f>C61-C63</f>
-        <v>173</v>
+        <f t="shared" si="55"/>
+        <v>204</v>
       </c>
       <c r="E61" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F61" s="12">
-        <f t="shared" si="54"/>
-        <v>441.15</v>
+        <f t="shared" si="56"/>
+        <v>520.19999999999993</v>
       </c>
       <c r="G61" s="10"/>
       <c r="H61" s="10"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
-        <v>44172</v>
+        <v>44186</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C62" s="2">
-        <v>7553</v>
+        <v>7931</v>
       </c>
       <c r="D62" s="2">
-        <f t="shared" si="53"/>
-        <v>168</v>
+        <f t="shared" si="55"/>
+        <v>221</v>
       </c>
       <c r="E62" s="6">
         <v>4.71</v>
       </c>
       <c r="F62" s="8">
-        <f t="shared" si="54"/>
-        <v>791.28</v>
+        <f t="shared" si="56"/>
+        <v>1040.9100000000001</v>
       </c>
       <c r="G62" s="10">
         <f>SUM(F62,F63)</f>
-        <v>1204.3799999999999</v>
+        <v>1525.41</v>
       </c>
       <c r="H62" s="10">
-        <v>1204.3800000000001</v>
+        <v>1525.41</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -2223,49 +2223,49 @@
         <v>5</v>
       </c>
       <c r="C63" s="2">
-        <v>5310</v>
+        <v>5673</v>
       </c>
       <c r="D63" s="2">
-        <f t="shared" si="53"/>
-        <v>162</v>
+        <f t="shared" si="55"/>
+        <v>190</v>
       </c>
       <c r="E63" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F63" s="12">
-        <f t="shared" si="54"/>
-        <v>413.09999999999997</v>
+        <f t="shared" si="56"/>
+        <v>484.49999999999994</v>
       </c>
       <c r="G63" s="10"/>
       <c r="H63" s="10"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
-        <v>44165</v>
+        <v>44179</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C64" s="2">
-        <v>7385</v>
+        <v>7710</v>
       </c>
       <c r="D64" s="2">
-        <f t="shared" si="53"/>
-        <v>150</v>
+        <f t="shared" si="55"/>
+        <v>157</v>
       </c>
       <c r="E64" s="6">
         <v>4.71</v>
       </c>
       <c r="F64" s="8">
-        <f t="shared" si="54"/>
-        <v>706.5</v>
+        <f t="shared" si="56"/>
+        <v>739.47</v>
       </c>
       <c r="G64" s="10">
         <f>SUM(F64,F65)</f>
-        <v>1211.4000000000001</v>
+        <v>1180.6199999999999</v>
       </c>
       <c r="H64" s="10">
-        <v>1211.4000000000001</v>
+        <v>1180.6199999999999</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -2274,49 +2274,49 @@
         <v>5</v>
       </c>
       <c r="C65" s="2">
-        <v>5148</v>
+        <v>5483</v>
       </c>
       <c r="D65" s="2">
-        <f t="shared" si="53"/>
-        <v>198</v>
+        <f>C65-C67</f>
+        <v>173</v>
       </c>
       <c r="E65" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F65" s="12">
-        <f t="shared" si="54"/>
-        <v>504.9</v>
+        <f t="shared" si="56"/>
+        <v>441.15</v>
       </c>
       <c r="G65" s="10"/>
       <c r="H65" s="10"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
-        <v>44158</v>
+        <v>44172</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C66" s="2">
-        <v>7235</v>
+        <v>7553</v>
       </c>
       <c r="D66" s="2">
-        <f t="shared" si="53"/>
-        <v>229</v>
+        <f t="shared" si="55"/>
+        <v>168</v>
       </c>
       <c r="E66" s="6">
         <v>4.71</v>
       </c>
       <c r="F66" s="8">
-        <f t="shared" si="54"/>
-        <v>1078.5899999999999</v>
+        <f t="shared" si="56"/>
+        <v>791.28</v>
       </c>
       <c r="G66" s="10">
         <f>SUM(F66,F67)</f>
-        <v>1812.9899999999998</v>
+        <v>1204.3799999999999</v>
       </c>
       <c r="H66" s="10">
-        <v>1812.99</v>
+        <v>1204.3800000000001</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -2325,49 +2325,49 @@
         <v>5</v>
       </c>
       <c r="C67" s="2">
-        <v>4950</v>
+        <v>5310</v>
       </c>
       <c r="D67" s="2">
-        <f t="shared" si="53"/>
-        <v>288</v>
+        <f t="shared" si="55"/>
+        <v>162</v>
       </c>
       <c r="E67" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F67" s="12">
-        <f t="shared" si="54"/>
-        <v>734.4</v>
+        <f t="shared" si="56"/>
+        <v>413.09999999999997</v>
       </c>
       <c r="G67" s="10"/>
       <c r="H67" s="10"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
-        <v>44144</v>
+        <v>44165</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C68" s="2">
-        <v>7006</v>
+        <v>7385</v>
       </c>
       <c r="D68" s="2">
-        <f t="shared" si="53"/>
-        <v>193</v>
+        <f t="shared" si="55"/>
+        <v>150</v>
       </c>
       <c r="E68" s="6">
         <v>4.71</v>
       </c>
       <c r="F68" s="8">
-        <f t="shared" si="54"/>
-        <v>909.03</v>
+        <f t="shared" si="56"/>
+        <v>706.5</v>
       </c>
       <c r="G68" s="10">
         <f>SUM(F68,F69)</f>
-        <v>1248.1799999999998</v>
+        <v>1211.4000000000001</v>
       </c>
       <c r="H68" s="10">
-        <v>1248.18</v>
+        <v>1211.4000000000001</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -2376,49 +2376,49 @@
         <v>5</v>
       </c>
       <c r="C69" s="2">
-        <v>4662</v>
+        <v>5148</v>
       </c>
       <c r="D69" s="2">
-        <f t="shared" si="53"/>
-        <v>133</v>
+        <f t="shared" si="55"/>
+        <v>198</v>
       </c>
       <c r="E69" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F69" s="12">
-        <f t="shared" si="54"/>
-        <v>339.15</v>
+        <f t="shared" si="56"/>
+        <v>504.9</v>
       </c>
       <c r="G69" s="10"/>
       <c r="H69" s="10"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
-        <v>44137</v>
+        <v>44158</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C70" s="2">
-        <v>6813</v>
+        <v>7235</v>
       </c>
       <c r="D70" s="2">
-        <f t="shared" si="53"/>
-        <v>189</v>
+        <f t="shared" si="55"/>
+        <v>229</v>
       </c>
       <c r="E70" s="6">
         <v>4.71</v>
       </c>
       <c r="F70" s="8">
-        <f t="shared" si="54"/>
-        <v>890.18999999999994</v>
+        <f t="shared" si="56"/>
+        <v>1078.5899999999999</v>
       </c>
       <c r="G70" s="10">
         <f>SUM(F70,F71)</f>
-        <v>1295.6399999999999</v>
+        <v>1812.9899999999998</v>
       </c>
       <c r="H70" s="10">
-        <v>1295.6400000000001</v>
+        <v>1812.99</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -2427,49 +2427,49 @@
         <v>5</v>
       </c>
       <c r="C71" s="2">
-        <v>4529</v>
+        <v>4950</v>
       </c>
       <c r="D71" s="2">
-        <f t="shared" si="53"/>
-        <v>159</v>
+        <f t="shared" si="55"/>
+        <v>288</v>
       </c>
       <c r="E71" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F71" s="12">
-        <f t="shared" si="54"/>
-        <v>405.45</v>
+        <f t="shared" si="56"/>
+        <v>734.4</v>
       </c>
       <c r="G71" s="10"/>
       <c r="H71" s="10"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
-        <v>44126</v>
+        <v>44144</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C72" s="2">
-        <v>6624</v>
+        <v>7006</v>
       </c>
       <c r="D72" s="2">
-        <f t="shared" si="53"/>
-        <v>438</v>
+        <f t="shared" si="55"/>
+        <v>193</v>
       </c>
       <c r="E72" s="6">
         <v>4.71</v>
       </c>
       <c r="F72" s="8">
-        <f t="shared" si="54"/>
-        <v>2062.98</v>
+        <f t="shared" si="56"/>
+        <v>909.03</v>
       </c>
       <c r="G72" s="10">
         <f>SUM(F72,F73)</f>
-        <v>2774.43</v>
+        <v>1248.1799999999998</v>
       </c>
       <c r="H72" s="10">
-        <v>2774.43</v>
+        <v>1248.18</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -2478,49 +2478,49 @@
         <v>5</v>
       </c>
       <c r="C73" s="2">
-        <v>4370</v>
+        <v>4662</v>
       </c>
       <c r="D73" s="2">
-        <f t="shared" si="53"/>
-        <v>279</v>
+        <f t="shared" si="55"/>
+        <v>133</v>
       </c>
       <c r="E73" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F73" s="12">
-        <f t="shared" si="54"/>
-        <v>711.44999999999993</v>
+        <f t="shared" si="56"/>
+        <v>339.15</v>
       </c>
       <c r="G73" s="10"/>
       <c r="H73" s="10"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
-        <v>44116</v>
+        <v>44137</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C74" s="2">
-        <v>6186</v>
+        <v>6813</v>
       </c>
       <c r="D74" s="2">
-        <f t="shared" si="53"/>
-        <v>329</v>
+        <f t="shared" si="55"/>
+        <v>189</v>
       </c>
       <c r="E74" s="6">
         <v>4.71</v>
       </c>
       <c r="F74" s="8">
-        <f t="shared" si="54"/>
-        <v>1549.59</v>
+        <f t="shared" si="56"/>
+        <v>890.18999999999994</v>
       </c>
       <c r="G74" s="10">
         <f>SUM(F74,F75)</f>
-        <v>2189.64</v>
+        <v>1295.6399999999999</v>
       </c>
       <c r="H74" s="10">
-        <v>2189.64</v>
+        <v>1295.6400000000001</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -2529,37 +2529,50 @@
         <v>5</v>
       </c>
       <c r="C75" s="2">
-        <v>4091</v>
+        <v>4529</v>
       </c>
       <c r="D75" s="2">
-        <f t="shared" si="53"/>
-        <v>251</v>
+        <f t="shared" si="55"/>
+        <v>159</v>
       </c>
       <c r="E75" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F75" s="12">
-        <f t="shared" si="54"/>
-        <v>640.04999999999995</v>
+        <f t="shared" si="56"/>
+        <v>405.45</v>
       </c>
       <c r="G75" s="10"/>
       <c r="H75" s="10"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
-        <v>44102</v>
+        <v>44126</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C76" s="2">
-        <v>5857</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="11"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="10"/>
+        <v>6624</v>
+      </c>
+      <c r="D76" s="2">
+        <f t="shared" si="55"/>
+        <v>438</v>
+      </c>
+      <c r="E76" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F76" s="8">
+        <f t="shared" si="56"/>
+        <v>2062.98</v>
+      </c>
+      <c r="G76" s="10">
+        <f>SUM(F76,F77)</f>
+        <v>2774.43</v>
+      </c>
+      <c r="H76" s="10">
+        <v>2774.43</v>
+      </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
@@ -2567,29 +2580,118 @@
         <v>5</v>
       </c>
       <c r="C77" s="2">
-        <v>3840</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" s="15"/>
-      <c r="F77" s="16"/>
+        <v>4370</v>
+      </c>
+      <c r="D77" s="2">
+        <f t="shared" si="55"/>
+        <v>279</v>
+      </c>
+      <c r="E77" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F77" s="12">
+        <f t="shared" si="56"/>
+        <v>711.44999999999993</v>
+      </c>
       <c r="G77" s="10"/>
       <c r="H77" s="10"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="5">
+        <v>44116</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78" s="2">
+        <v>6186</v>
+      </c>
+      <c r="D78" s="2">
+        <f t="shared" si="55"/>
+        <v>329</v>
+      </c>
+      <c r="E78" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F78" s="8">
+        <f t="shared" si="56"/>
+        <v>1549.59</v>
+      </c>
       <c r="G78" s="10">
-        <f>SUM(G36:G77)</f>
-        <v>27454.589999999997</v>
+        <f>SUM(F78,F79)</f>
+        <v>2189.64</v>
       </c>
       <c r="H78" s="10">
-        <f>SUM(H36:H77)</f>
-        <v>27455.440000000002</v>
+        <v>2189.64</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G79" s="17"/>
-      <c r="H79" s="10">
-        <f>SUM(H78,-G78)</f>
-        <v>0.85000000000582077</v>
+      <c r="A79" s="2"/>
+      <c r="B79" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" s="2">
+        <v>4091</v>
+      </c>
+      <c r="D79" s="2">
+        <f t="shared" si="55"/>
+        <v>251</v>
+      </c>
+      <c r="E79" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F79" s="12">
+        <f t="shared" si="56"/>
+        <v>640.04999999999995</v>
+      </c>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="5">
+        <v>44102</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80" s="2">
+        <v>5857</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="10"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" s="2">
+        <v>3840</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="16"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G82" s="10">
+        <f>SUM(G6:G81)</f>
+        <v>45116.08</v>
+      </c>
+      <c r="H82" s="10">
+        <f>SUM(H6:H81)</f>
+        <v>44848.929999999993</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G83" s="17"/>
+      <c r="H83" s="10">
+        <f>SUM(H82,-G82)</f>
+        <v>-267.15000000000873</v>
       </c>
     </row>
   </sheetData>
